--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_branch.xlsx
@@ -80,10 +80,10 @@
     <t>pf_q_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_from_deg</t>
+    <t>pf_ikss_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_to_deg</t>
+    <t>pf_ikss_to_degree</t>
   </si>
   <si>
     <t>pf_vm_from_pu</t>
@@ -92,10 +92,10 @@
     <t>pf_vm_to_pu</t>
   </si>
   <si>
-    <t>pf_va_from_deg</t>
+    <t>pf_va_from_degree</t>
   </si>
   <si>
-    <t>pf_va_to_deg</t>
+    <t>pf_va_to_degree</t>
   </si>
   <si>
     <t>Line_0</t>
@@ -161,76 +161,76 @@
     <t>pf_p_c_to_mw</t>
   </si>
   <si>
-    <t>pf_q_a_from_mw</t>
+    <t>pf_q_a_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_from_mw</t>
+    <t>pf_q_b_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_from_mw</t>
+    <t>pf_q_c_from_mvar</t>
   </si>
   <si>
-    <t>pf_q_a_to_mw</t>
+    <t>pf_q_a_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_b_to_mw</t>
+    <t>pf_q_b_to_mvar</t>
   </si>
   <si>
-    <t>pf_q_c_to_mw</t>
+    <t>pf_q_c_to_mvar</t>
   </si>
   <si>
-    <t>pf_ikss_a_from_deg</t>
+    <t>pf_ikss_a_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_from_deg</t>
+    <t>pf_ikss_b_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_from_deg</t>
+    <t>pf_ikss_c_from_degree</t>
   </si>
   <si>
-    <t>pf_ikss_a_to_deg</t>
+    <t>pf_ikss_a_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_b_to_deg</t>
+    <t>pf_ikss_b_to_degree</t>
   </si>
   <si>
-    <t>pf_ikss_c_to_deg</t>
+    <t>pf_ikss_c_to_degree</t>
   </si>
   <si>
     <t>pf_vm_a_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_from_bus_pu</t>
+    <t>pf_vm_b_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_from_bus_pu</t>
+    <t>pf_vm_c_from_pu</t>
   </si>
   <si>
-    <t>pf_vm_a_to_bus_pu</t>
+    <t>pf_vm_a_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_b_to_bus_pu</t>
+    <t>pf_vm_b_to_pu</t>
   </si>
   <si>
-    <t>pf_vm_c_to_bus_pu</t>
+    <t>pf_vm_c_to_pu</t>
   </si>
   <si>
-    <t>pf_va_a_from_bus_deg</t>
+    <t>pf_va_a_from_degree</t>
   </si>
   <si>
-    <t>pf_va_b_from_bus_deg</t>
+    <t>pf_va_b_from_degree</t>
   </si>
   <si>
-    <t>pf_va_c_from_bus_deg</t>
+    <t>pf_va_c_from_degree</t>
   </si>
   <si>
-    <t>pf_va_a_to_bus_deg</t>
+    <t>pf_va_a_to_degree</t>
   </si>
   <si>
-    <t>pf_va_b_to_bus_deg</t>
+    <t>pf_va_b_to_degree</t>
   </si>
   <si>
-    <t>pf_va_c_to_bus_deg</t>
+    <t>pf_va_c_to_degree</t>
   </si>
 </sst>
 </file>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_branch.xlsx
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>84.28940675037381</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>79.08778074434936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>79.08778074434936</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>75.11055707408345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>79.08778074434936</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>75.11055707408345</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1063,22 +1063,22 @@
         <v>0.952627964809529</v>
       </c>
       <c r="AL2">
-        <v>-6.289991047015337E-13</v>
+        <v>7.393038743051484E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999893</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999919</v>
+        <v>179.9999999999889</v>
       </c>
       <c r="AO2">
-        <v>-4.852401742958505E-13</v>
+        <v>6.542352883650259E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999899</v>
       </c>
       <c r="AQ2">
-        <v>179.999999999992</v>
+        <v>179.9999999999892</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1194,22 +1194,22 @@
         <v>0.9526279648097039</v>
       </c>
       <c r="AL3">
-        <v>-4.852401742958505E-13</v>
+        <v>6.542352883650259E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999899</v>
       </c>
       <c r="AN3">
-        <v>179.999999999992</v>
+        <v>179.9999999999892</v>
       </c>
       <c r="AO3">
-        <v>-3.643686092319228E-13</v>
+        <v>5.868810935265246E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999904</v>
       </c>
       <c r="AQ3">
-        <v>179.999999999992</v>
+        <v>179.9999999999894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1325,22 +1325,22 @@
         <v>0.9526279648097039</v>
       </c>
       <c r="AL4">
-        <v>-4.852401742958505E-13</v>
+        <v>6.542352883650259E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999899</v>
       </c>
       <c r="AN4">
-        <v>179.999999999992</v>
+        <v>179.9999999999892</v>
       </c>
       <c r="AO4">
-        <v>-3.588354961759716E-13</v>
+        <v>5.720494568375048E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999905</v>
       </c>
       <c r="AQ4">
-        <v>179.999999999992</v>
+        <v>179.9999999999895</v>
       </c>
     </row>
   </sheetData>
@@ -1600,22 +1600,22 @@
         <v>0.8990062051130553</v>
       </c>
       <c r="AL2">
-        <v>12.94734958163789</v>
+        <v>4.107243746137125E-13</v>
       </c>
       <c r="AM2">
-        <v>-111.8715959987214</v>
+        <v>-149.790502369296</v>
       </c>
       <c r="AN2">
-        <v>164.2547774324403</v>
+        <v>132.4483367722449</v>
       </c>
       <c r="AO2">
-        <v>12.10694022610787</v>
+        <v>3.729844236250756E-13</v>
       </c>
       <c r="AP2">
-        <v>-110.1555053571849</v>
+        <v>-150.9270159887323</v>
       </c>
       <c r="AQ2">
-        <v>165.7159849577473</v>
+        <v>136.7907349337361</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -1731,22 +1731,22 @@
         <v>0.9066188243642738</v>
       </c>
       <c r="AL3">
-        <v>12.10694022610787</v>
+        <v>3.729844236250756E-13</v>
       </c>
       <c r="AM3">
-        <v>-110.1555053571849</v>
+        <v>-150.9270159887323</v>
       </c>
       <c r="AN3">
-        <v>165.7159849577473</v>
+        <v>136.7907349337361</v>
       </c>
       <c r="AO3">
-        <v>11.33736026907989</v>
+        <v>3.432500056227896E-13</v>
       </c>
       <c r="AP3">
-        <v>-108.7272990406495</v>
+        <v>-152.098303223136</v>
       </c>
       <c r="AQ3">
-        <v>166.9361473250955</v>
+        <v>140.4399803555035</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1862,22 +1862,22 @@
         <v>0.9066188243642738</v>
       </c>
       <c r="AL4">
-        <v>12.10694022610787</v>
+        <v>3.729844236250756E-13</v>
       </c>
       <c r="AM4">
-        <v>-110.1555053571849</v>
+        <v>-150.9270159887323</v>
       </c>
       <c r="AN4">
-        <v>165.7159849577473</v>
+        <v>136.7907349337361</v>
       </c>
       <c r="AO4">
-        <v>11.33736026907991</v>
+        <v>3.375329757114697E-13</v>
       </c>
       <c r="AP4">
-        <v>-108.7272990406495</v>
+        <v>-152.0983032231359</v>
       </c>
       <c r="AQ4">
-        <v>166.9361473250955</v>
+        <v>140.4399803555035</v>
       </c>
     </row>
   </sheetData>
@@ -2137,22 +2137,22 @@
         <v>0.8990062051130553</v>
       </c>
       <c r="AL2">
-        <v>12.94734958163789</v>
+        <v>4.107243746137125E-13</v>
       </c>
       <c r="AM2">
-        <v>-111.8715959987214</v>
+        <v>-149.790502369296</v>
       </c>
       <c r="AN2">
-        <v>164.2547774324403</v>
+        <v>132.4483367722449</v>
       </c>
       <c r="AO2">
-        <v>12.10694022610787</v>
+        <v>3.729844236250756E-13</v>
       </c>
       <c r="AP2">
-        <v>-110.1555053571849</v>
+        <v>-150.9270159887323</v>
       </c>
       <c r="AQ2">
-        <v>165.7159849577473</v>
+        <v>136.7907349337361</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2268,22 +2268,22 @@
         <v>0.9066188243642738</v>
       </c>
       <c r="AL3">
-        <v>12.10694022610787</v>
+        <v>3.729844236250756E-13</v>
       </c>
       <c r="AM3">
-        <v>-110.1555053571849</v>
+        <v>-150.9270159887323</v>
       </c>
       <c r="AN3">
-        <v>165.7159849577473</v>
+        <v>136.7907349337361</v>
       </c>
       <c r="AO3">
-        <v>11.33736026907989</v>
+        <v>3.432500056227896E-13</v>
       </c>
       <c r="AP3">
-        <v>-108.7272990406495</v>
+        <v>-152.098303223136</v>
       </c>
       <c r="AQ3">
-        <v>166.9361473250955</v>
+        <v>140.4399803555035</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2399,22 +2399,22 @@
         <v>0.9066188243642738</v>
       </c>
       <c r="AL4">
-        <v>12.10694022610787</v>
+        <v>3.729844236250756E-13</v>
       </c>
       <c r="AM4">
-        <v>-110.1555053571849</v>
+        <v>-150.9270159887323</v>
       </c>
       <c r="AN4">
-        <v>165.7159849577473</v>
+        <v>136.7907349337361</v>
       </c>
       <c r="AO4">
-        <v>11.33736026907991</v>
+        <v>3.375329757114697E-13</v>
       </c>
       <c r="AP4">
-        <v>-108.7272990406495</v>
+        <v>-152.0983032231359</v>
       </c>
       <c r="AQ4">
-        <v>166.9361473250955</v>
+        <v>140.4399803555035</v>
       </c>
     </row>
   </sheetData>
@@ -2674,22 +2674,22 @@
         <v>0.8660254037866308</v>
       </c>
       <c r="AL2">
-        <v>7.405398539844763E-12</v>
+        <v>6.886006733265022E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999719</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999839</v>
+        <v>179.9999999999648</v>
       </c>
       <c r="AO2">
-        <v>1.780692173543077E-11</v>
+        <v>5.344175747881745E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999999404</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999999737</v>
+        <v>179.9999999999346</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -2805,22 +2805,22 @@
         <v>0.8660254037863299</v>
       </c>
       <c r="AL3">
-        <v>1.780692173543077E-11</v>
+        <v>5.344175747881745E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999999404</v>
       </c>
       <c r="AN3">
-        <v>179.9999999999737</v>
+        <v>179.9999999999346</v>
       </c>
       <c r="AO3">
-        <v>2.263570042986083E-11</v>
+        <v>4.559487397231727E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999999257</v>
       </c>
       <c r="AQ3">
-        <v>179.999999999969</v>
+        <v>179.9999999999208</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -2936,22 +2936,22 @@
         <v>0.8660254037863299</v>
       </c>
       <c r="AL4">
-        <v>1.780692173543077E-11</v>
+        <v>5.344175747881745E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999999404</v>
       </c>
       <c r="AN4">
-        <v>179.9999999999737</v>
+        <v>179.9999999999346</v>
       </c>
       <c r="AO4">
-        <v>2.263853053768626E-11</v>
+        <v>4.347494640096741E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999999256</v>
       </c>
       <c r="AQ4">
-        <v>179.999999999969</v>
+        <v>179.9999999999208</v>
       </c>
     </row>
   </sheetData>
@@ -3211,22 +3211,22 @@
         <v>0.8660254037866308</v>
       </c>
       <c r="AL2">
-        <v>7.405398539844763E-12</v>
+        <v>6.886006733265022E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-179.9999999999719</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999839</v>
+        <v>179.9999999999648</v>
       </c>
       <c r="AO2">
-        <v>1.780692173543077E-11</v>
+        <v>5.344175747881745E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-179.9999999999404</v>
       </c>
       <c r="AQ2">
-        <v>179.9999999999737</v>
+        <v>179.9999999999346</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3342,22 +3342,22 @@
         <v>0.8660254037863299</v>
       </c>
       <c r="AL3">
-        <v>1.780692173543077E-11</v>
+        <v>5.344175747881745E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-179.9999999999404</v>
       </c>
       <c r="AN3">
-        <v>179.9999999999737</v>
+        <v>179.9999999999346</v>
       </c>
       <c r="AO3">
-        <v>2.263570042986083E-11</v>
+        <v>4.559487397231727E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-179.9999999999257</v>
       </c>
       <c r="AQ3">
-        <v>179.999999999969</v>
+        <v>179.9999999999208</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -3473,22 +3473,22 @@
         <v>0.8660254037863299</v>
       </c>
       <c r="AL4">
-        <v>1.780692173543077E-11</v>
+        <v>5.344175747881745E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-179.9999999999404</v>
       </c>
       <c r="AN4">
-        <v>179.9999999999737</v>
+        <v>179.9999999999346</v>
       </c>
       <c r="AO4">
-        <v>2.263853053768626E-11</v>
+        <v>4.347494640096741E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-179.9999999999256</v>
       </c>
       <c r="AQ4">
-        <v>179.999999999969</v>
+        <v>179.9999999999208</v>
       </c>
     </row>
   </sheetData>
@@ -3748,22 +3748,22 @@
         <v>0.8245148352676808</v>
       </c>
       <c r="AL2">
-        <v>11.96551486068327</v>
+        <v>4.175225802073761E-13</v>
       </c>
       <c r="AM2">
-        <v>-113.1494187269337</v>
+        <v>-151.7090141414926</v>
       </c>
       <c r="AN2">
-        <v>165.4883827685514</v>
+        <v>135.0798105189271</v>
       </c>
       <c r="AO2">
-        <v>11.32964460932057</v>
+        <v>3.237023925379371E-13</v>
       </c>
       <c r="AP2">
-        <v>-108.6437575167419</v>
+        <v>-152.0992952265734</v>
       </c>
       <c r="AQ2">
-        <v>166.9558387682455</v>
+        <v>140.5172163445682</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -3879,22 +3879,22 @@
         <v>0.8378069029743125</v>
       </c>
       <c r="AL3">
-        <v>11.32964460932057</v>
+        <v>3.237023925379371E-13</v>
       </c>
       <c r="AM3">
-        <v>-108.6437575167419</v>
+        <v>-152.0992952265734</v>
       </c>
       <c r="AN3">
-        <v>166.9558387682455</v>
+        <v>140.5172163445682</v>
       </c>
       <c r="AO3">
-        <v>10.61318659607675</v>
+        <v>2.93753893670413E-13</v>
       </c>
       <c r="AP3">
-        <v>-105.013681139927</v>
+        <v>-152.9417769804534</v>
       </c>
       <c r="AQ3">
-        <v>168.2323053037849</v>
+        <v>144.8701151508106</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4010,22 +4010,22 @@
         <v>0.8378069029743125</v>
       </c>
       <c r="AL4">
-        <v>11.32964460932057</v>
+        <v>3.237023925379371E-13</v>
       </c>
       <c r="AM4">
-        <v>-108.6437575167419</v>
+        <v>-152.0992952265734</v>
       </c>
       <c r="AN4">
-        <v>166.9558387682455</v>
+        <v>140.5172163445682</v>
       </c>
       <c r="AO4">
-        <v>10.61318659607676</v>
+        <v>2.815438472200884E-13</v>
       </c>
       <c r="AP4">
-        <v>-105.013681139927</v>
+        <v>-152.9417769804534</v>
       </c>
       <c r="AQ4">
-        <v>168.232305303785</v>
+        <v>144.8701151508107</v>
       </c>
     </row>
   </sheetData>
@@ -4285,22 +4285,22 @@
         <v>0.8245148352676808</v>
       </c>
       <c r="AL2">
-        <v>11.96551486068327</v>
+        <v>4.175225802073761E-13</v>
       </c>
       <c r="AM2">
-        <v>-113.1494187269337</v>
+        <v>-151.7090141414926</v>
       </c>
       <c r="AN2">
-        <v>165.4883827685514</v>
+        <v>135.0798105189271</v>
       </c>
       <c r="AO2">
-        <v>11.32964460932057</v>
+        <v>3.237023925379371E-13</v>
       </c>
       <c r="AP2">
-        <v>-108.6437575167419</v>
+        <v>-152.0992952265734</v>
       </c>
       <c r="AQ2">
-        <v>166.9558387682455</v>
+        <v>140.5172163445682</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4416,22 +4416,22 @@
         <v>0.8378069029743125</v>
       </c>
       <c r="AL3">
-        <v>11.32964460932057</v>
+        <v>3.237023925379371E-13</v>
       </c>
       <c r="AM3">
-        <v>-108.6437575167419</v>
+        <v>-152.0992952265734</v>
       </c>
       <c r="AN3">
-        <v>166.9558387682455</v>
+        <v>140.5172163445682</v>
       </c>
       <c r="AO3">
-        <v>10.61318659607675</v>
+        <v>2.93753893670413E-13</v>
       </c>
       <c r="AP3">
-        <v>-105.013681139927</v>
+        <v>-152.9417769804534</v>
       </c>
       <c r="AQ3">
-        <v>168.2323053037849</v>
+        <v>144.8701151508106</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4547,22 +4547,22 @@
         <v>0.8378069029743125</v>
       </c>
       <c r="AL4">
-        <v>11.32964460932057</v>
+        <v>3.237023925379371E-13</v>
       </c>
       <c r="AM4">
-        <v>-108.6437575167419</v>
+        <v>-152.0992952265734</v>
       </c>
       <c r="AN4">
-        <v>166.9558387682455</v>
+        <v>140.5172163445682</v>
       </c>
       <c r="AO4">
-        <v>10.61318659607676</v>
+        <v>2.815438472200884E-13</v>
       </c>
       <c r="AP4">
-        <v>-105.013681139927</v>
+        <v>-152.9417769804534</v>
       </c>
       <c r="AQ4">
-        <v>168.232305303785</v>
+        <v>144.8701151508107</v>
       </c>
     </row>
   </sheetData>
@@ -4822,22 +4822,22 @@
         <v>0.7178088852998012</v>
       </c>
       <c r="AL2">
-        <v>-0.01117384664767678</v>
+        <v>-0.01117384647240266</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9888261535143</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-6.313450644998808</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>173.6865493550667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4953,22 +4953,22 @@
         <v>0.7719945678096874</v>
       </c>
       <c r="AL3">
-        <v>-6.313450644998808</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>173.6865493550667</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-6.619958059522241</v>
+        <v>-6.619958059475713</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>173.3800419405132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5084,22 +5084,22 @@
         <v>0.7719945678096877</v>
       </c>
       <c r="AL4">
-        <v>-6.313450644998808</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>173.6865493550667</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-6.619958059522241</v>
+        <v>-6.619958059475715</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>173.3800419405131</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5359,22 +5359,22 @@
         <v>0.7178088852998012</v>
       </c>
       <c r="AL2">
-        <v>-0.01117384664767678</v>
+        <v>-0.01117384647240266</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9888261535143</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-6.313450644998808</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>173.6865493550667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5490,22 +5490,22 @@
         <v>0.7719945678096874</v>
       </c>
       <c r="AL3">
-        <v>-6.313450644998808</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>173.6865493550667</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-6.619958059522241</v>
+        <v>-6.619958059475713</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>173.3800419405132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5621,22 +5621,22 @@
         <v>0.7719945678096877</v>
       </c>
       <c r="AL4">
-        <v>-6.313450644998808</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>173.6865493550667</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-6.619958059522241</v>
+        <v>-6.619958059475715</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>173.3800419405131</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5896,22 +5896,22 @@
         <v>0.8518280946068217</v>
       </c>
       <c r="AL2">
-        <v>17.56327454668237</v>
+        <v>0.0139270167001685</v>
       </c>
       <c r="AM2">
-        <v>-104.8932091443124</v>
+        <v>-134.8639182893703</v>
       </c>
       <c r="AN2">
-        <v>151.7220699253674</v>
+        <v>105.0635730055186</v>
       </c>
       <c r="AO2">
-        <v>16.29079354750229</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AP2">
-        <v>-104.1338952714761</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AQ2">
-        <v>153.6019224867848</v>
+        <v>103.8229478846527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6027,22 +6027,22 @@
         <v>0.8564846443872474</v>
       </c>
       <c r="AL3">
-        <v>16.29079354750229</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM3">
-        <v>-104.1338952714761</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN3">
-        <v>153.6019224867848</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO3">
-        <v>15.26462421738486</v>
+        <v>-3.782899000602696</v>
       </c>
       <c r="AP3">
-        <v>-103.4693739255812</v>
+        <v>-125.5778459566468</v>
       </c>
       <c r="AQ3">
-        <v>155.2583730680015</v>
+        <v>102.267677590504</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6158,22 +6158,22 @@
         <v>0.8564846443872474</v>
       </c>
       <c r="AL4">
-        <v>16.29079354750229</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM4">
-        <v>-104.1338952714761</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN4">
-        <v>153.6019224867848</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO4">
-        <v>15.26462421738487</v>
+        <v>-3.782899000602703</v>
       </c>
       <c r="AP4">
-        <v>-103.4693739255812</v>
+        <v>-125.5778459566467</v>
       </c>
       <c r="AQ4">
-        <v>155.2583730680015</v>
+        <v>102.267677590504</v>
       </c>
     </row>
   </sheetData>
@@ -6289,10 +6289,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>84.28940675037381</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>79.08778074434936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6342,10 +6342,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>79.08778074434936</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>75.11055707408345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6395,10 +6395,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>79.08778074434936</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>75.11055707408345</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6658,22 +6658,22 @@
         <v>0.8518280946068217</v>
       </c>
       <c r="AL2">
-        <v>17.56327454668237</v>
+        <v>0.0139270167001685</v>
       </c>
       <c r="AM2">
-        <v>-104.8932091443124</v>
+        <v>-134.8639182893703</v>
       </c>
       <c r="AN2">
-        <v>151.7220699253674</v>
+        <v>105.0635730055186</v>
       </c>
       <c r="AO2">
-        <v>16.29079354750229</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AP2">
-        <v>-104.1338952714761</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AQ2">
-        <v>153.6019224867848</v>
+        <v>103.8229478846527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6789,22 +6789,22 @@
         <v>0.8564846443872474</v>
       </c>
       <c r="AL3">
-        <v>16.29079354750229</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM3">
-        <v>-104.1338952714761</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN3">
-        <v>153.6019224867848</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO3">
-        <v>15.26462421738486</v>
+        <v>-3.782899000602696</v>
       </c>
       <c r="AP3">
-        <v>-103.4693739255812</v>
+        <v>-125.5778459566468</v>
       </c>
       <c r="AQ3">
-        <v>155.2583730680015</v>
+        <v>102.267677590504</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6920,22 +6920,22 @@
         <v>0.8564846443872474</v>
       </c>
       <c r="AL4">
-        <v>16.29079354750229</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM4">
-        <v>-104.1338952714761</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN4">
-        <v>153.6019224867848</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO4">
-        <v>15.26462421738487</v>
+        <v>-3.782899000602703</v>
       </c>
       <c r="AP4">
-        <v>-103.4693739255812</v>
+        <v>-125.5778459566467</v>
       </c>
       <c r="AQ4">
-        <v>155.2583730680015</v>
+        <v>102.267677590504</v>
       </c>
     </row>
   </sheetData>
@@ -7195,22 +7195,22 @@
         <v>0.6950234972340121</v>
       </c>
       <c r="AL2">
-        <v>-0.01310313119137088</v>
+        <v>-0.01310313133982031</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9868968685288</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-7.611827049086783</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>172.3881729507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7326,22 +7326,22 @@
         <v>0.7474500608986431</v>
       </c>
       <c r="AL3">
-        <v>-7.611827049086783</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>172.3881729507654</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-6.297561754805892</v>
+        <v>-6.297561754845085</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>173.702438245086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7457,22 +7457,22 @@
         <v>0.7474500608986436</v>
       </c>
       <c r="AL4">
-        <v>-7.611827049086783</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>172.3881729507654</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-6.297561754805924</v>
+        <v>-6.29756175484508</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>173.702438245086</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7732,22 +7732,22 @@
         <v>0.6950234972340121</v>
       </c>
       <c r="AL2">
-        <v>-0.01310313119137088</v>
+        <v>-0.01310313133982031</v>
       </c>
       <c r="AM2">
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>179.9868968685288</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-7.611827049086783</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AP2">
         <v>0</v>
       </c>
       <c r="AQ2">
-        <v>172.3881729507654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7863,22 +7863,22 @@
         <v>0.7474500608986431</v>
       </c>
       <c r="AL3">
-        <v>-7.611827049086783</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>172.3881729507654</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>-6.297561754805892</v>
+        <v>-6.297561754845085</v>
       </c>
       <c r="AP3">
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>173.702438245086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7994,22 +7994,22 @@
         <v>0.7474500608986436</v>
       </c>
       <c r="AL4">
-        <v>-7.611827049086783</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM4">
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>172.3881729507654</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>-6.297561754805924</v>
+        <v>-6.29756175484508</v>
       </c>
       <c r="AP4">
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>173.702438245086</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8269,22 +8269,22 @@
         <v>0.7780446838807024</v>
       </c>
       <c r="AL2">
-        <v>16.55576890986408</v>
+        <v>0.0158194676764636</v>
       </c>
       <c r="AM2">
-        <v>-106.1399873258002</v>
+        <v>-136.1029564689277</v>
       </c>
       <c r="AN2">
-        <v>152.3303371030605</v>
+        <v>103.8071623873661</v>
       </c>
       <c r="AO2">
-        <v>15.07716951670869</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AP2">
-        <v>-103.4150584572222</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AQ2">
-        <v>154.9843720112472</v>
+        <v>103.3157265540677</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8400,22 +8400,22 @@
         <v>0.793440478635774</v>
       </c>
       <c r="AL3">
-        <v>15.07716951670869</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM3">
-        <v>-103.4150584572222</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN3">
-        <v>154.9843720112472</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO3">
-        <v>14.16121021104031</v>
+        <v>-5.054191003316187</v>
       </c>
       <c r="AP3">
-        <v>-101.1058570224848</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ3">
-        <v>157.3127817016637</v>
+        <v>101.6931454031112</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8531,22 +8531,22 @@
         <v>0.793440478635774</v>
       </c>
       <c r="AL4">
-        <v>15.07716951670869</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM4">
-        <v>-103.4150584572222</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN4">
-        <v>154.9843720112472</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO4">
-        <v>14.1612102110403</v>
+        <v>-5.054191003316185</v>
       </c>
       <c r="AP4">
-        <v>-101.1058570224848</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ4">
-        <v>157.3127817016637</v>
+        <v>101.6931454031111</v>
       </c>
     </row>
   </sheetData>
@@ -8806,22 +8806,22 @@
         <v>0.7780446838807024</v>
       </c>
       <c r="AL2">
-        <v>16.55576890986408</v>
+        <v>0.0158194676764636</v>
       </c>
       <c r="AM2">
-        <v>-106.1399873258002</v>
+        <v>-136.1029564689277</v>
       </c>
       <c r="AN2">
-        <v>152.3303371030605</v>
+        <v>103.8071623873661</v>
       </c>
       <c r="AO2">
-        <v>15.07716951670869</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AP2">
-        <v>-103.4150584572222</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AQ2">
-        <v>154.9843720112472</v>
+        <v>103.3157265540677</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8937,22 +8937,22 @@
         <v>0.793440478635774</v>
       </c>
       <c r="AL3">
-        <v>15.07716951670869</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM3">
-        <v>-103.4150584572222</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN3">
-        <v>154.9843720112472</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO3">
-        <v>14.16121021104031</v>
+        <v>-5.054191003316187</v>
       </c>
       <c r="AP3">
-        <v>-101.1058570224848</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ3">
-        <v>157.3127817016637</v>
+        <v>101.6931454031112</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9068,22 +9068,22 @@
         <v>0.793440478635774</v>
       </c>
       <c r="AL4">
-        <v>15.07716951670869</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM4">
-        <v>-103.4150584572222</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN4">
-        <v>154.9843720112472</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO4">
-        <v>14.1612102110403</v>
+        <v>-5.054191003316185</v>
       </c>
       <c r="AP4">
-        <v>-101.1058570224848</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ4">
-        <v>157.3127817016637</v>
+        <v>101.6931454031111</v>
       </c>
     </row>
   </sheetData>
@@ -9343,22 +9343,22 @@
         <v>0.7599982922815229</v>
       </c>
       <c r="AL2">
-        <v>59.90088731360098</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999633</v>
+        <v>-120.0991126865173</v>
       </c>
       <c r="AN2">
-        <v>120.0878544346237</v>
+        <v>120.0878544348442</v>
       </c>
       <c r="AO2">
-        <v>48.84809195671546</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999643</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AQ2">
-        <v>121.109045449341</v>
+        <v>121.1090454494766</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9474,22 +9474,22 @@
         <v>0.826836754355374</v>
       </c>
       <c r="AL3">
-        <v>48.84809195671546</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999643</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN3">
-        <v>121.109045449341</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO3">
-        <v>41.92164926482276</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.9999999999964</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ3">
-        <v>123.7614475143174</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9605,22 +9605,22 @@
         <v>0.8268367543553737</v>
       </c>
       <c r="AL4">
-        <v>48.84809195671546</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999643</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN4">
-        <v>121.109045449341</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO4">
-        <v>41.92164926482278</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999639</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ4">
-        <v>123.7614475143174</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
   </sheetData>
@@ -9880,22 +9880,22 @@
         <v>0.7599982922815229</v>
       </c>
       <c r="AL2">
-        <v>59.90088731360098</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999633</v>
+        <v>-120.0991126865173</v>
       </c>
       <c r="AN2">
-        <v>120.0878544346237</v>
+        <v>120.0878544348442</v>
       </c>
       <c r="AO2">
-        <v>48.84809195671546</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999643</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AQ2">
-        <v>121.109045449341</v>
+        <v>121.1090454494766</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10011,22 +10011,22 @@
         <v>0.826836754355374</v>
       </c>
       <c r="AL3">
-        <v>48.84809195671546</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999643</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN3">
-        <v>121.109045449341</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO3">
-        <v>41.92164926482276</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.9999999999964</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ3">
-        <v>123.7614475143174</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10142,22 +10142,22 @@
         <v>0.8268367543553737</v>
       </c>
       <c r="AL4">
-        <v>48.84809195671546</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999643</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN4">
-        <v>121.109045449341</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO4">
-        <v>41.92164926482278</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999639</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ4">
-        <v>123.7614475143174</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
   </sheetData>
@@ -10417,22 +10417,22 @@
         <v>0.9689144874145577</v>
       </c>
       <c r="AL2">
-        <v>31.7119228523478</v>
+        <v>-14.90717692343631</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999653</v>
+        <v>-120.0292704737576</v>
       </c>
       <c r="AN2">
-        <v>137.5699449588465</v>
+        <v>120.0432382313321</v>
       </c>
       <c r="AO2">
-        <v>31.98508613615191</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999645</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AQ2">
-        <v>137.6328508700616</v>
+        <v>121.6238606247693</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10548,22 +10548,22 @@
         <v>0.9656494086163243</v>
       </c>
       <c r="AL3">
-        <v>31.98508613615191</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999645</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN3">
-        <v>137.6328508700616</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO3">
-        <v>32.20512181945389</v>
+        <v>-7.303623184977604</v>
       </c>
       <c r="AP3">
-        <v>-89.9999999999964</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ3">
-        <v>137.6537678120567</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10679,22 +10679,22 @@
         <v>0.9656494086163243</v>
       </c>
       <c r="AL4">
-        <v>31.98508613615191</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999645</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN4">
-        <v>137.6328508700616</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO4">
-        <v>32.20512181945389</v>
+        <v>-7.303623184977599</v>
       </c>
       <c r="AP4">
-        <v>-89.9999999999964</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ4">
-        <v>137.6537678120567</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
   </sheetData>
@@ -10954,22 +10954,22 @@
         <v>0.9689144874145577</v>
       </c>
       <c r="AL2">
-        <v>31.7119228523478</v>
+        <v>-14.90717692343631</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999653</v>
+        <v>-120.0292704737576</v>
       </c>
       <c r="AN2">
-        <v>137.5699449588465</v>
+        <v>120.0432382313321</v>
       </c>
       <c r="AO2">
-        <v>31.98508613615191</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999645</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AQ2">
-        <v>137.6328508700616</v>
+        <v>121.6238606247693</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11085,22 +11085,22 @@
         <v>0.9656494086163243</v>
       </c>
       <c r="AL3">
-        <v>31.98508613615191</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999645</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN3">
-        <v>137.6328508700616</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO3">
-        <v>32.20512181945389</v>
+        <v>-7.303623184977604</v>
       </c>
       <c r="AP3">
-        <v>-89.9999999999964</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ3">
-        <v>137.6537678120567</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11216,22 +11216,22 @@
         <v>0.9656494086163243</v>
       </c>
       <c r="AL4">
-        <v>31.98508613615191</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999645</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN4">
-        <v>137.6328508700616</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO4">
-        <v>32.20512181945389</v>
+        <v>-7.303623184977599</v>
       </c>
       <c r="AP4">
-        <v>-89.9999999999964</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ4">
-        <v>137.6537678120567</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
   </sheetData>
@@ -11491,22 +11491,22 @@
         <v>0.7514492206972073</v>
       </c>
       <c r="AL2">
-        <v>59.88716006626888</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999636</v>
+        <v>-120.1128399339563</v>
       </c>
       <c r="AN2">
-        <v>120.0996242896476</v>
+        <v>120.0996242898029</v>
       </c>
       <c r="AO2">
-        <v>42.2903649473445</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999652</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AQ2">
-        <v>122.1643601284607</v>
+        <v>122.1643601285336</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11622,22 +11622,22 @@
         <v>0.8180273553921663</v>
       </c>
       <c r="AL3">
-        <v>42.2903649473445</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999652</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN3">
-        <v>122.1643601284607</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO3">
-        <v>35.14600558028982</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999639</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ3">
-        <v>126.7970300907754</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11753,22 +11753,22 @@
         <v>0.8180273553921662</v>
       </c>
       <c r="AL4">
-        <v>42.2903649473445</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999652</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN4">
-        <v>122.1643601284607</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO4">
-        <v>35.14600558028984</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999639</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ4">
-        <v>126.7970300907753</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
   </sheetData>
@@ -11884,10 +11884,10 @@
         <v>0.6697864322467405</v>
       </c>
       <c r="P2">
-        <v>45.00000000003757</v>
+        <v>-14.89320914423961</v>
       </c>
       <c r="Q2">
-        <v>45.00000000003514</v>
+        <v>-14.13389527141264</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -11937,10 +11937,10 @@
         <v>0.627932206981674</v>
       </c>
       <c r="P3">
-        <v>45.00000000003514</v>
+        <v>-14.13389527141264</v>
       </c>
       <c r="Q3">
-        <v>45.000000000033</v>
+        <v>-13.46937392552527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -11990,10 +11990,10 @@
         <v>0.6279322069816738</v>
       </c>
       <c r="P4">
-        <v>45.00000000003514</v>
+        <v>-14.13389527141264</v>
       </c>
       <c r="Q4">
-        <v>45.00000000003298</v>
+        <v>-13.46937392552528</v>
       </c>
     </row>
   </sheetData>
@@ -12253,22 +12253,22 @@
         <v>0.7514492206972073</v>
       </c>
       <c r="AL2">
-        <v>59.88716006626888</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999636</v>
+        <v>-120.1128399339563</v>
       </c>
       <c r="AN2">
-        <v>120.0996242896476</v>
+        <v>120.0996242898029</v>
       </c>
       <c r="AO2">
-        <v>42.2903649473445</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999652</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AQ2">
-        <v>122.1643601284607</v>
+        <v>122.1643601285336</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12384,22 +12384,22 @@
         <v>0.8180273553921663</v>
       </c>
       <c r="AL3">
-        <v>42.2903649473445</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999652</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN3">
-        <v>122.1643601284607</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO3">
-        <v>35.14600558028982</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999639</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ3">
-        <v>126.7970300907754</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12515,22 +12515,22 @@
         <v>0.8180273553921662</v>
       </c>
       <c r="AL4">
-        <v>42.2903649473445</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999652</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN4">
-        <v>122.1643601284607</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO4">
-        <v>35.14600558028984</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999639</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ4">
-        <v>126.7970300907753</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
   </sheetData>
@@ -12790,22 +12790,22 @@
         <v>0.877371251159636</v>
       </c>
       <c r="AL2">
-        <v>32.31584613269226</v>
+        <v>-16.15586420839396</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999655</v>
+        <v>-120.037002149499</v>
       </c>
       <c r="AN2">
-        <v>136.5651455806771</v>
+        <v>120.0528789941859</v>
       </c>
       <c r="AO2">
-        <v>32.13594383429049</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999645</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AQ2">
-        <v>137.3083573823813</v>
+        <v>122.1108182946456</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12921,22 +12921,22 @@
         <v>0.8785874061674938</v>
       </c>
       <c r="AL3">
-        <v>32.13594383429049</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999645</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN3">
-        <v>137.3083573823813</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO3">
-        <v>32.21715262800947</v>
+        <v>-0.3048353219359057</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999638</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ3">
-        <v>137.8628958470784</v>
+        <v>124.489614959663</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13052,22 +13052,22 @@
         <v>0.8785874061674938</v>
       </c>
       <c r="AL4">
-        <v>32.13594383429049</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999645</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN4">
-        <v>137.3083573823813</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO4">
-        <v>32.21715262800947</v>
+        <v>-0.3048353219359008</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ4">
-        <v>137.8628958470784</v>
+        <v>124.489614959663</v>
       </c>
     </row>
   </sheetData>
@@ -13327,22 +13327,22 @@
         <v>0.877371251159636</v>
       </c>
       <c r="AL2">
-        <v>32.31584613269226</v>
+        <v>-16.15586420839396</v>
       </c>
       <c r="AM2">
-        <v>-89.99999999999655</v>
+        <v>-120.037002149499</v>
       </c>
       <c r="AN2">
-        <v>136.5651455806771</v>
+        <v>120.0528789941859</v>
       </c>
       <c r="AO2">
-        <v>32.13594383429049</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AP2">
-        <v>-89.99999999999645</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AQ2">
-        <v>137.3083573823813</v>
+        <v>122.1108182946456</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13458,22 +13458,22 @@
         <v>0.8785874061674938</v>
       </c>
       <c r="AL3">
-        <v>32.13594383429049</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM3">
-        <v>-89.99999999999645</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN3">
-        <v>137.3083573823813</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO3">
-        <v>32.21715262800947</v>
+        <v>-0.3048353219359057</v>
       </c>
       <c r="AP3">
-        <v>-89.99999999999638</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ3">
-        <v>137.8628958470784</v>
+        <v>124.489614959663</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13589,22 +13589,22 @@
         <v>0.8785874061674938</v>
       </c>
       <c r="AL4">
-        <v>32.13594383429049</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM4">
-        <v>-89.99999999999645</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN4">
-        <v>137.3083573823813</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO4">
-        <v>32.21715262800947</v>
+        <v>-0.3048353219359008</v>
       </c>
       <c r="AP4">
-        <v>-89.99999999999636</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ4">
-        <v>137.8628958470784</v>
+        <v>124.489614959663</v>
       </c>
     </row>
   </sheetData>
@@ -13720,10 +13720,10 @@
         <v>0.6697864322467405</v>
       </c>
       <c r="P2">
-        <v>45.00000000003757</v>
+        <v>-14.89320914423961</v>
       </c>
       <c r="Q2">
-        <v>45.00000000003514</v>
+        <v>-14.13389527141264</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13773,10 +13773,10 @@
         <v>0.627932206981674</v>
       </c>
       <c r="P3">
-        <v>45.00000000003514</v>
+        <v>-14.13389527141264</v>
       </c>
       <c r="Q3">
-        <v>45.000000000033</v>
+        <v>-13.46937392552527</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -13826,10 +13826,10 @@
         <v>0.6279322069816738</v>
       </c>
       <c r="P4">
-        <v>45.00000000003514</v>
+        <v>-14.13389527141264</v>
       </c>
       <c r="Q4">
-        <v>45.00000000003298</v>
+        <v>-13.46937392552528</v>
       </c>
     </row>
   </sheetData>
@@ -13945,10 +13945,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>84.28940674684127</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>74.95455943352283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -13998,10 +13998,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>74.95455943352283</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>67.94031102776448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14051,10 +14051,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>74.95455943352283</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>67.94031102776448</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14170,10 +14170,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>84.28940674684127</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>74.95455943352283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14223,10 +14223,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>74.95455943352283</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>67.94031102776448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14276,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>74.95455943352283</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>67.94031102776448</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14395,10 +14395,10 @@
         <v>0.5701359740005393</v>
       </c>
       <c r="P2">
-        <v>45.000000000111</v>
+        <v>-16.13998732580944</v>
       </c>
       <c r="Q2">
-        <v>45.00000000011345</v>
+        <v>-13.41505845719961</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14448,10 +14448,10 @@
         <v>0.5261657129485261</v>
       </c>
       <c r="P3">
-        <v>45.00000000011345</v>
+        <v>-13.41505845719961</v>
       </c>
       <c r="Q3">
-        <v>45.00000000011481</v>
+        <v>-11.10585702243908</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14501,10 +14501,10 @@
         <v>0.526165712948526</v>
       </c>
       <c r="P4">
-        <v>45.00000000011345</v>
+        <v>-13.41505845719961</v>
       </c>
       <c r="Q4">
-        <v>45.00000000011482</v>
+        <v>-11.10585702243908</v>
       </c>
     </row>
   </sheetData>
@@ -14620,10 +14620,10 @@
         <v>0.5701359740005393</v>
       </c>
       <c r="P2">
-        <v>45.000000000111</v>
+        <v>-16.13998732580944</v>
       </c>
       <c r="Q2">
-        <v>45.00000000011345</v>
+        <v>-13.41505845719961</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -14673,10 +14673,10 @@
         <v>0.5261657129485261</v>
       </c>
       <c r="P3">
-        <v>45.00000000011345</v>
+        <v>-13.41505845719961</v>
       </c>
       <c r="Q3">
-        <v>45.00000000011481</v>
+        <v>-11.10585702243908</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -14726,10 +14726,10 @@
         <v>0.526165712948526</v>
       </c>
       <c r="P4">
-        <v>45.00000000011345</v>
+        <v>-13.41505845719961</v>
       </c>
       <c r="Q4">
-        <v>45.00000000011482</v>
+        <v>-11.10585702243908</v>
       </c>
     </row>
   </sheetData>
@@ -14989,22 +14989,22 @@
         <v>0.952627964809529</v>
       </c>
       <c r="AL2">
-        <v>-6.289991047015337E-13</v>
+        <v>7.393038743051484E-13</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>179.9999999999893</v>
       </c>
       <c r="AN2">
-        <v>179.9999999999919</v>
+        <v>179.9999999999889</v>
       </c>
       <c r="AO2">
-        <v>-4.852401742958505E-13</v>
+        <v>6.542352883650259E-13</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>179.9999999999899</v>
       </c>
       <c r="AQ2">
-        <v>179.999999999992</v>
+        <v>179.9999999999892</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -15120,22 +15120,22 @@
         <v>0.9526279648097039</v>
       </c>
       <c r="AL3">
-        <v>-4.852401742958505E-13</v>
+        <v>6.542352883650259E-13</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>179.9999999999899</v>
       </c>
       <c r="AN3">
-        <v>179.999999999992</v>
+        <v>179.9999999999892</v>
       </c>
       <c r="AO3">
-        <v>-3.643686092319228E-13</v>
+        <v>5.868810935265246E-13</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>179.9999999999904</v>
       </c>
       <c r="AQ3">
-        <v>179.999999999992</v>
+        <v>179.9999999999894</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -15251,22 +15251,22 @@
         <v>0.9526279648097039</v>
       </c>
       <c r="AL4">
-        <v>-4.852401742958505E-13</v>
+        <v>6.542352883650259E-13</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>179.9999999999899</v>
       </c>
       <c r="AN4">
-        <v>179.999999999992</v>
+        <v>179.9999999999892</v>
       </c>
       <c r="AO4">
-        <v>-3.588354961759716E-13</v>
+        <v>5.720494568375048E-13</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>179.9999999999905</v>
       </c>
       <c r="AQ4">
-        <v>179.999999999992</v>
+        <v>179.9999999999895</v>
       </c>
     </row>
   </sheetData>

--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_branch.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_branch.xlsx
@@ -23,22 +23,22 @@
     <sheet name="LL_min_10" sheetId="14" r:id="rId14"/>
     <sheet name="LL_min_fault_6" sheetId="15" r:id="rId15"/>
     <sheet name="LL_min_fault_10" sheetId="16" r:id="rId16"/>
-    <sheet name="LLG_max_6" sheetId="17" r:id="rId17"/>
-    <sheet name="LLG_max_10" sheetId="18" r:id="rId18"/>
-    <sheet name="LLG_max_fault_6" sheetId="19" r:id="rId19"/>
-    <sheet name="LLG_max_fault_10" sheetId="20" r:id="rId20"/>
-    <sheet name="LLG_min_6" sheetId="21" r:id="rId21"/>
-    <sheet name="LLG_min_10" sheetId="22" r:id="rId22"/>
-    <sheet name="LLG_min_fault_6" sheetId="23" r:id="rId23"/>
-    <sheet name="LLG_min_fault_10" sheetId="24" r:id="rId24"/>
-    <sheet name="LG_max_6" sheetId="25" r:id="rId25"/>
-    <sheet name="LG_max_10" sheetId="26" r:id="rId26"/>
-    <sheet name="LG_max_fault_6" sheetId="27" r:id="rId27"/>
-    <sheet name="LG_max_fault_10" sheetId="28" r:id="rId28"/>
-    <sheet name="LG_min_6" sheetId="29" r:id="rId29"/>
-    <sheet name="LG_min_10" sheetId="30" r:id="rId30"/>
-    <sheet name="LG_min_fault_6" sheetId="31" r:id="rId31"/>
-    <sheet name="LG_min_fault_10" sheetId="32" r:id="rId32"/>
+    <sheet name="LG_max_6" sheetId="17" r:id="rId17"/>
+    <sheet name="LG_max_10" sheetId="18" r:id="rId18"/>
+    <sheet name="LG_max_fault_6" sheetId="19" r:id="rId19"/>
+    <sheet name="LG_max_fault_10" sheetId="20" r:id="rId20"/>
+    <sheet name="LG_min_6" sheetId="21" r:id="rId21"/>
+    <sheet name="LG_min_10" sheetId="22" r:id="rId22"/>
+    <sheet name="LG_min_fault_6" sheetId="23" r:id="rId23"/>
+    <sheet name="LG_min_fault_10" sheetId="24" r:id="rId24"/>
+    <sheet name="LLG_max_6" sheetId="25" r:id="rId25"/>
+    <sheet name="LLG_max_10" sheetId="26" r:id="rId26"/>
+    <sheet name="LLG_max_fault_6" sheetId="27" r:id="rId27"/>
+    <sheet name="LLG_max_fault_10" sheetId="28" r:id="rId28"/>
+    <sheet name="LLG_min_6" sheetId="29" r:id="rId29"/>
+    <sheet name="LLG_min_10" sheetId="30" r:id="rId30"/>
+    <sheet name="LLG_min_fault_6" sheetId="31" r:id="rId31"/>
+    <sheet name="LLG_min_fault_10" sheetId="32" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -4714,130 +4714,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.005462791258330974</v>
+        <v>0.005473092900013493</v>
       </c>
       <c r="C2">
-        <v>0.005462792168000915</v>
+        <v>0.005473092895653112</v>
       </c>
       <c r="D2">
-        <v>0.005462790353012665</v>
+        <v>0.005473092895655525</v>
       </c>
       <c r="E2">
-        <v>0.004103356889504518</v>
+        <v>2.252717306096701</v>
       </c>
       <c r="F2">
-        <v>2.660036195579899</v>
+        <v>0.004634641244421751</v>
       </c>
       <c r="G2">
-        <v>2.091163101421792</v>
+        <v>0.004634641244424862</v>
       </c>
       <c r="H2">
-        <v>0.06307888007048244</v>
+        <v>0.0631978331824524</v>
       </c>
       <c r="I2">
-        <v>0.06307889057444614</v>
+        <v>0.06319783313210306</v>
       </c>
       <c r="J2">
-        <v>0.06307886961676706</v>
+        <v>0.06319783313213091</v>
       </c>
       <c r="K2">
-        <v>0.04738148409473079</v>
+        <v>26.01213886166117</v>
       </c>
       <c r="L2">
-        <v>30.71545227144405</v>
+        <v>0.05351622740128481</v>
       </c>
       <c r="M2">
-        <v>24.14667159050569</v>
+        <v>0.05351622740132072</v>
       </c>
       <c r="N2">
-        <v>0.0002482472885469999</v>
+        <v>1.15935958853601E-13</v>
       </c>
       <c r="O2">
-        <v>2.122072941029916E-13</v>
+        <v>0.06032814290799341</v>
       </c>
       <c r="P2">
-        <v>8.157963722465682E-15</v>
+        <v>-0.06007895845564305</v>
       </c>
       <c r="Q2">
-        <v>-2.33399172101303E-05</v>
+        <v>-6.276366226295867E-12</v>
       </c>
       <c r="R2">
-        <v>-4.320443247159538E-11</v>
+        <v>-0.04939289853961923</v>
       </c>
       <c r="S2">
-        <v>-4.334051217155358E-11</v>
+        <v>0.04936312345717925</v>
       </c>
       <c r="T2">
-        <v>-0.0695169310652496</v>
+        <v>-2.424773262478404E-13</v>
       </c>
       <c r="U2">
-        <v>1.275293533041838E-13</v>
+        <v>-0.03465116761270845</v>
       </c>
       <c r="V2">
-        <v>-2.489684432346559E-13</v>
+        <v>-0.03512819832072846</v>
       </c>
       <c r="W2">
-        <v>0.05890851607324762</v>
+        <v>8.116116855555574E-11</v>
       </c>
       <c r="X2">
-        <v>5.363209352386712E-11</v>
+        <v>0.02489139163458048</v>
       </c>
       <c r="Y2">
-        <v>3.366473968148282E-11</v>
+        <v>0.05025908586948829</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-68.89306558737331</v>
       </c>
       <c r="AA2">
-        <v>170.0913491645859</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>37.83039567180641</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-96.3361515847661</v>
+        <v>111.0384603224017</v>
       </c>
       <c r="AD2">
-        <v>-9.996863288934243</v>
+        <v>75.59376395581886</v>
       </c>
       <c r="AE2">
-        <v>-142.0889578364301</v>
+        <v>75.59376395581695</v>
       </c>
       <c r="AF2">
-        <v>0.636280712791619</v>
+        <v>0.6355772023502927</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.1000000238379</v>
       </c>
       <c r="AH2">
-        <v>0.6362807127881797</v>
+        <v>0.6357927364583869</v>
       </c>
       <c r="AI2">
-        <v>0.7178088853018512</v>
+        <v>0.5967063269904345</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.100000023838578</v>
       </c>
       <c r="AK2">
-        <v>0.7178088852998012</v>
+        <v>0.7599982922815229</v>
       </c>
       <c r="AL2">
-        <v>-0.01117384647240266</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-120.0991126865173</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>120.0878544348442</v>
       </c>
       <c r="AO2">
-        <v>-6.313450644914343</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>121.1090454494766</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -4845,130 +4845,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.002051678463948448</v>
+        <v>0.002317320774160437</v>
       </c>
       <c r="C3">
-        <v>0.002051678822269556</v>
+        <v>0.00231732064389262</v>
       </c>
       <c r="D3">
-        <v>0.002051678220965958</v>
+        <v>0.002317320643893501</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.780157174968941</v>
       </c>
       <c r="F3">
-        <v>2.314120904929502</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.72841244507499</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02369074226902389</v>
+        <v>0.02675811545520481</v>
       </c>
       <c r="I3">
-        <v>0.02369074640655965</v>
+        <v>0.02675811395100162</v>
       </c>
       <c r="J3">
-        <v>0.02369073946330377</v>
+        <v>0.02675811395101179</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.55548448336324</v>
       </c>
       <c r="L3">
-        <v>26.72116654796776</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>19.9579878086949</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.16696167905099E-05</v>
+        <v>5.367635832813041E-14</v>
       </c>
       <c r="O3">
-        <v>4.340952419135845E-14</v>
+        <v>0.02469644935641803</v>
       </c>
       <c r="P3">
-        <v>6.010143787399202E-15</v>
+        <v>-0.02468156225120295</v>
       </c>
       <c r="Q3">
-        <v>-1.198558660256775E-09</v>
+        <v>3.966483129437536E-12</v>
       </c>
       <c r="R3">
-        <v>-1.545648818634775E-11</v>
+        <v>-9.395058443406035E-11</v>
       </c>
       <c r="S3">
-        <v>-2.020909087726459E-11</v>
+        <v>-1.756445234703069E-09</v>
       </c>
       <c r="T3">
-        <v>-0.02945425831234316</v>
+        <v>-6.427206114039903E-14</v>
       </c>
       <c r="U3">
-        <v>3.061431748250443E-14</v>
+        <v>-0.01244569622039635</v>
       </c>
       <c r="V3">
-        <v>-5.350638785179627E-14</v>
+        <v>-0.02512954288336814</v>
       </c>
       <c r="W3">
-        <v>-6.217499372213026E-10</v>
+        <v>4.710123476885947E-11</v>
       </c>
       <c r="X3">
-        <v>3.057296708619334E-11</v>
+        <v>-1.338794521880609E-09</v>
       </c>
       <c r="Y3">
-        <v>1.668441005146319E-11</v>
+        <v>3.789341040555118E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-59.54128816972698</v>
       </c>
       <c r="AA3">
-        <v>178.6783254167875</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>36.83852716722075</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>120.4587118205748</v>
       </c>
       <c r="AD3">
-        <v>-1.321674590792654</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-143.1614728442686</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.7178088853018512</v>
+        <v>0.5967063269904345</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.100000023838578</v>
       </c>
       <c r="AH3">
-        <v>0.7178088852998012</v>
+        <v>0.7599982922815229</v>
       </c>
       <c r="AI3">
-        <v>0.7719945678108373</v>
+        <v>0.6175627786591105</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.100000023839263</v>
       </c>
       <c r="AK3">
-        <v>0.7719945678096874</v>
+        <v>0.826836754355374</v>
       </c>
       <c r="AL3">
-        <v>-6.313450644914343</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO3">
-        <v>-6.619958059475713</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -4976,130 +4976,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.00205167846395026</v>
+        <v>0.002317320774162317</v>
       </c>
       <c r="C4">
-        <v>0.002051678822270643</v>
+        <v>0.00231732064389172</v>
       </c>
       <c r="D4">
-        <v>0.002051678220963965</v>
+        <v>0.002317320643893346</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.780157174968946</v>
       </c>
       <c r="F4">
-        <v>2.314120904929501</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.728412445074991</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02369074226904481</v>
+        <v>0.02675811545522652</v>
       </c>
       <c r="I4">
-        <v>0.02369074640657221</v>
+        <v>0.02675811395099123</v>
       </c>
       <c r="J4">
-        <v>0.02369073946328076</v>
+        <v>0.02675811395101001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.55548448336329</v>
       </c>
       <c r="L4">
-        <v>26.72116654796775</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>19.95798780869491</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.16696168113341E-05</v>
+        <v>5.367635832818259E-14</v>
       </c>
       <c r="O4">
-        <v>4.34095241913463E-14</v>
+        <v>0.02469644935640514</v>
       </c>
       <c r="P4">
-        <v>6.010143787313021E-15</v>
+        <v>-0.02468156225118996</v>
       </c>
       <c r="Q4">
-        <v>-1.198583827087422E-09</v>
+        <v>3.979600093279052E-12</v>
       </c>
       <c r="R4">
-        <v>-1.544752219058249E-11</v>
+        <v>-9.394023627282454E-11</v>
       </c>
       <c r="S4">
-        <v>-2.021174787388716E-11</v>
+        <v>-1.756476291981477E-09</v>
       </c>
       <c r="T4">
-        <v>-0.02945425831236917</v>
+        <v>-6.427206114044396E-14</v>
       </c>
       <c r="U4">
-        <v>3.061431748257048E-14</v>
+        <v>-0.01244569622039809</v>
       </c>
       <c r="V4">
-        <v>-5.350638785175331E-14</v>
+        <v>-0.0251295428833776</v>
       </c>
       <c r="W4">
-        <v>-6.217470164354689E-10</v>
+        <v>4.711999585443303E-11</v>
       </c>
       <c r="X4">
-        <v>3.057020651174484E-11</v>
+        <v>-1.338802254401779E-09</v>
       </c>
       <c r="Y4">
-        <v>1.668086334536281E-11</v>
+        <v>3.789439433249059E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-59.54128816972698</v>
       </c>
       <c r="AA4">
-        <v>178.6783254167875</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>36.83852716722073</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>120.4587118205749</v>
       </c>
       <c r="AD4">
-        <v>-1.321674590792716</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-143.1614728442686</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.7178088853018512</v>
+        <v>0.5967063269904345</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.100000023838578</v>
       </c>
       <c r="AH4">
-        <v>0.7178088852998012</v>
+        <v>0.7599982922815229</v>
       </c>
       <c r="AI4">
-        <v>0.7719945678108373</v>
+        <v>0.6175627786591099</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.100000023839263</v>
       </c>
       <c r="AK4">
-        <v>0.7719945678096877</v>
+        <v>0.8268367543553737</v>
       </c>
       <c r="AL4">
-        <v>-6.313450644914343</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO4">
-        <v>-6.619958059475715</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
   </sheetData>
@@ -5251,130 +5251,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.005462791258330974</v>
+        <v>0.005473092900013493</v>
       </c>
       <c r="C2">
-        <v>0.005462792168000915</v>
+        <v>0.005473092895653112</v>
       </c>
       <c r="D2">
-        <v>0.005462790353012665</v>
+        <v>0.005473092895655525</v>
       </c>
       <c r="E2">
-        <v>0.004103356889504518</v>
+        <v>2.252717306096701</v>
       </c>
       <c r="F2">
-        <v>2.660036195579899</v>
+        <v>0.004634641244421751</v>
       </c>
       <c r="G2">
-        <v>2.091163101421792</v>
+        <v>0.004634641244424862</v>
       </c>
       <c r="H2">
-        <v>0.06307888007048244</v>
+        <v>0.0631978331824524</v>
       </c>
       <c r="I2">
-        <v>0.06307889057444614</v>
+        <v>0.06319783313210306</v>
       </c>
       <c r="J2">
-        <v>0.06307886961676706</v>
+        <v>0.06319783313213091</v>
       </c>
       <c r="K2">
-        <v>0.04738148409473079</v>
+        <v>26.01213886166117</v>
       </c>
       <c r="L2">
-        <v>30.71545227144405</v>
+        <v>0.05351622740128481</v>
       </c>
       <c r="M2">
-        <v>24.14667159050569</v>
+        <v>0.05351622740132072</v>
       </c>
       <c r="N2">
-        <v>0.0002482472885469999</v>
+        <v>1.15935958853601E-13</v>
       </c>
       <c r="O2">
-        <v>2.122072941029916E-13</v>
+        <v>0.06032814290799341</v>
       </c>
       <c r="P2">
-        <v>8.157963722465682E-15</v>
+        <v>-0.06007895845564305</v>
       </c>
       <c r="Q2">
-        <v>-2.33399172101303E-05</v>
+        <v>-6.276366226295867E-12</v>
       </c>
       <c r="R2">
-        <v>-4.320443247159538E-11</v>
+        <v>-0.04939289853961923</v>
       </c>
       <c r="S2">
-        <v>-4.334051217155358E-11</v>
+        <v>0.04936312345717925</v>
       </c>
       <c r="T2">
-        <v>-0.0695169310652496</v>
+        <v>-2.424773262478404E-13</v>
       </c>
       <c r="U2">
-        <v>1.275293533041838E-13</v>
+        <v>-0.03465116761270845</v>
       </c>
       <c r="V2">
-        <v>-2.489684432346559E-13</v>
+        <v>-0.03512819832072846</v>
       </c>
       <c r="W2">
-        <v>0.05890851607324762</v>
+        <v>8.116116855555574E-11</v>
       </c>
       <c r="X2">
-        <v>5.363209352386712E-11</v>
+        <v>0.02489139163458048</v>
       </c>
       <c r="Y2">
-        <v>3.366473968148282E-11</v>
+        <v>0.05025908586948829</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-68.89306558737331</v>
       </c>
       <c r="AA2">
-        <v>170.0913491645859</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>37.83039567180641</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-96.3361515847661</v>
+        <v>111.0384603224017</v>
       </c>
       <c r="AD2">
-        <v>-9.996863288934243</v>
+        <v>75.59376395581886</v>
       </c>
       <c r="AE2">
-        <v>-142.0889578364301</v>
+        <v>75.59376395581695</v>
       </c>
       <c r="AF2">
-        <v>0.636280712791619</v>
+        <v>0.6355772023502927</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.1000000238379</v>
       </c>
       <c r="AH2">
-        <v>0.6362807127881797</v>
+        <v>0.6357927364583869</v>
       </c>
       <c r="AI2">
-        <v>0.7178088853018512</v>
+        <v>0.5967063269904345</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1.100000023838578</v>
       </c>
       <c r="AK2">
-        <v>0.7178088852998012</v>
+        <v>0.7599982922815229</v>
       </c>
       <c r="AL2">
-        <v>-0.01117384647240266</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-120.0991126865173</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>120.0878544348442</v>
       </c>
       <c r="AO2">
-        <v>-6.313450644914343</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>121.1090454494766</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5382,130 +5382,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.002051678463948448</v>
+        <v>0.002317320774160437</v>
       </c>
       <c r="C3">
-        <v>0.002051678822269556</v>
+        <v>0.00231732064389262</v>
       </c>
       <c r="D3">
-        <v>0.002051678220965958</v>
+        <v>0.002317320643893501</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.780157174968941</v>
       </c>
       <c r="F3">
-        <v>2.314120904929502</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.72841244507499</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02369074226902389</v>
+        <v>0.02675811545520481</v>
       </c>
       <c r="I3">
-        <v>0.02369074640655965</v>
+        <v>0.02675811395100162</v>
       </c>
       <c r="J3">
-        <v>0.02369073946330377</v>
+        <v>0.02675811395101179</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.55548448336324</v>
       </c>
       <c r="L3">
-        <v>26.72116654796776</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>19.9579878086949</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.16696167905099E-05</v>
+        <v>5.367635832813041E-14</v>
       </c>
       <c r="O3">
-        <v>4.340952419135845E-14</v>
+        <v>0.02469644935641803</v>
       </c>
       <c r="P3">
-        <v>6.010143787399202E-15</v>
+        <v>-0.02468156225120295</v>
       </c>
       <c r="Q3">
-        <v>-1.198558660256775E-09</v>
+        <v>3.966483129437536E-12</v>
       </c>
       <c r="R3">
-        <v>-1.545648818634775E-11</v>
+        <v>-9.395058443406035E-11</v>
       </c>
       <c r="S3">
-        <v>-2.020909087726459E-11</v>
+        <v>-1.756445234703069E-09</v>
       </c>
       <c r="T3">
-        <v>-0.02945425831234316</v>
+        <v>-6.427206114039903E-14</v>
       </c>
       <c r="U3">
-        <v>3.061431748250443E-14</v>
+        <v>-0.01244569622039635</v>
       </c>
       <c r="V3">
-        <v>-5.350638785179627E-14</v>
+        <v>-0.02512954288336814</v>
       </c>
       <c r="W3">
-        <v>-6.217499372213026E-10</v>
+        <v>4.710123476885947E-11</v>
       </c>
       <c r="X3">
-        <v>3.057296708619334E-11</v>
+        <v>-1.338794521880609E-09</v>
       </c>
       <c r="Y3">
-        <v>1.668441005146319E-11</v>
+        <v>3.789341040555118E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-59.54128816972698</v>
       </c>
       <c r="AA3">
-        <v>178.6783254167875</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>36.83852716722075</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>120.4587118205748</v>
       </c>
       <c r="AD3">
-        <v>-1.321674590792654</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-143.1614728442686</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.7178088853018512</v>
+        <v>0.5967063269904345</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1.100000023838578</v>
       </c>
       <c r="AH3">
-        <v>0.7178088852998012</v>
+        <v>0.7599982922815229</v>
       </c>
       <c r="AI3">
-        <v>0.7719945678108373</v>
+        <v>0.6175627786591105</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.100000023839263</v>
       </c>
       <c r="AK3">
-        <v>0.7719945678096874</v>
+        <v>0.826836754355374</v>
       </c>
       <c r="AL3">
-        <v>-6.313450644914343</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO3">
-        <v>-6.619958059475713</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -5513,130 +5513,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.00205167846395026</v>
+        <v>0.002317320774162317</v>
       </c>
       <c r="C4">
-        <v>0.002051678822270643</v>
+        <v>0.00231732064389172</v>
       </c>
       <c r="D4">
-        <v>0.002051678220963965</v>
+        <v>0.002317320643893346</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.780157174968946</v>
       </c>
       <c r="F4">
-        <v>2.314120904929501</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.728412445074991</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02369074226904481</v>
+        <v>0.02675811545522652</v>
       </c>
       <c r="I4">
-        <v>0.02369074640657221</v>
+        <v>0.02675811395099123</v>
       </c>
       <c r="J4">
-        <v>0.02369073946328076</v>
+        <v>0.02675811395101001</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.55548448336329</v>
       </c>
       <c r="L4">
-        <v>26.72116654796775</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>19.95798780869491</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.16696168113341E-05</v>
+        <v>5.367635832818259E-14</v>
       </c>
       <c r="O4">
-        <v>4.34095241913463E-14</v>
+        <v>0.02469644935640514</v>
       </c>
       <c r="P4">
-        <v>6.010143787313021E-15</v>
+        <v>-0.02468156225118996</v>
       </c>
       <c r="Q4">
-        <v>-1.198583827087422E-09</v>
+        <v>3.979600093279052E-12</v>
       </c>
       <c r="R4">
-        <v>-1.544752219058249E-11</v>
+        <v>-9.394023627282454E-11</v>
       </c>
       <c r="S4">
-        <v>-2.021174787388716E-11</v>
+        <v>-1.756476291981477E-09</v>
       </c>
       <c r="T4">
-        <v>-0.02945425831236917</v>
+        <v>-6.427206114044396E-14</v>
       </c>
       <c r="U4">
-        <v>3.061431748257048E-14</v>
+        <v>-0.01244569622039809</v>
       </c>
       <c r="V4">
-        <v>-5.350638785175331E-14</v>
+        <v>-0.0251295428833776</v>
       </c>
       <c r="W4">
-        <v>-6.217470164354689E-10</v>
+        <v>4.711999585443303E-11</v>
       </c>
       <c r="X4">
-        <v>3.057020651174484E-11</v>
+        <v>-1.338802254401779E-09</v>
       </c>
       <c r="Y4">
-        <v>1.668086334536281E-11</v>
+        <v>3.789439433249059E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-59.54128816972698</v>
       </c>
       <c r="AA4">
-        <v>178.6783254167875</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>36.83852716722073</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>120.4587118205749</v>
       </c>
       <c r="AD4">
-        <v>-1.321674590792716</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-143.1614728442686</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.7178088853018512</v>
+        <v>0.5967063269904345</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.100000023838578</v>
       </c>
       <c r="AH4">
-        <v>0.7178088852998012</v>
+        <v>0.7599982922815229</v>
       </c>
       <c r="AI4">
-        <v>0.7719945678108373</v>
+        <v>0.6175627786591099</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.100000023839263</v>
       </c>
       <c r="AK4">
-        <v>0.7719945678096877</v>
+        <v>0.8268367543553737</v>
       </c>
       <c r="AL4">
-        <v>-6.313450644914343</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-131.1519080433461</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>121.1090454494766</v>
       </c>
       <c r="AO4">
-        <v>-6.619958059475715</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-138.0783507352045</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>123.7614475144085</v>
       </c>
     </row>
   </sheetData>
@@ -5788,130 +5788,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002222362339033375</v>
+        <v>0.002223986694037759</v>
       </c>
       <c r="C2">
-        <v>0.002222362708247516</v>
+        <v>0.002223986692267004</v>
       </c>
       <c r="D2">
-        <v>0.002222361971588106</v>
+        <v>0.0022239866922674</v>
       </c>
       <c r="E2">
-        <v>0.001964779832172947</v>
+        <v>1.022181232019274</v>
       </c>
       <c r="F2">
-        <v>1.108377942628316</v>
+        <v>0.002102990590239066</v>
       </c>
       <c r="G2">
-        <v>1.011681349984586</v>
+        <v>0.00210299059024072</v>
       </c>
       <c r="H2">
-        <v>0.02566162989355612</v>
+        <v>0.02568038632953693</v>
       </c>
       <c r="I2">
-        <v>0.02566163415687378</v>
+        <v>0.02568038630909001</v>
       </c>
       <c r="J2">
-        <v>0.02566162565066361</v>
+        <v>0.02568038630909458</v>
       </c>
       <c r="K2">
-        <v>0.02268732330006797</v>
+        <v>11.80313218933823</v>
       </c>
       <c r="L2">
-        <v>12.79844607080604</v>
+        <v>0.02428324366755549</v>
       </c>
       <c r="M2">
-        <v>11.6818899949545</v>
+        <v>0.0242832436675746</v>
       </c>
       <c r="N2">
-        <v>-0.01154193385839816</v>
+        <v>0.01159995484395637</v>
       </c>
       <c r="O2">
-        <v>-0.006596371835025082</v>
+        <v>0.01654436212332422</v>
       </c>
       <c r="P2">
-        <v>0.01817938540839052</v>
+        <v>-0.02810317444379894</v>
       </c>
       <c r="Q2">
-        <v>0.002177818012232652</v>
+        <v>-5.209283011673569</v>
       </c>
       <c r="R2">
-        <v>-6.132303166636853</v>
+        <v>-0.02188111303991172</v>
       </c>
       <c r="S2">
-        <v>-5.114597761743065</v>
+        <v>0.02437610103992374</v>
       </c>
       <c r="T2">
-        <v>-0.02578287322987702</v>
+        <v>0.01429863561698583</v>
       </c>
       <c r="U2">
-        <v>0.01717870769784352</v>
+        <v>-0.02291676290278469</v>
       </c>
       <c r="V2">
-        <v>-0.002900949065731238</v>
+        <v>-0.002903814168881342</v>
       </c>
       <c r="W2">
-        <v>0.02657056909138135</v>
+        <v>-5.22174912664946</v>
       </c>
       <c r="X2">
-        <v>-6.154039923208787</v>
+        <v>0.01477461988622366</v>
       </c>
       <c r="Y2">
-        <v>-5.103742397547301</v>
+        <v>0.01566559626748716</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-55.59028714728477</v>
       </c>
       <c r="AA2">
-        <v>-174.4216267705806</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>58.82294788472791</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-88.01504972804585</v>
+        <v>124.3412387624903</v>
       </c>
       <c r="AD2">
-        <v>5.477006768771929</v>
+        <v>88.89654239591107</v>
       </c>
       <c r="AE2">
-        <v>-121.1161844685558</v>
+        <v>88.89654239589308</v>
       </c>
       <c r="AF2">
-        <v>0.9729578720439175</v>
+        <v>0.8440341447457987</v>
       </c>
       <c r="AG2">
-        <v>0.7175004542770153</v>
+        <v>1.100000023840153</v>
       </c>
       <c r="AH2">
-        <v>0.8439035640961189</v>
+        <v>0.9727947881380373</v>
       </c>
       <c r="AI2">
-        <v>0.9653165427949276</v>
+        <v>0.8440065675549148</v>
       </c>
       <c r="AJ2">
-        <v>0.669786432244013</v>
+        <v>1.100000023840383</v>
       </c>
       <c r="AK2">
-        <v>0.8518280946068217</v>
+        <v>0.9689144874145577</v>
       </c>
       <c r="AL2">
-        <v>0.0139270167001685</v>
+        <v>-14.90717692343631</v>
       </c>
       <c r="AM2">
-        <v>-134.8639182893703</v>
+        <v>-120.0292704737576</v>
       </c>
       <c r="AN2">
-        <v>105.0635730055186</v>
+        <v>120.0432382313321</v>
       </c>
       <c r="AO2">
-        <v>-2.700740752990738</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AP2">
-        <v>-129.4216267706429</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AQ2">
-        <v>103.8229478846527</v>
+        <v>121.6238606247693</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -5919,130 +5919,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.0009823899252772396</v>
+        <v>0.001051495364066567</v>
       </c>
       <c r="C3">
-        <v>0.0009823900782580379</v>
+        <v>0.00105149530495843</v>
       </c>
       <c r="D3">
-        <v>0.0009823898275222963</v>
+        <v>0.001051495304958633</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9013413881175287</v>
       </c>
       <c r="F3">
-        <v>1.040334427075161</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.9016673918383682</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01134366175615981</v>
+        <v>0.01214162262990953</v>
       </c>
       <c r="I3">
-        <v>0.01134366352262992</v>
+        <v>0.01214162194738755</v>
       </c>
       <c r="J3">
-        <v>0.01134366062738296</v>
+        <v>0.01214162194738988</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.40779386122812</v>
       </c>
       <c r="L3">
-        <v>12.01274723038158</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.41155822794779</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.001088909170526411</v>
+        <v>0.001250558496464663</v>
       </c>
       <c r="O3">
-        <v>-0.00577545274523036</v>
+        <v>0.01094055653657859</v>
       </c>
       <c r="P3">
-        <v>0.006867035588465406</v>
+        <v>-0.01218805072492217</v>
       </c>
       <c r="Q3">
-        <v>-6.104329920613961E-10</v>
+        <v>-4.062081489382833</v>
       </c>
       <c r="R3">
-        <v>-5.411478600540402</v>
+        <v>-2.70024655699151E-11</v>
       </c>
       <c r="S3">
-        <v>-4.065020426847372</v>
+        <v>-7.524998040421551E-10</v>
       </c>
       <c r="T3">
-        <v>-0.01328528465734075</v>
+        <v>0.007483615236116796</v>
       </c>
       <c r="U3">
-        <v>0.005092924817431424</v>
+        <v>-0.007387310139228444</v>
       </c>
       <c r="V3">
-        <v>0.001439352653020878</v>
+        <v>-0.007832798065551656</v>
       </c>
       <c r="W3">
-        <v>-3.28009641602405E-10</v>
+        <v>-4.06208149074838</v>
       </c>
       <c r="X3">
-        <v>-5.41147860185117</v>
+        <v>-6.938692162206957E-10</v>
       </c>
       <c r="Y3">
-        <v>-4.065020428520516</v>
+        <v>2.749917525445963E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-52.30362318491544</v>
       </c>
       <c r="AA3">
-        <v>-170.5778459566016</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>57.26767759056568</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>127.6963768053864</v>
       </c>
       <c r="AD3">
-        <v>9.42215403640869</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-122.7323224212782</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9653165427949276</v>
+        <v>0.8440065675549148</v>
       </c>
       <c r="AG3">
-        <v>0.669786432244013</v>
+        <v>1.100000023840383</v>
       </c>
       <c r="AH3">
-        <v>0.8518280946068217</v>
+        <v>0.9689144874145577</v>
       </c>
       <c r="AI3">
-        <v>0.9579198071587197</v>
+        <v>0.8434715680207194</v>
       </c>
       <c r="AJ3">
-        <v>0.6279322069792089</v>
+        <v>1.100000023840569</v>
       </c>
       <c r="AK3">
-        <v>0.8564846443872474</v>
+        <v>0.9656494086163243</v>
       </c>
       <c r="AL3">
-        <v>-2.700740752990738</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM3">
-        <v>-129.4216267706429</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN3">
-        <v>103.8229478846527</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO3">
-        <v>-3.782899000602696</v>
+        <v>-7.303623184977604</v>
       </c>
       <c r="AP3">
-        <v>-125.5778459566468</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ3">
-        <v>102.267677590504</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6050,130 +6050,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.0009823899252776639</v>
+        <v>0.001051495364067591</v>
       </c>
       <c r="C4">
-        <v>0.0009823900782596779</v>
+        <v>0.001051495304958121</v>
       </c>
       <c r="D4">
-        <v>0.0009823898275222467</v>
+        <v>0.001051495304958431</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9013413881175297</v>
       </c>
       <c r="F4">
-        <v>1.040334427075161</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9016673918383697</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01134366175616471</v>
+        <v>0.01214162262992134</v>
       </c>
       <c r="I4">
-        <v>0.01134366352264885</v>
+        <v>0.01214162194738397</v>
       </c>
       <c r="J4">
-        <v>0.01134366062738238</v>
+        <v>0.01214162194738756</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.40779386122814</v>
       </c>
       <c r="L4">
-        <v>12.01274723038158</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.41155822794781</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-0.001088909170532234</v>
+        <v>0.001250558496466751</v>
       </c>
       <c r="O4">
-        <v>-0.005775452745240296</v>
+        <v>0.01094055653657469</v>
       </c>
       <c r="P4">
-        <v>0.006867035588462957</v>
+        <v>-0.01218805072491847</v>
       </c>
       <c r="Q4">
-        <v>-6.104329920613961E-10</v>
+        <v>-4.062081489382829</v>
       </c>
       <c r="R4">
-        <v>-5.411478600540398</v>
+        <v>-2.699615922445765E-11</v>
       </c>
       <c r="S4">
-        <v>-4.06502042684738</v>
+        <v>-7.525001562855207E-10</v>
       </c>
       <c r="T4">
-        <v>-0.01328528465734604</v>
+        <v>0.007483615236123935</v>
       </c>
       <c r="U4">
-        <v>0.005092924817439592</v>
+        <v>-0.007387310139227273</v>
       </c>
       <c r="V4">
-        <v>0.001439352653030835</v>
+        <v>-0.007832798065552281</v>
       </c>
       <c r="W4">
-        <v>-3.280096416024048E-10</v>
+        <v>-4.062081490748389</v>
       </c>
       <c r="X4">
-        <v>-5.411478601851178</v>
+        <v>-6.938634982867346E-10</v>
       </c>
       <c r="Y4">
-        <v>-4.065020428520516</v>
+        <v>2.749977626078639E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-52.30362318491544</v>
       </c>
       <c r="AA4">
-        <v>-170.5778459566016</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>57.26767759056567</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>127.6963768053863</v>
       </c>
       <c r="AD4">
-        <v>9.422154036408646</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-122.7323224212782</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9653165427949276</v>
+        <v>0.8440065675549148</v>
       </c>
       <c r="AG4">
-        <v>0.669786432244013</v>
+        <v>1.100000023840383</v>
       </c>
       <c r="AH4">
-        <v>0.8518280946068217</v>
+        <v>0.9689144874145577</v>
       </c>
       <c r="AI4">
-        <v>0.9579198071587198</v>
+        <v>0.8434715680207194</v>
       </c>
       <c r="AJ4">
-        <v>0.627932206979209</v>
+        <v>1.100000023840569</v>
       </c>
       <c r="AK4">
-        <v>0.8564846443872474</v>
+        <v>0.9656494086163243</v>
       </c>
       <c r="AL4">
-        <v>-2.700740752990738</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM4">
-        <v>-129.4216267706429</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN4">
-        <v>103.8229478846527</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO4">
-        <v>-3.782899000602703</v>
+        <v>-7.303623184977599</v>
       </c>
       <c r="AP4">
-        <v>-125.5778459566467</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ4">
-        <v>102.267677590504</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
   </sheetData>
@@ -6550,130 +6550,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002222362339033375</v>
+        <v>0.002223986694037759</v>
       </c>
       <c r="C2">
-        <v>0.002222362708247516</v>
+        <v>0.002223986692267004</v>
       </c>
       <c r="D2">
-        <v>0.002222361971588106</v>
+        <v>0.0022239866922674</v>
       </c>
       <c r="E2">
-        <v>0.001964779832172947</v>
+        <v>1.022181232019274</v>
       </c>
       <c r="F2">
-        <v>1.108377942628316</v>
+        <v>0.002102990590239066</v>
       </c>
       <c r="G2">
-        <v>1.011681349984586</v>
+        <v>0.00210299059024072</v>
       </c>
       <c r="H2">
-        <v>0.02566162989355612</v>
+        <v>0.02568038632953693</v>
       </c>
       <c r="I2">
-        <v>0.02566163415687378</v>
+        <v>0.02568038630909001</v>
       </c>
       <c r="J2">
-        <v>0.02566162565066361</v>
+        <v>0.02568038630909458</v>
       </c>
       <c r="K2">
-        <v>0.02268732330006797</v>
+        <v>11.80313218933823</v>
       </c>
       <c r="L2">
-        <v>12.79844607080604</v>
+        <v>0.02428324366755549</v>
       </c>
       <c r="M2">
-        <v>11.6818899949545</v>
+        <v>0.0242832436675746</v>
       </c>
       <c r="N2">
-        <v>-0.01154193385839816</v>
+        <v>0.01159995484395637</v>
       </c>
       <c r="O2">
-        <v>-0.006596371835025082</v>
+        <v>0.01654436212332422</v>
       </c>
       <c r="P2">
-        <v>0.01817938540839052</v>
+        <v>-0.02810317444379894</v>
       </c>
       <c r="Q2">
-        <v>0.002177818012232652</v>
+        <v>-5.209283011673569</v>
       </c>
       <c r="R2">
-        <v>-6.132303166636853</v>
+        <v>-0.02188111303991172</v>
       </c>
       <c r="S2">
-        <v>-5.114597761743065</v>
+        <v>0.02437610103992374</v>
       </c>
       <c r="T2">
-        <v>-0.02578287322987702</v>
+        <v>0.01429863561698583</v>
       </c>
       <c r="U2">
-        <v>0.01717870769784352</v>
+        <v>-0.02291676290278469</v>
       </c>
       <c r="V2">
-        <v>-0.002900949065731238</v>
+        <v>-0.002903814168881342</v>
       </c>
       <c r="W2">
-        <v>0.02657056909138135</v>
+        <v>-5.22174912664946</v>
       </c>
       <c r="X2">
-        <v>-6.154039923208787</v>
+        <v>0.01477461988622366</v>
       </c>
       <c r="Y2">
-        <v>-5.103742397547301</v>
+        <v>0.01566559626748716</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-55.59028714728477</v>
       </c>
       <c r="AA2">
-        <v>-174.4216267705806</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>58.82294788472791</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-88.01504972804585</v>
+        <v>124.3412387624903</v>
       </c>
       <c r="AD2">
-        <v>5.477006768771929</v>
+        <v>88.89654239591107</v>
       </c>
       <c r="AE2">
-        <v>-121.1161844685558</v>
+        <v>88.89654239589308</v>
       </c>
       <c r="AF2">
-        <v>0.9729578720439175</v>
+        <v>0.8440341447457987</v>
       </c>
       <c r="AG2">
-        <v>0.7175004542770153</v>
+        <v>1.100000023840153</v>
       </c>
       <c r="AH2">
-        <v>0.8439035640961189</v>
+        <v>0.9727947881380373</v>
       </c>
       <c r="AI2">
-        <v>0.9653165427949276</v>
+        <v>0.8440065675549148</v>
       </c>
       <c r="AJ2">
-        <v>0.669786432244013</v>
+        <v>1.100000023840383</v>
       </c>
       <c r="AK2">
-        <v>0.8518280946068217</v>
+        <v>0.9689144874145577</v>
       </c>
       <c r="AL2">
-        <v>0.0139270167001685</v>
+        <v>-14.90717692343631</v>
       </c>
       <c r="AM2">
-        <v>-134.8639182893703</v>
+        <v>-120.0292704737576</v>
       </c>
       <c r="AN2">
-        <v>105.0635730055186</v>
+        <v>120.0432382313321</v>
       </c>
       <c r="AO2">
-        <v>-2.700740752990738</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AP2">
-        <v>-129.4216267706429</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AQ2">
-        <v>103.8229478846527</v>
+        <v>121.6238606247693</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -6681,130 +6681,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.0009823899252772396</v>
+        <v>0.001051495364066567</v>
       </c>
       <c r="C3">
-        <v>0.0009823900782580379</v>
+        <v>0.00105149530495843</v>
       </c>
       <c r="D3">
-        <v>0.0009823898275222963</v>
+        <v>0.001051495304958633</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.9013413881175287</v>
       </c>
       <c r="F3">
-        <v>1.040334427075161</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.9016673918383682</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01134366175615981</v>
+        <v>0.01214162262990953</v>
       </c>
       <c r="I3">
-        <v>0.01134366352262992</v>
+        <v>0.01214162194738755</v>
       </c>
       <c r="J3">
-        <v>0.01134366062738296</v>
+        <v>0.01214162194738988</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.40779386122812</v>
       </c>
       <c r="L3">
-        <v>12.01274723038158</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.41155822794779</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.001088909170526411</v>
+        <v>0.001250558496464663</v>
       </c>
       <c r="O3">
-        <v>-0.00577545274523036</v>
+        <v>0.01094055653657859</v>
       </c>
       <c r="P3">
-        <v>0.006867035588465406</v>
+        <v>-0.01218805072492217</v>
       </c>
       <c r="Q3">
-        <v>-6.104329920613961E-10</v>
+        <v>-4.062081489382833</v>
       </c>
       <c r="R3">
-        <v>-5.411478600540402</v>
+        <v>-2.70024655699151E-11</v>
       </c>
       <c r="S3">
-        <v>-4.065020426847372</v>
+        <v>-7.524998040421551E-10</v>
       </c>
       <c r="T3">
-        <v>-0.01328528465734075</v>
+        <v>0.007483615236116796</v>
       </c>
       <c r="U3">
-        <v>0.005092924817431424</v>
+        <v>-0.007387310139228444</v>
       </c>
       <c r="V3">
-        <v>0.001439352653020878</v>
+        <v>-0.007832798065551656</v>
       </c>
       <c r="W3">
-        <v>-3.28009641602405E-10</v>
+        <v>-4.06208149074838</v>
       </c>
       <c r="X3">
-        <v>-5.41147860185117</v>
+        <v>-6.938692162206957E-10</v>
       </c>
       <c r="Y3">
-        <v>-4.065020428520516</v>
+        <v>2.749917525445963E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-52.30362318491544</v>
       </c>
       <c r="AA3">
-        <v>-170.5778459566016</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>57.26767759056568</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>127.6963768053864</v>
       </c>
       <c r="AD3">
-        <v>9.42215403640869</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-122.7323224212782</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9653165427949276</v>
+        <v>0.8440065675549148</v>
       </c>
       <c r="AG3">
-        <v>0.669786432244013</v>
+        <v>1.100000023840383</v>
       </c>
       <c r="AH3">
-        <v>0.8518280946068217</v>
+        <v>0.9689144874145577</v>
       </c>
       <c r="AI3">
-        <v>0.9579198071587197</v>
+        <v>0.8434715680207194</v>
       </c>
       <c r="AJ3">
-        <v>0.6279322069792089</v>
+        <v>1.100000023840569</v>
       </c>
       <c r="AK3">
-        <v>0.8564846443872474</v>
+        <v>0.9656494086163243</v>
       </c>
       <c r="AL3">
-        <v>-2.700740752990738</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM3">
-        <v>-129.4216267706429</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN3">
-        <v>103.8229478846527</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO3">
-        <v>-3.782899000602696</v>
+        <v>-7.303623184977604</v>
       </c>
       <c r="AP3">
-        <v>-125.5778459566468</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ3">
-        <v>102.267677590504</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -6812,130 +6812,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.0009823899252776639</v>
+        <v>0.001051495364067591</v>
       </c>
       <c r="C4">
-        <v>0.0009823900782596779</v>
+        <v>0.001051495304958121</v>
       </c>
       <c r="D4">
-        <v>0.0009823898275222467</v>
+        <v>0.001051495304958431</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.9013413881175297</v>
       </c>
       <c r="F4">
-        <v>1.040334427075161</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.9016673918383697</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01134366175616471</v>
+        <v>0.01214162262992134</v>
       </c>
       <c r="I4">
-        <v>0.01134366352264885</v>
+        <v>0.01214162194738397</v>
       </c>
       <c r="J4">
-        <v>0.01134366062738238</v>
+        <v>0.01214162194738756</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>10.40779386122814</v>
       </c>
       <c r="L4">
-        <v>12.01274723038158</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>10.41155822794781</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-0.001088909170532234</v>
+        <v>0.001250558496466751</v>
       </c>
       <c r="O4">
-        <v>-0.005775452745240296</v>
+        <v>0.01094055653657469</v>
       </c>
       <c r="P4">
-        <v>0.006867035588462957</v>
+        <v>-0.01218805072491847</v>
       </c>
       <c r="Q4">
-        <v>-6.104329920613961E-10</v>
+        <v>-4.062081489382829</v>
       </c>
       <c r="R4">
-        <v>-5.411478600540398</v>
+        <v>-2.699615922445765E-11</v>
       </c>
       <c r="S4">
-        <v>-4.06502042684738</v>
+        <v>-7.525001562855207E-10</v>
       </c>
       <c r="T4">
-        <v>-0.01328528465734604</v>
+        <v>0.007483615236123935</v>
       </c>
       <c r="U4">
-        <v>0.005092924817439592</v>
+        <v>-0.007387310139227273</v>
       </c>
       <c r="V4">
-        <v>0.001439352653030835</v>
+        <v>-0.007832798065552281</v>
       </c>
       <c r="W4">
-        <v>-3.280096416024048E-10</v>
+        <v>-4.062081490748389</v>
       </c>
       <c r="X4">
-        <v>-5.411478601851178</v>
+        <v>-6.938634982867346E-10</v>
       </c>
       <c r="Y4">
-        <v>-4.065020428520516</v>
+        <v>2.749977626078639E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-52.30362318491544</v>
       </c>
       <c r="AA4">
-        <v>-170.5778459566016</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>57.26767759056567</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>127.6963768053863</v>
       </c>
       <c r="AD4">
-        <v>9.422154036408646</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-122.7323224212782</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.9653165427949276</v>
+        <v>0.8440065675549148</v>
       </c>
       <c r="AG4">
-        <v>0.669786432244013</v>
+        <v>1.100000023840383</v>
       </c>
       <c r="AH4">
-        <v>0.8518280946068217</v>
+        <v>0.9689144874145577</v>
       </c>
       <c r="AI4">
-        <v>0.9579198071587198</v>
+        <v>0.8434715680207194</v>
       </c>
       <c r="AJ4">
-        <v>0.627932206979209</v>
+        <v>1.100000023840569</v>
       </c>
       <c r="AK4">
-        <v>0.8564846443872474</v>
+        <v>0.9656494086163243</v>
       </c>
       <c r="AL4">
-        <v>-2.700740752990738</v>
+        <v>-10.59028714735436</v>
       </c>
       <c r="AM4">
-        <v>-129.4216267706429</v>
+        <v>-125.1315647199126</v>
       </c>
       <c r="AN4">
-        <v>103.8229478846527</v>
+        <v>121.6238606247693</v>
       </c>
       <c r="AO4">
-        <v>-3.782899000602703</v>
+        <v>-7.303623184977599</v>
       </c>
       <c r="AP4">
-        <v>-125.5778459566467</v>
+        <v>-129.0553880005655</v>
       </c>
       <c r="AQ4">
-        <v>102.267677590504</v>
+        <v>123.0990884522615</v>
       </c>
     </row>
   </sheetData>
@@ -7087,130 +7087,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.004967324081692308</v>
+        <v>0.004977970191962938</v>
       </c>
       <c r="C2">
-        <v>0.004967324910251277</v>
+        <v>0.004977970184788614</v>
       </c>
       <c r="D2">
-        <v>0.004967323260298392</v>
+        <v>0.00497797018478876</v>
       </c>
       <c r="E2">
-        <v>0.003973101615381171</v>
+        <v>1.687944410036665</v>
       </c>
       <c r="F2">
-        <v>2.144370611391086</v>
+        <v>0.004831112334403099</v>
       </c>
       <c r="G2">
-        <v>1.546342800884956</v>
+        <v>0.00483111233440309</v>
       </c>
       <c r="H2">
-        <v>0.05735771791434329</v>
+        <v>0.0574806486069547</v>
       </c>
       <c r="I2">
-        <v>0.05735772748171816</v>
+        <v>0.05748064852411275</v>
       </c>
       <c r="J2">
-        <v>0.05735770842970333</v>
+        <v>0.05748064852411443</v>
       </c>
       <c r="K2">
-        <v>0.04587742574316112</v>
+        <v>19.49070319023586</v>
       </c>
       <c r="L2">
-        <v>24.76105899457932</v>
+        <v>0.05578488013505902</v>
       </c>
       <c r="M2">
-        <v>17.85562864700739</v>
+        <v>0.05578488013505891</v>
       </c>
       <c r="N2">
-        <v>0.0003940949045826987</v>
+        <v>-7.555640465550951E-14</v>
       </c>
       <c r="O2">
-        <v>-1.492955594072121E-13</v>
+        <v>0.0499762631613422</v>
       </c>
       <c r="P2">
-        <v>1.237508122131988E-13</v>
+        <v>-0.04958047717678123</v>
       </c>
       <c r="Q2">
-        <v>-4.201187351811122E-05</v>
+        <v>3.837263617914324E-11</v>
       </c>
       <c r="R2">
-        <v>-2.54730731471812E-11</v>
+        <v>-0.04575507447148702</v>
       </c>
       <c r="S2">
-        <v>-1.013521441795996E-11</v>
+        <v>0.0456929579716757</v>
       </c>
       <c r="T2">
-        <v>-0.05747903762723393</v>
+        <v>-2.25575121089092E-13</v>
       </c>
       <c r="U2">
-        <v>5.31319679151203E-14</v>
+        <v>-0.02849872696657365</v>
       </c>
       <c r="V2">
-        <v>1.017545698726978E-13</v>
+        <v>-0.02922695593664361</v>
       </c>
       <c r="W2">
-        <v>0.05522796361253196</v>
+        <v>3.294157968945084E-11</v>
       </c>
       <c r="X2">
-        <v>-3.291354102038258E-11</v>
+        <v>0.02523114745353656</v>
       </c>
       <c r="Y2">
-        <v>-2.876938231546658E-11</v>
+        <v>0.05642595338800612</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-58.67102029364673</v>
       </c>
       <c r="AA2">
-        <v>178.3899539335775</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>38.51595875229155</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-97.65541190037995</v>
+        <v>121.2030554086979</v>
       </c>
       <c r="AD2">
-        <v>-1.715613723191751</v>
+        <v>71.164434861202</v>
       </c>
       <c r="AE2">
-        <v>-141.382095582265</v>
+        <v>71.16443486121739</v>
       </c>
       <c r="AF2">
-        <v>0.5785850458643943</v>
+        <v>0.5778549958900403</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9999999999962847</v>
       </c>
       <c r="AH2">
-        <v>0.5785850458648649</v>
+        <v>0.5780849144276639</v>
       </c>
       <c r="AI2">
-        <v>0.6950234972340792</v>
+        <v>0.5407731743511122</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.9999999999980868</v>
       </c>
       <c r="AK2">
-        <v>0.6950234972340121</v>
+        <v>0.7514492206972073</v>
       </c>
       <c r="AL2">
-        <v>-0.01310313133982031</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-120.1128399339563</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>120.0996242898029</v>
       </c>
       <c r="AO2">
-        <v>-7.611827049154744</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>122.1643601285336</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7218,130 +7218,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001986550828696565</v>
+        <v>0.002415556346345361</v>
       </c>
       <c r="C3">
-        <v>0.001986551164405577</v>
+        <v>0.002415556192743605</v>
       </c>
       <c r="D3">
-        <v>0.001986550619308198</v>
+        <v>0.002415556192743473</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.224899235594462</v>
       </c>
       <c r="F3">
-        <v>1.791382664817284</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.312244351412914</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02293871311413673</v>
+        <v>0.02789244213610407</v>
       </c>
       <c r="I3">
-        <v>0.02293871699057049</v>
+        <v>0.02789244036246376</v>
       </c>
       <c r="J3">
-        <v>0.02293871069632812</v>
+        <v>0.02789244036246224</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.14391806801259</v>
       </c>
       <c r="L3">
-        <v>20.68510527507776</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.15249259061623</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.100546749356976E-05</v>
+        <v>8.634313852912011E-16</v>
       </c>
       <c r="O3">
-        <v>-3.276953465211265E-14</v>
+        <v>0.02287753726315919</v>
       </c>
       <c r="P3">
-        <v>3.495619424249233E-14</v>
+        <v>-0.0228464797070914</v>
       </c>
       <c r="Q3">
-        <v>-1.427193094982945E-09</v>
+        <v>1.96866633267102E-11</v>
       </c>
       <c r="R3">
-        <v>-2.613283223998603E-11</v>
+        <v>-4.967019357168854E-10</v>
       </c>
       <c r="S3">
-        <v>-1.261121655894508E-11</v>
+        <v>-2.202176393458631E-09</v>
       </c>
       <c r="T3">
-        <v>-0.02761398209861602</v>
+        <v>-7.236774152900684E-14</v>
       </c>
       <c r="U3">
-        <v>2.031629906764666E-14</v>
+        <v>-0.01261557424913103</v>
       </c>
       <c r="V3">
-        <v>1.77085074448908E-14</v>
+        <v>-0.02821297660388983</v>
       </c>
       <c r="W3">
-        <v>-5.206935567981735E-10</v>
+        <v>1.043389234095012E-11</v>
       </c>
       <c r="X3">
-        <v>-1.139776544245192E-11</v>
+        <v>-1.599531615991289E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.720507024952547E-11</v>
+        <v>6.148580230478545E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-45.53349015728301</v>
       </c>
       <c r="AA3">
-        <v>-169.8819077454678</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>38.46706774396528</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>134.4665098321094</v>
       </c>
       <c r="AD3">
-        <v>10.11809224675812</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-141.532932269741</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.6950234972340792</v>
+        <v>0.5407731743511122</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.9999999999980868</v>
       </c>
       <c r="AH3">
-        <v>0.6950234972340121</v>
+        <v>0.7514492206972073</v>
       </c>
       <c r="AI3">
-        <v>0.7474500608991325</v>
+        <v>0.5992308608385498</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.9999999999990241</v>
       </c>
       <c r="AK3">
-        <v>0.7474500608986431</v>
+        <v>0.8180273553921663</v>
       </c>
       <c r="AL3">
-        <v>-7.611827049154744</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO3">
-        <v>-6.297561754845085</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7349,130 +7349,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001986550828695967</v>
+        <v>0.002415556346345752</v>
       </c>
       <c r="C4">
-        <v>0.001986551164407288</v>
+        <v>0.002415556192743346</v>
       </c>
       <c r="D4">
-        <v>0.001986550619308956</v>
+        <v>0.002415556192743432</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.224899235594465</v>
       </c>
       <c r="F4">
-        <v>1.791382664817285</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.312244351412916</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02293871311412982</v>
+        <v>0.02789244213610858</v>
       </c>
       <c r="I4">
-        <v>0.02293871699059025</v>
+        <v>0.02789244036246076</v>
       </c>
       <c r="J4">
-        <v>0.02293871069633687</v>
+        <v>0.02789244036246177</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.14391806801262</v>
       </c>
       <c r="L4">
-        <v>20.68510527507777</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.15249259061626</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.100546747454216E-05</v>
+        <v>8.63431385297087E-16</v>
       </c>
       <c r="O4">
-        <v>-3.276953465217663E-14</v>
+        <v>0.02287753726315606</v>
       </c>
       <c r="P4">
-        <v>3.495619424251028E-14</v>
+        <v>-0.02284647970707757</v>
       </c>
       <c r="Q4">
-        <v>-1.427177856100207E-09</v>
+        <v>1.969478345106649E-11</v>
       </c>
       <c r="R4">
-        <v>-2.611531297594028E-11</v>
+        <v>-4.966926652003443E-10</v>
       </c>
       <c r="S4">
-        <v>-1.262198824733055E-11</v>
+        <v>-2.202187798083027E-09</v>
       </c>
       <c r="T4">
-        <v>-0.02761398209860772</v>
+        <v>-7.236774152901846E-14</v>
       </c>
       <c r="U4">
-        <v>2.031629906760651E-14</v>
+        <v>-0.01261557424913089</v>
       </c>
       <c r="V4">
-        <v>1.770850744488848E-14</v>
+        <v>-0.02821297660390025</v>
       </c>
       <c r="W4">
-        <v>-5.206952385300933E-10</v>
+        <v>1.043912404498799E-11</v>
       </c>
       <c r="X4">
-        <v>-1.13845622898358E-11</v>
+        <v>-1.599534108418081E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.720510648515593E-11</v>
+        <v>6.14862064527645E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-45.53349015728301</v>
       </c>
       <c r="AA4">
-        <v>-169.8819077454678</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>38.46706774396529</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>134.4665098321095</v>
       </c>
       <c r="AD4">
-        <v>10.11809224675813</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-141.5329322697409</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.6950234972340792</v>
+        <v>0.5407731743511122</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.9999999999980868</v>
       </c>
       <c r="AH4">
-        <v>0.6950234972340121</v>
+        <v>0.7514492206972073</v>
       </c>
       <c r="AI4">
-        <v>0.7474500608991327</v>
+        <v>0.5992308608385494</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.9999999999990241</v>
       </c>
       <c r="AK4">
-        <v>0.7474500608986436</v>
+        <v>0.8180273553921662</v>
       </c>
       <c r="AL4">
-        <v>-7.611827049154744</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO4">
-        <v>-6.29756175484508</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
   </sheetData>
@@ -7624,130 +7624,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.004967324081692308</v>
+        <v>0.004977970191962938</v>
       </c>
       <c r="C2">
-        <v>0.004967324910251277</v>
+        <v>0.004977970184788614</v>
       </c>
       <c r="D2">
-        <v>0.004967323260298392</v>
+        <v>0.00497797018478876</v>
       </c>
       <c r="E2">
-        <v>0.003973101615381171</v>
+        <v>1.687944410036665</v>
       </c>
       <c r="F2">
-        <v>2.144370611391086</v>
+        <v>0.004831112334403099</v>
       </c>
       <c r="G2">
-        <v>1.546342800884956</v>
+        <v>0.00483111233440309</v>
       </c>
       <c r="H2">
-        <v>0.05735771791434329</v>
+        <v>0.0574806486069547</v>
       </c>
       <c r="I2">
-        <v>0.05735772748171816</v>
+        <v>0.05748064852411275</v>
       </c>
       <c r="J2">
-        <v>0.05735770842970333</v>
+        <v>0.05748064852411443</v>
       </c>
       <c r="K2">
-        <v>0.04587742574316112</v>
+        <v>19.49070319023586</v>
       </c>
       <c r="L2">
-        <v>24.76105899457932</v>
+        <v>0.05578488013505902</v>
       </c>
       <c r="M2">
-        <v>17.85562864700739</v>
+        <v>0.05578488013505891</v>
       </c>
       <c r="N2">
-        <v>0.0003940949045826987</v>
+        <v>-7.555640465550951E-14</v>
       </c>
       <c r="O2">
-        <v>-1.492955594072121E-13</v>
+        <v>0.0499762631613422</v>
       </c>
       <c r="P2">
-        <v>1.237508122131988E-13</v>
+        <v>-0.04958047717678123</v>
       </c>
       <c r="Q2">
-        <v>-4.201187351811122E-05</v>
+        <v>3.837263617914324E-11</v>
       </c>
       <c r="R2">
-        <v>-2.54730731471812E-11</v>
+        <v>-0.04575507447148702</v>
       </c>
       <c r="S2">
-        <v>-1.013521441795996E-11</v>
+        <v>0.0456929579716757</v>
       </c>
       <c r="T2">
-        <v>-0.05747903762723393</v>
+        <v>-2.25575121089092E-13</v>
       </c>
       <c r="U2">
-        <v>5.31319679151203E-14</v>
+        <v>-0.02849872696657365</v>
       </c>
       <c r="V2">
-        <v>1.017545698726978E-13</v>
+        <v>-0.02922695593664361</v>
       </c>
       <c r="W2">
-        <v>0.05522796361253196</v>
+        <v>3.294157968945084E-11</v>
       </c>
       <c r="X2">
-        <v>-3.291354102038258E-11</v>
+        <v>0.02523114745353656</v>
       </c>
       <c r="Y2">
-        <v>-2.876938231546658E-11</v>
+        <v>0.05642595338800612</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-58.67102029364673</v>
       </c>
       <c r="AA2">
-        <v>178.3899539335775</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>38.51595875229155</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-97.65541190037995</v>
+        <v>121.2030554086979</v>
       </c>
       <c r="AD2">
-        <v>-1.715613723191751</v>
+        <v>71.164434861202</v>
       </c>
       <c r="AE2">
-        <v>-141.382095582265</v>
+        <v>71.16443486121739</v>
       </c>
       <c r="AF2">
-        <v>0.5785850458643943</v>
+        <v>0.5778549958900403</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9999999999962847</v>
       </c>
       <c r="AH2">
-        <v>0.5785850458648649</v>
+        <v>0.5780849144276639</v>
       </c>
       <c r="AI2">
-        <v>0.6950234972340792</v>
+        <v>0.5407731743511122</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>0.9999999999980868</v>
       </c>
       <c r="AK2">
-        <v>0.6950234972340121</v>
+        <v>0.7514492206972073</v>
       </c>
       <c r="AL2">
-        <v>-0.01310313133982031</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-120.1128399339563</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>120.0996242898029</v>
       </c>
       <c r="AO2">
-        <v>-7.611827049154744</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>122.1643601285336</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -7755,130 +7755,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001986550828696565</v>
+        <v>0.002415556346345361</v>
       </c>
       <c r="C3">
-        <v>0.001986551164405577</v>
+        <v>0.002415556192743605</v>
       </c>
       <c r="D3">
-        <v>0.001986550619308198</v>
+        <v>0.002415556192743473</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.224899235594462</v>
       </c>
       <c r="F3">
-        <v>1.791382664817284</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.312244351412914</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02293871311413673</v>
+        <v>0.02789244213610407</v>
       </c>
       <c r="I3">
-        <v>0.02293871699057049</v>
+        <v>0.02789244036246376</v>
       </c>
       <c r="J3">
-        <v>0.02293871069632812</v>
+        <v>0.02789244036246224</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.14391806801259</v>
       </c>
       <c r="L3">
-        <v>20.68510527507776</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.15249259061623</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.100546749356976E-05</v>
+        <v>8.634313852912011E-16</v>
       </c>
       <c r="O3">
-        <v>-3.276953465211265E-14</v>
+        <v>0.02287753726315919</v>
       </c>
       <c r="P3">
-        <v>3.495619424249233E-14</v>
+        <v>-0.0228464797070914</v>
       </c>
       <c r="Q3">
-        <v>-1.427193094982945E-09</v>
+        <v>1.96866633267102E-11</v>
       </c>
       <c r="R3">
-        <v>-2.613283223998603E-11</v>
+        <v>-4.967019357168854E-10</v>
       </c>
       <c r="S3">
-        <v>-1.261121655894508E-11</v>
+        <v>-2.202176393458631E-09</v>
       </c>
       <c r="T3">
-        <v>-0.02761398209861602</v>
+        <v>-7.236774152900684E-14</v>
       </c>
       <c r="U3">
-        <v>2.031629906764666E-14</v>
+        <v>-0.01261557424913103</v>
       </c>
       <c r="V3">
-        <v>1.77085074448908E-14</v>
+        <v>-0.02821297660388983</v>
       </c>
       <c r="W3">
-        <v>-5.206935567981735E-10</v>
+        <v>1.043389234095012E-11</v>
       </c>
       <c r="X3">
-        <v>-1.139776544245192E-11</v>
+        <v>-1.599531615991289E-09</v>
       </c>
       <c r="Y3">
-        <v>-1.720507024952547E-11</v>
+        <v>6.148580230478545E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-45.53349015728301</v>
       </c>
       <c r="AA3">
-        <v>-169.8819077454678</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>38.46706774396528</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>134.4665098321094</v>
       </c>
       <c r="AD3">
-        <v>10.11809224675812</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-141.532932269741</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.6950234972340792</v>
+        <v>0.5407731743511122</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>0.9999999999980868</v>
       </c>
       <c r="AH3">
-        <v>0.6950234972340121</v>
+        <v>0.7514492206972073</v>
       </c>
       <c r="AI3">
-        <v>0.7474500608991325</v>
+        <v>0.5992308608385498</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>0.9999999999990241</v>
       </c>
       <c r="AK3">
-        <v>0.7474500608986431</v>
+        <v>0.8180273553921663</v>
       </c>
       <c r="AL3">
-        <v>-7.611827049154744</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO3">
-        <v>-6.297561754845085</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -7886,130 +7886,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001986550828695967</v>
+        <v>0.002415556346345752</v>
       </c>
       <c r="C4">
-        <v>0.001986551164407288</v>
+        <v>0.002415556192743346</v>
       </c>
       <c r="D4">
-        <v>0.001986550619308956</v>
+        <v>0.002415556192743432</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.224899235594465</v>
       </c>
       <c r="F4">
-        <v>1.791382664817285</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.312244351412916</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02293871311412982</v>
+        <v>0.02789244213610858</v>
       </c>
       <c r="I4">
-        <v>0.02293871699059025</v>
+        <v>0.02789244036246076</v>
       </c>
       <c r="J4">
-        <v>0.02293871069633687</v>
+        <v>0.02789244036246177</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.14391806801262</v>
       </c>
       <c r="L4">
-        <v>20.68510527507777</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.15249259061626</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.100546747454216E-05</v>
+        <v>8.63431385297087E-16</v>
       </c>
       <c r="O4">
-        <v>-3.276953465217663E-14</v>
+        <v>0.02287753726315606</v>
       </c>
       <c r="P4">
-        <v>3.495619424251028E-14</v>
+        <v>-0.02284647970707757</v>
       </c>
       <c r="Q4">
-        <v>-1.427177856100207E-09</v>
+        <v>1.969478345106649E-11</v>
       </c>
       <c r="R4">
-        <v>-2.611531297594028E-11</v>
+        <v>-4.966926652003443E-10</v>
       </c>
       <c r="S4">
-        <v>-1.262198824733055E-11</v>
+        <v>-2.202187798083027E-09</v>
       </c>
       <c r="T4">
-        <v>-0.02761398209860772</v>
+        <v>-7.236774152901846E-14</v>
       </c>
       <c r="U4">
-        <v>2.031629906760651E-14</v>
+        <v>-0.01261557424913089</v>
       </c>
       <c r="V4">
-        <v>1.770850744488848E-14</v>
+        <v>-0.02821297660390025</v>
       </c>
       <c r="W4">
-        <v>-5.206952385300933E-10</v>
+        <v>1.043912404498799E-11</v>
       </c>
       <c r="X4">
-        <v>-1.13845622898358E-11</v>
+        <v>-1.599534108418081E-09</v>
       </c>
       <c r="Y4">
-        <v>-1.720510648515593E-11</v>
+        <v>6.14862064527645E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-45.53349015728301</v>
       </c>
       <c r="AA4">
-        <v>-169.8819077454678</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>38.46706774396529</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>134.4665098321095</v>
       </c>
       <c r="AD4">
-        <v>10.11809224675813</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-141.5329322697409</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.6950234972340792</v>
+        <v>0.5407731743511122</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>0.9999999999980868</v>
       </c>
       <c r="AH4">
-        <v>0.6950234972340121</v>
+        <v>0.7514492206972073</v>
       </c>
       <c r="AI4">
-        <v>0.7474500608991327</v>
+        <v>0.5992308608385494</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>0.9999999999990241</v>
       </c>
       <c r="AK4">
-        <v>0.7474500608986436</v>
+        <v>0.8180273553921662</v>
       </c>
       <c r="AL4">
-        <v>-7.611827049154744</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-137.7096350527863</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>122.1643601285336</v>
       </c>
       <c r="AO4">
-        <v>-6.29756175484508</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>-144.8539944197721</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>126.7970300908124</v>
       </c>
     </row>
   </sheetData>
@@ -8161,130 +8161,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002186008186052339</v>
+        <v>0.002187988958452077</v>
       </c>
       <c r="C2">
-        <v>0.002186008549782637</v>
+        <v>0.002187988955299735</v>
       </c>
       <c r="D2">
-        <v>0.002186007825474825</v>
+        <v>0.002187988955299794</v>
       </c>
       <c r="E2">
-        <v>0.002149855079153443</v>
+        <v>0.8367283517811521</v>
       </c>
       <c r="F2">
-        <v>0.9570414563987543</v>
+        <v>0.002394823334701176</v>
       </c>
       <c r="G2">
-        <v>0.8169675519292499</v>
+        <v>0.002394823334701831</v>
       </c>
       <c r="H2">
-        <v>0.02524184829336087</v>
+        <v>0.02526472028292472</v>
       </c>
       <c r="I2">
-        <v>0.02524185249335658</v>
+        <v>0.0252647202465246</v>
       </c>
       <c r="J2">
-        <v>0.02524184412977037</v>
+        <v>0.02526472024652528</v>
       </c>
       <c r="K2">
-        <v>0.02482438817335849</v>
+        <v>9.661706782788803</v>
       </c>
       <c r="L2">
-        <v>11.05096284954905</v>
+        <v>0.02765303793902642</v>
       </c>
       <c r="M2">
-        <v>9.433528720510839</v>
+        <v>0.02765303793903399</v>
       </c>
       <c r="N2">
-        <v>-0.009737418525266241</v>
+        <v>0.009831532671414586</v>
       </c>
       <c r="O2">
-        <v>-0.005665995794831129</v>
+        <v>0.01530731348535312</v>
       </c>
       <c r="P2">
-        <v>0.01547973338044119</v>
+        <v>-0.02506238639781851</v>
       </c>
       <c r="Q2">
-        <v>-0.001038277449138248</v>
+        <v>-3.48645730265588</v>
       </c>
       <c r="R2">
-        <v>-4.572469766590316</v>
+        <v>-0.02407837607861344</v>
       </c>
       <c r="S2">
-        <v>-3.332954257136283</v>
+        <v>0.02279000189686241</v>
       </c>
       <c r="T2">
-        <v>-0.02331282524188677</v>
+        <v>0.01220304333114967</v>
       </c>
       <c r="U2">
-        <v>0.01459899273701556</v>
+        <v>-0.02012156184642946</v>
       </c>
       <c r="V2">
-        <v>-0.002418032141857882</v>
+        <v>-0.003233530618850714</v>
       </c>
       <c r="W2">
-        <v>0.02752170490581161</v>
+        <v>-3.50181610998515</v>
       </c>
       <c r="X2">
-        <v>-4.592299874093126</v>
+        <v>0.0121402722799663</v>
       </c>
       <c r="Y2">
-        <v>-3.325501539323074</v>
+        <v>0.02201076708604887</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-51.72817261575595</v>
       </c>
       <c r="AA2">
-        <v>-170.9235815556613</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>58.3157265540805</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-96.51205885396874</v>
+        <v>128.1459030865887</v>
       </c>
       <c r="AD2">
-        <v>8.952445912679762</v>
+        <v>78.10728253909214</v>
       </c>
       <c r="AE2">
-        <v>-121.6201430962846</v>
+        <v>78.10728253910108</v>
       </c>
       <c r="AF2">
-        <v>0.8721332518534242</v>
+        <v>0.7492067188226383</v>
       </c>
       <c r="AG2">
-        <v>0.6208257825095037</v>
+        <v>0.9999999999987974</v>
       </c>
       <c r="AH2">
-        <v>0.7490594668689452</v>
+        <v>0.8719401990676209</v>
       </c>
       <c r="AI2">
-        <v>0.8671834304540896</v>
+        <v>0.7615594742962095</v>
       </c>
       <c r="AJ2">
-        <v>0.5701359740030982</v>
+        <v>0.9999999999991965</v>
       </c>
       <c r="AK2">
-        <v>0.7780446838807024</v>
+        <v>0.877371251159636</v>
       </c>
       <c r="AL2">
-        <v>0.0158194676764636</v>
+        <v>-16.15586420839396</v>
       </c>
       <c r="AM2">
-        <v>-136.1029564689277</v>
+        <v>-120.037002149499</v>
       </c>
       <c r="AN2">
-        <v>103.8071623873661</v>
+        <v>120.0528789941859</v>
       </c>
       <c r="AO2">
-        <v>-4.351556157237489</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AP2">
-        <v>-125.9235815556908</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AQ2">
-        <v>103.3157265540677</v>
+        <v>122.1108182946456</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8292,130 +8292,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001074927550943404</v>
+        <v>0.001197411756153878</v>
       </c>
       <c r="C3">
-        <v>0.001074927702694966</v>
+        <v>0.001197411680011855</v>
       </c>
       <c r="D3">
-        <v>0.001074927467544633</v>
+        <v>0.00119741168001153</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6999120445013209</v>
       </c>
       <c r="F3">
-        <v>0.8779780940021618</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7099194196940264</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01241219421793039</v>
+        <v>0.01382651999492528</v>
       </c>
       <c r="I3">
-        <v>0.0124121959702065</v>
+        <v>0.01382651911571293</v>
       </c>
       <c r="J3">
-        <v>0.01241219325492433</v>
+        <v>0.01382651911570918</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.081888146037981</v>
       </c>
       <c r="L3">
-        <v>10.13801777829485</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.197443361265782</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0005191384960944979</v>
+        <v>-0.0006365558078439346</v>
       </c>
       <c r="O3">
-        <v>-0.006340618136742675</v>
+        <v>0.01203918806340264</v>
       </c>
       <c r="P3">
-        <v>0.00582762833564396</v>
+        <v>-0.0113950012560248</v>
       </c>
       <c r="Q3">
-        <v>-8.178971484954886E-10</v>
+        <v>-2.44938435017532</v>
       </c>
       <c r="R3">
-        <v>-3.854227667769854</v>
+        <v>-1.13532175503883E-10</v>
       </c>
       <c r="S3">
-        <v>-2.519927911799696</v>
+        <v>-1.082998250156873E-09</v>
       </c>
       <c r="T3">
-        <v>-0.01376085260724463</v>
+        <v>0.007042847293700775</v>
       </c>
       <c r="U3">
-        <v>0.003574435067032464</v>
+        <v>-0.006070136408858913</v>
       </c>
       <c r="V3">
-        <v>0.002101268747174773</v>
+        <v>-0.01100538346565306</v>
       </c>
       <c r="W3">
-        <v>-3.82601033781415E-10</v>
+        <v>-2.449384351084683</v>
       </c>
       <c r="X3">
-        <v>-3.854227668652761</v>
+        <v>-9.144554882181576E-10</v>
       </c>
       <c r="Y3">
-        <v>-2.519927913118709</v>
+        <v>3.547290842871596E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-45.30483532196973</v>
       </c>
       <c r="AA3">
-        <v>-164.3656480962364</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>56.69314540313634</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>134.6951646674227</v>
       </c>
       <c r="AD3">
-        <v>15.63435189714452</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-123.306854611875</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.8671834304540896</v>
+        <v>0.7615594742962095</v>
       </c>
       <c r="AG3">
-        <v>0.5701359740030982</v>
+        <v>0.9999999999991965</v>
       </c>
       <c r="AH3">
-        <v>0.7780446838807024</v>
+        <v>0.877371251159636</v>
       </c>
       <c r="AI3">
-        <v>0.8595183170292721</v>
+        <v>0.7700746676618133</v>
       </c>
       <c r="AJ3">
-        <v>0.526165712950652</v>
+        <v>0.999999999999447</v>
       </c>
       <c r="AK3">
-        <v>0.793440478635774</v>
+        <v>0.8785874061674938</v>
       </c>
       <c r="AL3">
-        <v>-4.351556157237489</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM3">
-        <v>-125.9235815556908</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN3">
-        <v>103.3157265540677</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO3">
-        <v>-5.054191003316187</v>
+        <v>-0.3048353219359057</v>
       </c>
       <c r="AP3">
-        <v>-119.3656480962875</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ3">
-        <v>101.6931454031112</v>
+        <v>124.489614959663</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8423,130 +8423,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001074927550943799</v>
+        <v>0.001197411756154132</v>
       </c>
       <c r="C4">
-        <v>0.001074927702695217</v>
+        <v>0.001197411680011945</v>
       </c>
       <c r="D4">
-        <v>0.001074927467544633</v>
+        <v>0.001197411680011689</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6999120445013212</v>
       </c>
       <c r="F4">
-        <v>0.8779780940021622</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7099194196940273</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01241219421793495</v>
+        <v>0.01382651999492821</v>
       </c>
       <c r="I4">
-        <v>0.01241219597020939</v>
+        <v>0.01382651911571397</v>
       </c>
       <c r="J4">
-        <v>0.01241219325492433</v>
+        <v>0.01382651911571101</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.081888146037983</v>
       </c>
       <c r="L4">
-        <v>10.13801777829486</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>8.197443361265792</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0005191384960927892</v>
+        <v>-0.0006365558078452965</v>
       </c>
       <c r="O4">
-        <v>-0.006340618136745429</v>
+        <v>0.01203918806340318</v>
       </c>
       <c r="P4">
-        <v>0.00582762833564396</v>
+        <v>-0.01139500125602854</v>
       </c>
       <c r="Q4">
-        <v>-8.178985457012579E-10</v>
+        <v>-2.44938435017532</v>
       </c>
       <c r="R4">
-        <v>-3.854227667769854</v>
+        <v>-1.13533386641515E-10</v>
       </c>
       <c r="S4">
-        <v>-2.519927911799707</v>
+        <v>-1.083003222861708E-09</v>
       </c>
       <c r="T4">
-        <v>-0.01376085260724977</v>
+        <v>0.007042847293702157</v>
       </c>
       <c r="U4">
-        <v>0.00357443506703103</v>
+        <v>-0.006070136408860086</v>
       </c>
       <c r="V4">
-        <v>0.002101268747174773</v>
+        <v>-0.01100538346565221</v>
       </c>
       <c r="W4">
-        <v>-3.826009102100307E-10</v>
+        <v>-2.449384351084683</v>
       </c>
       <c r="X4">
-        <v>-3.854227668652761</v>
+        <v>-9.144601025984314E-10</v>
       </c>
       <c r="Y4">
-        <v>-2.519927913118706</v>
+        <v>3.54736322427788E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-45.30483532196973</v>
       </c>
       <c r="AA4">
-        <v>-164.3656480962364</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>56.69314540313635</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>134.6951646674227</v>
       </c>
       <c r="AD4">
-        <v>15.63435189714453</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-123.3068546118748</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.8671834304540896</v>
+        <v>0.7615594742962095</v>
       </c>
       <c r="AG4">
-        <v>0.5701359740030982</v>
+        <v>0.9999999999991965</v>
       </c>
       <c r="AH4">
-        <v>0.7780446838807024</v>
+        <v>0.877371251159636</v>
       </c>
       <c r="AI4">
-        <v>0.8595183170292721</v>
+        <v>0.7700746676618129</v>
       </c>
       <c r="AJ4">
-        <v>0.526165712950652</v>
+        <v>0.9999999999994468</v>
       </c>
       <c r="AK4">
-        <v>0.793440478635774</v>
+        <v>0.8785874061674938</v>
       </c>
       <c r="AL4">
-        <v>-4.351556157237489</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM4">
-        <v>-125.9235815556908</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN4">
-        <v>103.3157265540677</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO4">
-        <v>-5.054191003316185</v>
+        <v>-0.3048353219359008</v>
       </c>
       <c r="AP4">
-        <v>-119.3656480962875</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ4">
-        <v>101.6931454031111</v>
+        <v>124.489614959663</v>
       </c>
     </row>
   </sheetData>
@@ -8698,130 +8698,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002186008186052339</v>
+        <v>0.002187988958452077</v>
       </c>
       <c r="C2">
-        <v>0.002186008549782637</v>
+        <v>0.002187988955299735</v>
       </c>
       <c r="D2">
-        <v>0.002186007825474825</v>
+        <v>0.002187988955299794</v>
       </c>
       <c r="E2">
-        <v>0.002149855079153443</v>
+        <v>0.8367283517811521</v>
       </c>
       <c r="F2">
-        <v>0.9570414563987543</v>
+        <v>0.002394823334701176</v>
       </c>
       <c r="G2">
-        <v>0.8169675519292499</v>
+        <v>0.002394823334701831</v>
       </c>
       <c r="H2">
-        <v>0.02524184829336087</v>
+        <v>0.02526472028292472</v>
       </c>
       <c r="I2">
-        <v>0.02524185249335658</v>
+        <v>0.0252647202465246</v>
       </c>
       <c r="J2">
-        <v>0.02524184412977037</v>
+        <v>0.02526472024652528</v>
       </c>
       <c r="K2">
-        <v>0.02482438817335849</v>
+        <v>9.661706782788803</v>
       </c>
       <c r="L2">
-        <v>11.05096284954905</v>
+        <v>0.02765303793902642</v>
       </c>
       <c r="M2">
-        <v>9.433528720510839</v>
+        <v>0.02765303793903399</v>
       </c>
       <c r="N2">
-        <v>-0.009737418525266241</v>
+        <v>0.009831532671414586</v>
       </c>
       <c r="O2">
-        <v>-0.005665995794831129</v>
+        <v>0.01530731348535312</v>
       </c>
       <c r="P2">
-        <v>0.01547973338044119</v>
+        <v>-0.02506238639781851</v>
       </c>
       <c r="Q2">
-        <v>-0.001038277449138248</v>
+        <v>-3.48645730265588</v>
       </c>
       <c r="R2">
-        <v>-4.572469766590316</v>
+        <v>-0.02407837607861344</v>
       </c>
       <c r="S2">
-        <v>-3.332954257136283</v>
+        <v>0.02279000189686241</v>
       </c>
       <c r="T2">
-        <v>-0.02331282524188677</v>
+        <v>0.01220304333114967</v>
       </c>
       <c r="U2">
-        <v>0.01459899273701556</v>
+        <v>-0.02012156184642946</v>
       </c>
       <c r="V2">
-        <v>-0.002418032141857882</v>
+        <v>-0.003233530618850714</v>
       </c>
       <c r="W2">
-        <v>0.02752170490581161</v>
+        <v>-3.50181610998515</v>
       </c>
       <c r="X2">
-        <v>-4.592299874093126</v>
+        <v>0.0121402722799663</v>
       </c>
       <c r="Y2">
-        <v>-3.325501539323074</v>
+        <v>0.02201076708604887</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-51.72817261575595</v>
       </c>
       <c r="AA2">
-        <v>-170.9235815556613</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>58.3157265540805</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>-96.51205885396874</v>
+        <v>128.1459030865887</v>
       </c>
       <c r="AD2">
-        <v>8.952445912679762</v>
+        <v>78.10728253909214</v>
       </c>
       <c r="AE2">
-        <v>-121.6201430962846</v>
+        <v>78.10728253910108</v>
       </c>
       <c r="AF2">
-        <v>0.8721332518534242</v>
+        <v>0.7492067188226383</v>
       </c>
       <c r="AG2">
-        <v>0.6208257825095037</v>
+        <v>0.9999999999987974</v>
       </c>
       <c r="AH2">
-        <v>0.7490594668689452</v>
+        <v>0.8719401990676209</v>
       </c>
       <c r="AI2">
-        <v>0.8671834304540896</v>
+        <v>0.7615594742962095</v>
       </c>
       <c r="AJ2">
-        <v>0.5701359740030982</v>
+        <v>0.9999999999991965</v>
       </c>
       <c r="AK2">
-        <v>0.7780446838807024</v>
+        <v>0.877371251159636</v>
       </c>
       <c r="AL2">
-        <v>0.0158194676764636</v>
+        <v>-16.15586420839396</v>
       </c>
       <c r="AM2">
-        <v>-136.1029564689277</v>
+        <v>-120.037002149499</v>
       </c>
       <c r="AN2">
-        <v>103.8071623873661</v>
+        <v>120.0528789941859</v>
       </c>
       <c r="AO2">
-        <v>-4.351556157237489</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AP2">
-        <v>-125.9235815556908</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AQ2">
-        <v>103.3157265540677</v>
+        <v>122.1108182946456</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -8829,130 +8829,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001074927550943404</v>
+        <v>0.001197411756153878</v>
       </c>
       <c r="C3">
-        <v>0.001074927702694966</v>
+        <v>0.001197411680011855</v>
       </c>
       <c r="D3">
-        <v>0.001074927467544633</v>
+        <v>0.00119741168001153</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.6999120445013209</v>
       </c>
       <c r="F3">
-        <v>0.8779780940021618</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7099194196940264</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01241219421793039</v>
+        <v>0.01382651999492528</v>
       </c>
       <c r="I3">
-        <v>0.0124121959702065</v>
+        <v>0.01382651911571293</v>
       </c>
       <c r="J3">
-        <v>0.01241219325492433</v>
+        <v>0.01382651911570918</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>8.081888146037981</v>
       </c>
       <c r="L3">
-        <v>10.13801777829485</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.197443361265782</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0005191384960944979</v>
+        <v>-0.0006365558078439346</v>
       </c>
       <c r="O3">
-        <v>-0.006340618136742675</v>
+        <v>0.01203918806340264</v>
       </c>
       <c r="P3">
-        <v>0.00582762833564396</v>
+        <v>-0.0113950012560248</v>
       </c>
       <c r="Q3">
-        <v>-8.178971484954886E-10</v>
+        <v>-2.44938435017532</v>
       </c>
       <c r="R3">
-        <v>-3.854227667769854</v>
+        <v>-1.13532175503883E-10</v>
       </c>
       <c r="S3">
-        <v>-2.519927911799696</v>
+        <v>-1.082998250156873E-09</v>
       </c>
       <c r="T3">
-        <v>-0.01376085260724463</v>
+        <v>0.007042847293700775</v>
       </c>
       <c r="U3">
-        <v>0.003574435067032464</v>
+        <v>-0.006070136408858913</v>
       </c>
       <c r="V3">
-        <v>0.002101268747174773</v>
+        <v>-0.01100538346565306</v>
       </c>
       <c r="W3">
-        <v>-3.82601033781415E-10</v>
+        <v>-2.449384351084683</v>
       </c>
       <c r="X3">
-        <v>-3.854227668652761</v>
+        <v>-9.144554882181576E-10</v>
       </c>
       <c r="Y3">
-        <v>-2.519927913118709</v>
+        <v>3.547290842871596E-10</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-45.30483532196973</v>
       </c>
       <c r="AA3">
-        <v>-164.3656480962364</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>56.69314540313634</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>134.6951646674227</v>
       </c>
       <c r="AD3">
-        <v>15.63435189714452</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-123.306854611875</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.8671834304540896</v>
+        <v>0.7615594742962095</v>
       </c>
       <c r="AG3">
-        <v>0.5701359740030982</v>
+        <v>0.9999999999991965</v>
       </c>
       <c r="AH3">
-        <v>0.7780446838807024</v>
+        <v>0.877371251159636</v>
       </c>
       <c r="AI3">
-        <v>0.8595183170292721</v>
+        <v>0.7700746676618133</v>
       </c>
       <c r="AJ3">
-        <v>0.526165712950652</v>
+        <v>0.999999999999447</v>
       </c>
       <c r="AK3">
-        <v>0.793440478635774</v>
+        <v>0.8785874061674938</v>
       </c>
       <c r="AL3">
-        <v>-4.351556157237489</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM3">
-        <v>-125.9235815556908</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN3">
-        <v>103.3157265540677</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO3">
-        <v>-5.054191003316187</v>
+        <v>-0.3048353219359057</v>
       </c>
       <c r="AP3">
-        <v>-119.3656480962875</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ3">
-        <v>101.6931454031112</v>
+        <v>124.489614959663</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -8960,130 +8960,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001074927550943799</v>
+        <v>0.001197411756154132</v>
       </c>
       <c r="C4">
-        <v>0.001074927702695217</v>
+        <v>0.001197411680011945</v>
       </c>
       <c r="D4">
-        <v>0.001074927467544633</v>
+        <v>0.001197411680011689</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6999120445013212</v>
       </c>
       <c r="F4">
-        <v>0.8779780940021622</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7099194196940273</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.01241219421793495</v>
+        <v>0.01382651999492821</v>
       </c>
       <c r="I4">
-        <v>0.01241219597020939</v>
+        <v>0.01382651911571397</v>
       </c>
       <c r="J4">
-        <v>0.01241219325492433</v>
+        <v>0.01382651911571101</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.081888146037983</v>
       </c>
       <c r="L4">
-        <v>10.13801777829486</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>8.197443361265792</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0005191384960927892</v>
+        <v>-0.0006365558078452965</v>
       </c>
       <c r="O4">
-        <v>-0.006340618136745429</v>
+        <v>0.01203918806340318</v>
       </c>
       <c r="P4">
-        <v>0.00582762833564396</v>
+        <v>-0.01139500125602854</v>
       </c>
       <c r="Q4">
-        <v>-8.178985457012579E-10</v>
+        <v>-2.44938435017532</v>
       </c>
       <c r="R4">
-        <v>-3.854227667769854</v>
+        <v>-1.13533386641515E-10</v>
       </c>
       <c r="S4">
-        <v>-2.519927911799707</v>
+        <v>-1.083003222861708E-09</v>
       </c>
       <c r="T4">
-        <v>-0.01376085260724977</v>
+        <v>0.007042847293702157</v>
       </c>
       <c r="U4">
-        <v>0.00357443506703103</v>
+        <v>-0.006070136408860086</v>
       </c>
       <c r="V4">
-        <v>0.002101268747174773</v>
+        <v>-0.01100538346565221</v>
       </c>
       <c r="W4">
-        <v>-3.826009102100307E-10</v>
+        <v>-2.449384351084683</v>
       </c>
       <c r="X4">
-        <v>-3.854227668652761</v>
+        <v>-9.144601025984314E-10</v>
       </c>
       <c r="Y4">
-        <v>-2.519927913118706</v>
+        <v>3.54736322427788E-10</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-45.30483532196973</v>
       </c>
       <c r="AA4">
-        <v>-164.3656480962364</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>56.69314540313635</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>134.6951646674227</v>
       </c>
       <c r="AD4">
-        <v>15.63435189714453</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>-123.3068546118748</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.8671834304540896</v>
+        <v>0.7615594742962095</v>
       </c>
       <c r="AG4">
-        <v>0.5701359740030982</v>
+        <v>0.9999999999991965</v>
       </c>
       <c r="AH4">
-        <v>0.7780446838807024</v>
+        <v>0.877371251159636</v>
       </c>
       <c r="AI4">
-        <v>0.8595183170292721</v>
+        <v>0.7700746676618129</v>
       </c>
       <c r="AJ4">
-        <v>0.526165712950652</v>
+        <v>0.9999999999994468</v>
       </c>
       <c r="AK4">
-        <v>0.793440478635774</v>
+        <v>0.8785874061674938</v>
       </c>
       <c r="AL4">
-        <v>-4.351556157237489</v>
+        <v>-6.728172615731542</v>
       </c>
       <c r="AM4">
-        <v>-125.9235815556908</v>
+        <v>-128.6498735956027</v>
       </c>
       <c r="AN4">
-        <v>103.3157265540677</v>
+        <v>122.1108182946456</v>
       </c>
       <c r="AO4">
-        <v>-5.054191003316185</v>
+        <v>-0.3048353219359008</v>
       </c>
       <c r="AP4">
-        <v>-119.3656480962875</v>
+        <v>-134.4515915409578</v>
       </c>
       <c r="AQ4">
-        <v>101.6931454031111</v>
+        <v>124.489614959663</v>
       </c>
     </row>
   </sheetData>
@@ -9235,130 +9235,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.005473092900013493</v>
+        <v>0.005462791258330974</v>
       </c>
       <c r="C2">
-        <v>0.005473092895653112</v>
+        <v>0.005462792168000915</v>
       </c>
       <c r="D2">
-        <v>0.005473092895655525</v>
+        <v>0.005462790353012665</v>
       </c>
       <c r="E2">
-        <v>2.252717306096701</v>
+        <v>0.004103356889504518</v>
       </c>
       <c r="F2">
-        <v>0.004634641244421751</v>
+        <v>2.660036195579899</v>
       </c>
       <c r="G2">
-        <v>0.004634641244424862</v>
+        <v>2.091163101421792</v>
       </c>
       <c r="H2">
-        <v>0.0631978331824524</v>
+        <v>0.06307888007048244</v>
       </c>
       <c r="I2">
-        <v>0.06319783313210306</v>
+        <v>0.06307889057444614</v>
       </c>
       <c r="J2">
-        <v>0.06319783313213091</v>
+        <v>0.06307886961676706</v>
       </c>
       <c r="K2">
-        <v>26.01213886166117</v>
+        <v>0.04738148409473079</v>
       </c>
       <c r="L2">
-        <v>0.05351622740128481</v>
+        <v>30.71545227144405</v>
       </c>
       <c r="M2">
-        <v>0.05351622740132072</v>
+        <v>24.14667159050569</v>
       </c>
       <c r="N2">
-        <v>1.15935958853601E-13</v>
+        <v>0.0002482472885469999</v>
       </c>
       <c r="O2">
-        <v>0.06032814290799341</v>
+        <v>2.122072941029916E-13</v>
       </c>
       <c r="P2">
-        <v>-0.06007895845564305</v>
+        <v>8.157963722465682E-15</v>
       </c>
       <c r="Q2">
-        <v>-6.276366226295867E-12</v>
+        <v>-2.33399172101303E-05</v>
       </c>
       <c r="R2">
-        <v>-0.04939289853961923</v>
+        <v>-4.320443247159538E-11</v>
       </c>
       <c r="S2">
-        <v>0.04936312345717925</v>
+        <v>-4.334051217155358E-11</v>
       </c>
       <c r="T2">
-        <v>-2.424773262478404E-13</v>
+        <v>-0.0695169310652496</v>
       </c>
       <c r="U2">
-        <v>-0.03465116761270845</v>
+        <v>1.275293533041838E-13</v>
       </c>
       <c r="V2">
-        <v>-0.03512819832072846</v>
+        <v>-2.489684432346559E-13</v>
       </c>
       <c r="W2">
-        <v>8.116116855555574E-11</v>
+        <v>0.05890851607324762</v>
       </c>
       <c r="X2">
-        <v>0.02489139163458048</v>
+        <v>5.363209352386712E-11</v>
       </c>
       <c r="Y2">
-        <v>0.05025908586948829</v>
+        <v>3.366473968148282E-11</v>
       </c>
       <c r="Z2">
-        <v>-68.89306558737331</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>170.0913491645859</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>37.83039567180641</v>
       </c>
       <c r="AC2">
-        <v>111.0384603224017</v>
+        <v>-96.3361515847661</v>
       </c>
       <c r="AD2">
-        <v>75.59376395581886</v>
+        <v>-9.996863288934243</v>
       </c>
       <c r="AE2">
-        <v>75.59376395581695</v>
+        <v>-142.0889578364301</v>
       </c>
       <c r="AF2">
-        <v>0.6355772023502927</v>
+        <v>0.636280712791619</v>
       </c>
       <c r="AG2">
-        <v>1.1000000238379</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.6357927364583869</v>
+        <v>0.6362807127881797</v>
       </c>
       <c r="AI2">
-        <v>0.5967063269904345</v>
+        <v>0.7178088853018512</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023838578</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.7599982922815229</v>
+        <v>0.7178088852998012</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.01117384647240266</v>
       </c>
       <c r="AM2">
-        <v>-120.0991126865173</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>120.0878544348442</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AP2">
-        <v>-131.1519080433461</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>121.1090454494766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9366,130 +9366,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.002317320774160437</v>
+        <v>0.002051678463948448</v>
       </c>
       <c r="C3">
-        <v>0.00231732064389262</v>
+        <v>0.002051678822269556</v>
       </c>
       <c r="D3">
-        <v>0.002317320643893501</v>
+        <v>0.002051678220965958</v>
       </c>
       <c r="E3">
-        <v>1.780157174968941</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.314120904929502</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.72841244507499</v>
       </c>
       <c r="H3">
-        <v>0.02675811545520481</v>
+        <v>0.02369074226902389</v>
       </c>
       <c r="I3">
-        <v>0.02675811395100162</v>
+        <v>0.02369074640655965</v>
       </c>
       <c r="J3">
-        <v>0.02675811395101179</v>
+        <v>0.02369073946330377</v>
       </c>
       <c r="K3">
-        <v>20.55548448336324</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>26.72116654796776</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>19.9579878086949</v>
       </c>
       <c r="N3">
-        <v>5.367635832813041E-14</v>
+        <v>1.16696167905099E-05</v>
       </c>
       <c r="O3">
-        <v>0.02469644935641803</v>
+        <v>4.340952419135845E-14</v>
       </c>
       <c r="P3">
-        <v>-0.02468156225120295</v>
+        <v>6.010143787399202E-15</v>
       </c>
       <c r="Q3">
-        <v>3.966483129437536E-12</v>
+        <v>-1.198558660256775E-09</v>
       </c>
       <c r="R3">
-        <v>-9.395058443406035E-11</v>
+        <v>-1.545648818634775E-11</v>
       </c>
       <c r="S3">
-        <v>-1.756445234703069E-09</v>
+        <v>-2.020909087726459E-11</v>
       </c>
       <c r="T3">
-        <v>-6.427206114039903E-14</v>
+        <v>-0.02945425831234316</v>
       </c>
       <c r="U3">
-        <v>-0.01244569622039635</v>
+        <v>3.061431748250443E-14</v>
       </c>
       <c r="V3">
-        <v>-0.02512954288336814</v>
+        <v>-5.350638785179627E-14</v>
       </c>
       <c r="W3">
-        <v>4.710123476885947E-11</v>
+        <v>-6.217499372213026E-10</v>
       </c>
       <c r="X3">
-        <v>-1.338794521880609E-09</v>
+        <v>3.057296708619334E-11</v>
       </c>
       <c r="Y3">
-        <v>3.789341040555118E-10</v>
+        <v>1.668441005146319E-11</v>
       </c>
       <c r="Z3">
-        <v>-59.54128816972698</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>178.6783254167875</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>36.83852716722075</v>
       </c>
       <c r="AC3">
-        <v>120.4587118205748</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1.321674590792654</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-143.1614728442686</v>
       </c>
       <c r="AF3">
-        <v>0.5967063269904345</v>
+        <v>0.7178088853018512</v>
       </c>
       <c r="AG3">
-        <v>1.100000023838578</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.7599982922815229</v>
+        <v>0.7178088852998012</v>
       </c>
       <c r="AI3">
-        <v>0.6175627786591105</v>
+        <v>0.7719945678108373</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023839263</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.826836754355374</v>
+        <v>0.7719945678096874</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM3">
-        <v>-131.1519080433461</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>121.1090454494766</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-6.619958059475713</v>
       </c>
       <c r="AP3">
-        <v>-138.0783507352045</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>123.7614475144085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -9497,130 +9497,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.002317320774162317</v>
+        <v>0.00205167846395026</v>
       </c>
       <c r="C4">
-        <v>0.00231732064389172</v>
+        <v>0.002051678822270643</v>
       </c>
       <c r="D4">
-        <v>0.002317320643893346</v>
+        <v>0.002051678220963965</v>
       </c>
       <c r="E4">
-        <v>1.780157174968946</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.314120904929501</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.728412445074991</v>
       </c>
       <c r="H4">
-        <v>0.02675811545522652</v>
+        <v>0.02369074226904481</v>
       </c>
       <c r="I4">
-        <v>0.02675811395099123</v>
+        <v>0.02369074640657221</v>
       </c>
       <c r="J4">
-        <v>0.02675811395101001</v>
+        <v>0.02369073946328076</v>
       </c>
       <c r="K4">
-        <v>20.55548448336329</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>26.72116654796775</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>19.95798780869491</v>
       </c>
       <c r="N4">
-        <v>5.367635832818259E-14</v>
+        <v>1.16696168113341E-05</v>
       </c>
       <c r="O4">
-        <v>0.02469644935640514</v>
+        <v>4.34095241913463E-14</v>
       </c>
       <c r="P4">
-        <v>-0.02468156225118996</v>
+        <v>6.010143787313021E-15</v>
       </c>
       <c r="Q4">
-        <v>3.979600093279052E-12</v>
+        <v>-1.198583827087422E-09</v>
       </c>
       <c r="R4">
-        <v>-9.394023627282454E-11</v>
+        <v>-1.544752219058249E-11</v>
       </c>
       <c r="S4">
-        <v>-1.756476291981477E-09</v>
+        <v>-2.021174787388716E-11</v>
       </c>
       <c r="T4">
-        <v>-6.427206114044396E-14</v>
+        <v>-0.02945425831236917</v>
       </c>
       <c r="U4">
-        <v>-0.01244569622039809</v>
+        <v>3.061431748257048E-14</v>
       </c>
       <c r="V4">
-        <v>-0.0251295428833776</v>
+        <v>-5.350638785175331E-14</v>
       </c>
       <c r="W4">
-        <v>4.711999585443303E-11</v>
+        <v>-6.217470164354689E-10</v>
       </c>
       <c r="X4">
-        <v>-1.338802254401779E-09</v>
+        <v>3.057020651174484E-11</v>
       </c>
       <c r="Y4">
-        <v>3.789439433249059E-10</v>
+        <v>1.668086334536281E-11</v>
       </c>
       <c r="Z4">
-        <v>-59.54128816972698</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>178.6783254167875</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>36.83852716722073</v>
       </c>
       <c r="AC4">
-        <v>120.4587118205749</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-1.321674590792716</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-143.1614728442686</v>
       </c>
       <c r="AF4">
-        <v>0.5967063269904345</v>
+        <v>0.7178088853018512</v>
       </c>
       <c r="AG4">
-        <v>1.100000023838578</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7599982922815229</v>
+        <v>0.7178088852998012</v>
       </c>
       <c r="AI4">
-        <v>0.6175627786591099</v>
+        <v>0.7719945678108373</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023839263</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8268367543553737</v>
+        <v>0.7719945678096877</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM4">
-        <v>-131.1519080433461</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>121.1090454494766</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-6.619958059475715</v>
       </c>
       <c r="AP4">
-        <v>-138.0783507352045</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>123.7614475144085</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9772,130 +9772,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.005473092900013493</v>
+        <v>0.005462791258330974</v>
       </c>
       <c r="C2">
-        <v>0.005473092895653112</v>
+        <v>0.005462792168000915</v>
       </c>
       <c r="D2">
-        <v>0.005473092895655525</v>
+        <v>0.005462790353012665</v>
       </c>
       <c r="E2">
-        <v>2.252717306096701</v>
+        <v>0.004103356889504518</v>
       </c>
       <c r="F2">
-        <v>0.004634641244421751</v>
+        <v>2.660036195579899</v>
       </c>
       <c r="G2">
-        <v>0.004634641244424862</v>
+        <v>2.091163101421792</v>
       </c>
       <c r="H2">
-        <v>0.0631978331824524</v>
+        <v>0.06307888007048244</v>
       </c>
       <c r="I2">
-        <v>0.06319783313210306</v>
+        <v>0.06307889057444614</v>
       </c>
       <c r="J2">
-        <v>0.06319783313213091</v>
+        <v>0.06307886961676706</v>
       </c>
       <c r="K2">
-        <v>26.01213886166117</v>
+        <v>0.04738148409473079</v>
       </c>
       <c r="L2">
-        <v>0.05351622740128481</v>
+        <v>30.71545227144405</v>
       </c>
       <c r="M2">
-        <v>0.05351622740132072</v>
+        <v>24.14667159050569</v>
       </c>
       <c r="N2">
-        <v>1.15935958853601E-13</v>
+        <v>0.0002482472885469999</v>
       </c>
       <c r="O2">
-        <v>0.06032814290799341</v>
+        <v>2.122072941029916E-13</v>
       </c>
       <c r="P2">
-        <v>-0.06007895845564305</v>
+        <v>8.157963722465682E-15</v>
       </c>
       <c r="Q2">
-        <v>-6.276366226295867E-12</v>
+        <v>-2.33399172101303E-05</v>
       </c>
       <c r="R2">
-        <v>-0.04939289853961923</v>
+        <v>-4.320443247159538E-11</v>
       </c>
       <c r="S2">
-        <v>0.04936312345717925</v>
+        <v>-4.334051217155358E-11</v>
       </c>
       <c r="T2">
-        <v>-2.424773262478404E-13</v>
+        <v>-0.0695169310652496</v>
       </c>
       <c r="U2">
-        <v>-0.03465116761270845</v>
+        <v>1.275293533041838E-13</v>
       </c>
       <c r="V2">
-        <v>-0.03512819832072846</v>
+        <v>-2.489684432346559E-13</v>
       </c>
       <c r="W2">
-        <v>8.116116855555574E-11</v>
+        <v>0.05890851607324762</v>
       </c>
       <c r="X2">
-        <v>0.02489139163458048</v>
+        <v>5.363209352386712E-11</v>
       </c>
       <c r="Y2">
-        <v>0.05025908586948829</v>
+        <v>3.366473968148282E-11</v>
       </c>
       <c r="Z2">
-        <v>-68.89306558737331</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>170.0913491645859</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>37.83039567180641</v>
       </c>
       <c r="AC2">
-        <v>111.0384603224017</v>
+        <v>-96.3361515847661</v>
       </c>
       <c r="AD2">
-        <v>75.59376395581886</v>
+        <v>-9.996863288934243</v>
       </c>
       <c r="AE2">
-        <v>75.59376395581695</v>
+        <v>-142.0889578364301</v>
       </c>
       <c r="AF2">
-        <v>0.6355772023502927</v>
+        <v>0.636280712791619</v>
       </c>
       <c r="AG2">
-        <v>1.1000000238379</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.6357927364583869</v>
+        <v>0.6362807127881797</v>
       </c>
       <c r="AI2">
-        <v>0.5967063269904345</v>
+        <v>0.7178088853018512</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023838578</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.7599982922815229</v>
+        <v>0.7178088852998012</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.01117384647240266</v>
       </c>
       <c r="AM2">
-        <v>-120.0991126865173</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>120.0878544348442</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AP2">
-        <v>-131.1519080433461</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>121.1090454494766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -9903,130 +9903,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.002317320774160437</v>
+        <v>0.002051678463948448</v>
       </c>
       <c r="C3">
-        <v>0.00231732064389262</v>
+        <v>0.002051678822269556</v>
       </c>
       <c r="D3">
-        <v>0.002317320643893501</v>
+        <v>0.002051678220965958</v>
       </c>
       <c r="E3">
-        <v>1.780157174968941</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.314120904929502</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.72841244507499</v>
       </c>
       <c r="H3">
-        <v>0.02675811545520481</v>
+        <v>0.02369074226902389</v>
       </c>
       <c r="I3">
-        <v>0.02675811395100162</v>
+        <v>0.02369074640655965</v>
       </c>
       <c r="J3">
-        <v>0.02675811395101179</v>
+        <v>0.02369073946330377</v>
       </c>
       <c r="K3">
-        <v>20.55548448336324</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>26.72116654796776</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>19.9579878086949</v>
       </c>
       <c r="N3">
-        <v>5.367635832813041E-14</v>
+        <v>1.16696167905099E-05</v>
       </c>
       <c r="O3">
-        <v>0.02469644935641803</v>
+        <v>4.340952419135845E-14</v>
       </c>
       <c r="P3">
-        <v>-0.02468156225120295</v>
+        <v>6.010143787399202E-15</v>
       </c>
       <c r="Q3">
-        <v>3.966483129437536E-12</v>
+        <v>-1.198558660256775E-09</v>
       </c>
       <c r="R3">
-        <v>-9.395058443406035E-11</v>
+        <v>-1.545648818634775E-11</v>
       </c>
       <c r="S3">
-        <v>-1.756445234703069E-09</v>
+        <v>-2.020909087726459E-11</v>
       </c>
       <c r="T3">
-        <v>-6.427206114039903E-14</v>
+        <v>-0.02945425831234316</v>
       </c>
       <c r="U3">
-        <v>-0.01244569622039635</v>
+        <v>3.061431748250443E-14</v>
       </c>
       <c r="V3">
-        <v>-0.02512954288336814</v>
+        <v>-5.350638785179627E-14</v>
       </c>
       <c r="W3">
-        <v>4.710123476885947E-11</v>
+        <v>-6.217499372213026E-10</v>
       </c>
       <c r="X3">
-        <v>-1.338794521880609E-09</v>
+        <v>3.057296708619334E-11</v>
       </c>
       <c r="Y3">
-        <v>3.789341040555118E-10</v>
+        <v>1.668441005146319E-11</v>
       </c>
       <c r="Z3">
-        <v>-59.54128816972698</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>178.6783254167875</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>36.83852716722075</v>
       </c>
       <c r="AC3">
-        <v>120.4587118205748</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-1.321674590792654</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-143.1614728442686</v>
       </c>
       <c r="AF3">
-        <v>0.5967063269904345</v>
+        <v>0.7178088853018512</v>
       </c>
       <c r="AG3">
-        <v>1.100000023838578</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.7599982922815229</v>
+        <v>0.7178088852998012</v>
       </c>
       <c r="AI3">
-        <v>0.6175627786591105</v>
+        <v>0.7719945678108373</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023839263</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.826836754355374</v>
+        <v>0.7719945678096874</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM3">
-        <v>-131.1519080433461</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>121.1090454494766</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-6.619958059475713</v>
       </c>
       <c r="AP3">
-        <v>-138.0783507352045</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>123.7614475144085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10034,130 +10034,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.002317320774162317</v>
+        <v>0.00205167846395026</v>
       </c>
       <c r="C4">
-        <v>0.00231732064389172</v>
+        <v>0.002051678822270643</v>
       </c>
       <c r="D4">
-        <v>0.002317320643893346</v>
+        <v>0.002051678220963965</v>
       </c>
       <c r="E4">
-        <v>1.780157174968946</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.314120904929501</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.728412445074991</v>
       </c>
       <c r="H4">
-        <v>0.02675811545522652</v>
+        <v>0.02369074226904481</v>
       </c>
       <c r="I4">
-        <v>0.02675811395099123</v>
+        <v>0.02369074640657221</v>
       </c>
       <c r="J4">
-        <v>0.02675811395101001</v>
+        <v>0.02369073946328076</v>
       </c>
       <c r="K4">
-        <v>20.55548448336329</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>26.72116654796775</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>19.95798780869491</v>
       </c>
       <c r="N4">
-        <v>5.367635832818259E-14</v>
+        <v>1.16696168113341E-05</v>
       </c>
       <c r="O4">
-        <v>0.02469644935640514</v>
+        <v>4.34095241913463E-14</v>
       </c>
       <c r="P4">
-        <v>-0.02468156225118996</v>
+        <v>6.010143787313021E-15</v>
       </c>
       <c r="Q4">
-        <v>3.979600093279052E-12</v>
+        <v>-1.198583827087422E-09</v>
       </c>
       <c r="R4">
-        <v>-9.394023627282454E-11</v>
+        <v>-1.544752219058249E-11</v>
       </c>
       <c r="S4">
-        <v>-1.756476291981477E-09</v>
+        <v>-2.021174787388716E-11</v>
       </c>
       <c r="T4">
-        <v>-6.427206114044396E-14</v>
+        <v>-0.02945425831236917</v>
       </c>
       <c r="U4">
-        <v>-0.01244569622039809</v>
+        <v>3.061431748257048E-14</v>
       </c>
       <c r="V4">
-        <v>-0.0251295428833776</v>
+        <v>-5.350638785175331E-14</v>
       </c>
       <c r="W4">
-        <v>4.711999585443303E-11</v>
+        <v>-6.217470164354689E-10</v>
       </c>
       <c r="X4">
-        <v>-1.338802254401779E-09</v>
+        <v>3.057020651174484E-11</v>
       </c>
       <c r="Y4">
-        <v>3.789439433249059E-10</v>
+        <v>1.668086334536281E-11</v>
       </c>
       <c r="Z4">
-        <v>-59.54128816972698</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>178.6783254167875</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>36.83852716722073</v>
       </c>
       <c r="AC4">
-        <v>120.4587118205749</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-1.321674590792716</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-143.1614728442686</v>
       </c>
       <c r="AF4">
-        <v>0.5967063269904345</v>
+        <v>0.7178088853018512</v>
       </c>
       <c r="AG4">
-        <v>1.100000023838578</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7599982922815229</v>
+        <v>0.7178088852998012</v>
       </c>
       <c r="AI4">
-        <v>0.6175627786591099</v>
+        <v>0.7719945678108373</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023839263</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8268367543553737</v>
+        <v>0.7719945678096877</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-6.313450644914343</v>
       </c>
       <c r="AM4">
-        <v>-131.1519080433461</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>121.1090454494766</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-6.619958059475715</v>
       </c>
       <c r="AP4">
-        <v>-138.0783507352045</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>123.7614475144085</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10309,130 +10309,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002223986694037759</v>
+        <v>0.002222362339033375</v>
       </c>
       <c r="C2">
-        <v>0.002223986692267004</v>
+        <v>0.002222362708247516</v>
       </c>
       <c r="D2">
-        <v>0.0022239866922674</v>
+        <v>0.002222361971588106</v>
       </c>
       <c r="E2">
-        <v>1.022181232019274</v>
+        <v>0.001964779832172947</v>
       </c>
       <c r="F2">
-        <v>0.002102990590239066</v>
+        <v>1.108377942628316</v>
       </c>
       <c r="G2">
-        <v>0.00210299059024072</v>
+        <v>1.011681349984586</v>
       </c>
       <c r="H2">
-        <v>0.02568038632953693</v>
+        <v>0.02566162989355612</v>
       </c>
       <c r="I2">
-        <v>0.02568038630909001</v>
+        <v>0.02566163415687378</v>
       </c>
       <c r="J2">
-        <v>0.02568038630909458</v>
+        <v>0.02566162565066361</v>
       </c>
       <c r="K2">
-        <v>11.80313218933823</v>
+        <v>0.02268732330006797</v>
       </c>
       <c r="L2">
-        <v>0.02428324366755549</v>
+        <v>12.79844607080604</v>
       </c>
       <c r="M2">
-        <v>0.0242832436675746</v>
+        <v>11.6818899949545</v>
       </c>
       <c r="N2">
-        <v>0.01159995484395637</v>
+        <v>-0.01154193385839816</v>
       </c>
       <c r="O2">
-        <v>0.01654436212332422</v>
+        <v>-0.006596371835025082</v>
       </c>
       <c r="P2">
-        <v>-0.02810317444379894</v>
+        <v>0.01817938540839052</v>
       </c>
       <c r="Q2">
-        <v>-5.209283011673569</v>
+        <v>0.002177818012232652</v>
       </c>
       <c r="R2">
-        <v>-0.02188111303991172</v>
+        <v>-6.132303166636853</v>
       </c>
       <c r="S2">
-        <v>0.02437610103992374</v>
+        <v>-5.114597761743065</v>
       </c>
       <c r="T2">
-        <v>0.01429863561698583</v>
+        <v>-0.02578287322987702</v>
       </c>
       <c r="U2">
-        <v>-0.02291676290278469</v>
+        <v>0.01717870769784352</v>
       </c>
       <c r="V2">
-        <v>-0.002903814168881342</v>
+        <v>-0.002900949065731238</v>
       </c>
       <c r="W2">
-        <v>-5.22174912664946</v>
+        <v>0.02657056909138135</v>
       </c>
       <c r="X2">
-        <v>0.01477461988622366</v>
+        <v>-6.154039923208787</v>
       </c>
       <c r="Y2">
-        <v>0.01566559626748716</v>
+        <v>-5.103742397547301</v>
       </c>
       <c r="Z2">
-        <v>-55.59028714728477</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-174.4216267705806</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>58.82294788472791</v>
       </c>
       <c r="AC2">
-        <v>124.3412387624903</v>
+        <v>-88.01504972804585</v>
       </c>
       <c r="AD2">
-        <v>88.89654239591107</v>
+        <v>5.477006768771929</v>
       </c>
       <c r="AE2">
-        <v>88.89654239589308</v>
+        <v>-121.1161844685558</v>
       </c>
       <c r="AF2">
-        <v>0.8440341447457987</v>
+        <v>0.9729578720439175</v>
       </c>
       <c r="AG2">
-        <v>1.100000023840153</v>
+        <v>0.7175004542770153</v>
       </c>
       <c r="AH2">
-        <v>0.9727947881380373</v>
+        <v>0.8439035640961189</v>
       </c>
       <c r="AI2">
-        <v>0.8440065675549148</v>
+        <v>0.9653165427949276</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023840383</v>
+        <v>0.669786432244013</v>
       </c>
       <c r="AK2">
-        <v>0.9689144874145577</v>
+        <v>0.8518280946068217</v>
       </c>
       <c r="AL2">
-        <v>-14.90717692343631</v>
+        <v>0.0139270167001685</v>
       </c>
       <c r="AM2">
-        <v>-120.0292704737576</v>
+        <v>-134.8639182893703</v>
       </c>
       <c r="AN2">
-        <v>120.0432382313321</v>
+        <v>105.0635730055186</v>
       </c>
       <c r="AO2">
-        <v>-10.59028714735436</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AP2">
-        <v>-125.1315647199126</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AQ2">
-        <v>121.6238606247693</v>
+        <v>103.8229478846527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10440,130 +10440,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001051495364066567</v>
+        <v>0.0009823899252772396</v>
       </c>
       <c r="C3">
-        <v>0.00105149530495843</v>
+        <v>0.0009823900782580379</v>
       </c>
       <c r="D3">
-        <v>0.001051495304958633</v>
+        <v>0.0009823898275222963</v>
       </c>
       <c r="E3">
-        <v>0.9013413881175287</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.040334427075161</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.9016673918383682</v>
       </c>
       <c r="H3">
-        <v>0.01214162262990953</v>
+        <v>0.01134366175615981</v>
       </c>
       <c r="I3">
-        <v>0.01214162194738755</v>
+        <v>0.01134366352262992</v>
       </c>
       <c r="J3">
-        <v>0.01214162194738988</v>
+        <v>0.01134366062738296</v>
       </c>
       <c r="K3">
-        <v>10.40779386122812</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.01274723038158</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.41155822794779</v>
       </c>
       <c r="N3">
-        <v>0.001250558496464663</v>
+        <v>-0.001088909170526411</v>
       </c>
       <c r="O3">
-        <v>0.01094055653657859</v>
+        <v>-0.00577545274523036</v>
       </c>
       <c r="P3">
-        <v>-0.01218805072492217</v>
+        <v>0.006867035588465406</v>
       </c>
       <c r="Q3">
-        <v>-4.062081489382833</v>
+        <v>-6.104329920613961E-10</v>
       </c>
       <c r="R3">
-        <v>-2.70024655699151E-11</v>
+        <v>-5.411478600540402</v>
       </c>
       <c r="S3">
-        <v>-7.524998040421551E-10</v>
+        <v>-4.065020426847372</v>
       </c>
       <c r="T3">
-        <v>0.007483615236116796</v>
+        <v>-0.01328528465734075</v>
       </c>
       <c r="U3">
-        <v>-0.007387310139228444</v>
+        <v>0.005092924817431424</v>
       </c>
       <c r="V3">
-        <v>-0.007832798065551656</v>
+        <v>0.001439352653020878</v>
       </c>
       <c r="W3">
-        <v>-4.06208149074838</v>
+        <v>-3.28009641602405E-10</v>
       </c>
       <c r="X3">
-        <v>-6.938692162206957E-10</v>
+        <v>-5.41147860185117</v>
       </c>
       <c r="Y3">
-        <v>2.749917525445963E-10</v>
+        <v>-4.065020428520516</v>
       </c>
       <c r="Z3">
-        <v>-52.30362318491544</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-170.5778459566016</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>57.26767759056568</v>
       </c>
       <c r="AC3">
-        <v>127.6963768053864</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>9.42215403640869</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-122.7323224212782</v>
       </c>
       <c r="AF3">
-        <v>0.8440065675549148</v>
+        <v>0.9653165427949276</v>
       </c>
       <c r="AG3">
-        <v>1.100000023840383</v>
+        <v>0.669786432244013</v>
       </c>
       <c r="AH3">
-        <v>0.9689144874145577</v>
+        <v>0.8518280946068217</v>
       </c>
       <c r="AI3">
-        <v>0.8434715680207194</v>
+        <v>0.9579198071587197</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023840569</v>
+        <v>0.6279322069792089</v>
       </c>
       <c r="AK3">
-        <v>0.9656494086163243</v>
+        <v>0.8564846443872474</v>
       </c>
       <c r="AL3">
-        <v>-10.59028714735436</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM3">
-        <v>-125.1315647199126</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN3">
-        <v>121.6238606247693</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO3">
-        <v>-7.303623184977604</v>
+        <v>-3.782899000602696</v>
       </c>
       <c r="AP3">
-        <v>-129.0553880005655</v>
+        <v>-125.5778459566468</v>
       </c>
       <c r="AQ3">
-        <v>123.0990884522615</v>
+        <v>102.267677590504</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -10571,130 +10571,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001051495364067591</v>
+        <v>0.0009823899252776639</v>
       </c>
       <c r="C4">
-        <v>0.001051495304958121</v>
+        <v>0.0009823900782596779</v>
       </c>
       <c r="D4">
-        <v>0.001051495304958431</v>
+        <v>0.0009823898275222467</v>
       </c>
       <c r="E4">
-        <v>0.9013413881175297</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.040334427075161</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.9016673918383697</v>
       </c>
       <c r="H4">
-        <v>0.01214162262992134</v>
+        <v>0.01134366175616471</v>
       </c>
       <c r="I4">
-        <v>0.01214162194738397</v>
+        <v>0.01134366352264885</v>
       </c>
       <c r="J4">
-        <v>0.01214162194738756</v>
+        <v>0.01134366062738238</v>
       </c>
       <c r="K4">
-        <v>10.40779386122814</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.01274723038158</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.41155822794781</v>
       </c>
       <c r="N4">
-        <v>0.001250558496466751</v>
+        <v>-0.001088909170532234</v>
       </c>
       <c r="O4">
-        <v>0.01094055653657469</v>
+        <v>-0.005775452745240296</v>
       </c>
       <c r="P4">
-        <v>-0.01218805072491847</v>
+        <v>0.006867035588462957</v>
       </c>
       <c r="Q4">
-        <v>-4.062081489382829</v>
+        <v>-6.104329920613961E-10</v>
       </c>
       <c r="R4">
-        <v>-2.699615922445765E-11</v>
+        <v>-5.411478600540398</v>
       </c>
       <c r="S4">
-        <v>-7.525001562855207E-10</v>
+        <v>-4.06502042684738</v>
       </c>
       <c r="T4">
-        <v>0.007483615236123935</v>
+        <v>-0.01328528465734604</v>
       </c>
       <c r="U4">
-        <v>-0.007387310139227273</v>
+        <v>0.005092924817439592</v>
       </c>
       <c r="V4">
-        <v>-0.007832798065552281</v>
+        <v>0.001439352653030835</v>
       </c>
       <c r="W4">
-        <v>-4.062081490748389</v>
+        <v>-3.280096416024048E-10</v>
       </c>
       <c r="X4">
-        <v>-6.938634982867346E-10</v>
+        <v>-5.411478601851178</v>
       </c>
       <c r="Y4">
-        <v>2.749977626078639E-10</v>
+        <v>-4.065020428520516</v>
       </c>
       <c r="Z4">
-        <v>-52.30362318491544</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-170.5778459566016</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>57.26767759056567</v>
       </c>
       <c r="AC4">
-        <v>127.6963768053863</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>9.422154036408646</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-122.7323224212782</v>
       </c>
       <c r="AF4">
-        <v>0.8440065675549148</v>
+        <v>0.9653165427949276</v>
       </c>
       <c r="AG4">
-        <v>1.100000023840383</v>
+        <v>0.669786432244013</v>
       </c>
       <c r="AH4">
-        <v>0.9689144874145577</v>
+        <v>0.8518280946068217</v>
       </c>
       <c r="AI4">
-        <v>0.8434715680207194</v>
+        <v>0.9579198071587198</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023840569</v>
+        <v>0.627932206979209</v>
       </c>
       <c r="AK4">
-        <v>0.9656494086163243</v>
+        <v>0.8564846443872474</v>
       </c>
       <c r="AL4">
-        <v>-10.59028714735436</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM4">
-        <v>-125.1315647199126</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN4">
-        <v>121.6238606247693</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO4">
-        <v>-7.303623184977599</v>
+        <v>-3.782899000602703</v>
       </c>
       <c r="AP4">
-        <v>-129.0553880005655</v>
+        <v>-125.5778459566467</v>
       </c>
       <c r="AQ4">
-        <v>123.0990884522615</v>
+        <v>102.267677590504</v>
       </c>
     </row>
   </sheetData>
@@ -10846,130 +10846,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002223986694037759</v>
+        <v>0.002222362339033375</v>
       </c>
       <c r="C2">
-        <v>0.002223986692267004</v>
+        <v>0.002222362708247516</v>
       </c>
       <c r="D2">
-        <v>0.0022239866922674</v>
+        <v>0.002222361971588106</v>
       </c>
       <c r="E2">
-        <v>1.022181232019274</v>
+        <v>0.001964779832172947</v>
       </c>
       <c r="F2">
-        <v>0.002102990590239066</v>
+        <v>1.108377942628316</v>
       </c>
       <c r="G2">
-        <v>0.00210299059024072</v>
+        <v>1.011681349984586</v>
       </c>
       <c r="H2">
-        <v>0.02568038632953693</v>
+        <v>0.02566162989355612</v>
       </c>
       <c r="I2">
-        <v>0.02568038630909001</v>
+        <v>0.02566163415687378</v>
       </c>
       <c r="J2">
-        <v>0.02568038630909458</v>
+        <v>0.02566162565066361</v>
       </c>
       <c r="K2">
-        <v>11.80313218933823</v>
+        <v>0.02268732330006797</v>
       </c>
       <c r="L2">
-        <v>0.02428324366755549</v>
+        <v>12.79844607080604</v>
       </c>
       <c r="M2">
-        <v>0.0242832436675746</v>
+        <v>11.6818899949545</v>
       </c>
       <c r="N2">
-        <v>0.01159995484395637</v>
+        <v>-0.01154193385839816</v>
       </c>
       <c r="O2">
-        <v>0.01654436212332422</v>
+        <v>-0.006596371835025082</v>
       </c>
       <c r="P2">
-        <v>-0.02810317444379894</v>
+        <v>0.01817938540839052</v>
       </c>
       <c r="Q2">
-        <v>-5.209283011673569</v>
+        <v>0.002177818012232652</v>
       </c>
       <c r="R2">
-        <v>-0.02188111303991172</v>
+        <v>-6.132303166636853</v>
       </c>
       <c r="S2">
-        <v>0.02437610103992374</v>
+        <v>-5.114597761743065</v>
       </c>
       <c r="T2">
-        <v>0.01429863561698583</v>
+        <v>-0.02578287322987702</v>
       </c>
       <c r="U2">
-        <v>-0.02291676290278469</v>
+        <v>0.01717870769784352</v>
       </c>
       <c r="V2">
-        <v>-0.002903814168881342</v>
+        <v>-0.002900949065731238</v>
       </c>
       <c r="W2">
-        <v>-5.22174912664946</v>
+        <v>0.02657056909138135</v>
       </c>
       <c r="X2">
-        <v>0.01477461988622366</v>
+        <v>-6.154039923208787</v>
       </c>
       <c r="Y2">
-        <v>0.01566559626748716</v>
+        <v>-5.103742397547301</v>
       </c>
       <c r="Z2">
-        <v>-55.59028714728477</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-174.4216267705806</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>58.82294788472791</v>
       </c>
       <c r="AC2">
-        <v>124.3412387624903</v>
+        <v>-88.01504972804585</v>
       </c>
       <c r="AD2">
-        <v>88.89654239591107</v>
+        <v>5.477006768771929</v>
       </c>
       <c r="AE2">
-        <v>88.89654239589308</v>
+        <v>-121.1161844685558</v>
       </c>
       <c r="AF2">
-        <v>0.8440341447457987</v>
+        <v>0.9729578720439175</v>
       </c>
       <c r="AG2">
-        <v>1.100000023840153</v>
+        <v>0.7175004542770153</v>
       </c>
       <c r="AH2">
-        <v>0.9727947881380373</v>
+        <v>0.8439035640961189</v>
       </c>
       <c r="AI2">
-        <v>0.8440065675549148</v>
+        <v>0.9653165427949276</v>
       </c>
       <c r="AJ2">
-        <v>1.100000023840383</v>
+        <v>0.669786432244013</v>
       </c>
       <c r="AK2">
-        <v>0.9689144874145577</v>
+        <v>0.8518280946068217</v>
       </c>
       <c r="AL2">
-        <v>-14.90717692343631</v>
+        <v>0.0139270167001685</v>
       </c>
       <c r="AM2">
-        <v>-120.0292704737576</v>
+        <v>-134.8639182893703</v>
       </c>
       <c r="AN2">
-        <v>120.0432382313321</v>
+        <v>105.0635730055186</v>
       </c>
       <c r="AO2">
-        <v>-10.59028714735436</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AP2">
-        <v>-125.1315647199126</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AQ2">
-        <v>121.6238606247693</v>
+        <v>103.8229478846527</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -10977,130 +10977,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001051495364066567</v>
+        <v>0.0009823899252772396</v>
       </c>
       <c r="C3">
-        <v>0.00105149530495843</v>
+        <v>0.0009823900782580379</v>
       </c>
       <c r="D3">
-        <v>0.001051495304958633</v>
+        <v>0.0009823898275222963</v>
       </c>
       <c r="E3">
-        <v>0.9013413881175287</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.040334427075161</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.9016673918383682</v>
       </c>
       <c r="H3">
-        <v>0.01214162262990953</v>
+        <v>0.01134366175615981</v>
       </c>
       <c r="I3">
-        <v>0.01214162194738755</v>
+        <v>0.01134366352262992</v>
       </c>
       <c r="J3">
-        <v>0.01214162194738988</v>
+        <v>0.01134366062738296</v>
       </c>
       <c r="K3">
-        <v>10.40779386122812</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.01274723038158</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.41155822794779</v>
       </c>
       <c r="N3">
-        <v>0.001250558496464663</v>
+        <v>-0.001088909170526411</v>
       </c>
       <c r="O3">
-        <v>0.01094055653657859</v>
+        <v>-0.00577545274523036</v>
       </c>
       <c r="P3">
-        <v>-0.01218805072492217</v>
+        <v>0.006867035588465406</v>
       </c>
       <c r="Q3">
-        <v>-4.062081489382833</v>
+        <v>-6.104329920613961E-10</v>
       </c>
       <c r="R3">
-        <v>-2.70024655699151E-11</v>
+        <v>-5.411478600540402</v>
       </c>
       <c r="S3">
-        <v>-7.524998040421551E-10</v>
+        <v>-4.065020426847372</v>
       </c>
       <c r="T3">
-        <v>0.007483615236116796</v>
+        <v>-0.01328528465734075</v>
       </c>
       <c r="U3">
-        <v>-0.007387310139228444</v>
+        <v>0.005092924817431424</v>
       </c>
       <c r="V3">
-        <v>-0.007832798065551656</v>
+        <v>0.001439352653020878</v>
       </c>
       <c r="W3">
-        <v>-4.06208149074838</v>
+        <v>-3.28009641602405E-10</v>
       </c>
       <c r="X3">
-        <v>-6.938692162206957E-10</v>
+        <v>-5.41147860185117</v>
       </c>
       <c r="Y3">
-        <v>2.749917525445963E-10</v>
+        <v>-4.065020428520516</v>
       </c>
       <c r="Z3">
-        <v>-52.30362318491544</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-170.5778459566016</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>57.26767759056568</v>
       </c>
       <c r="AC3">
-        <v>127.6963768053864</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>9.42215403640869</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-122.7323224212782</v>
       </c>
       <c r="AF3">
-        <v>0.8440065675549148</v>
+        <v>0.9653165427949276</v>
       </c>
       <c r="AG3">
-        <v>1.100000023840383</v>
+        <v>0.669786432244013</v>
       </c>
       <c r="AH3">
-        <v>0.9689144874145577</v>
+        <v>0.8518280946068217</v>
       </c>
       <c r="AI3">
-        <v>0.8434715680207194</v>
+        <v>0.9579198071587197</v>
       </c>
       <c r="AJ3">
-        <v>1.100000023840569</v>
+        <v>0.6279322069792089</v>
       </c>
       <c r="AK3">
-        <v>0.9656494086163243</v>
+        <v>0.8564846443872474</v>
       </c>
       <c r="AL3">
-        <v>-10.59028714735436</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM3">
-        <v>-125.1315647199126</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN3">
-        <v>121.6238606247693</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO3">
-        <v>-7.303623184977604</v>
+        <v>-3.782899000602696</v>
       </c>
       <c r="AP3">
-        <v>-129.0553880005655</v>
+        <v>-125.5778459566468</v>
       </c>
       <c r="AQ3">
-        <v>123.0990884522615</v>
+        <v>102.267677590504</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11108,130 +11108,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001051495364067591</v>
+        <v>0.0009823899252776639</v>
       </c>
       <c r="C4">
-        <v>0.001051495304958121</v>
+        <v>0.0009823900782596779</v>
       </c>
       <c r="D4">
-        <v>0.001051495304958431</v>
+        <v>0.0009823898275222467</v>
       </c>
       <c r="E4">
-        <v>0.9013413881175297</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.040334427075161</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.9016673918383697</v>
       </c>
       <c r="H4">
-        <v>0.01214162262992134</v>
+        <v>0.01134366175616471</v>
       </c>
       <c r="I4">
-        <v>0.01214162194738397</v>
+        <v>0.01134366352264885</v>
       </c>
       <c r="J4">
-        <v>0.01214162194738756</v>
+        <v>0.01134366062738238</v>
       </c>
       <c r="K4">
-        <v>10.40779386122814</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.01274723038158</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.41155822794781</v>
       </c>
       <c r="N4">
-        <v>0.001250558496466751</v>
+        <v>-0.001088909170532234</v>
       </c>
       <c r="O4">
-        <v>0.01094055653657469</v>
+        <v>-0.005775452745240296</v>
       </c>
       <c r="P4">
-        <v>-0.01218805072491847</v>
+        <v>0.006867035588462957</v>
       </c>
       <c r="Q4">
-        <v>-4.062081489382829</v>
+        <v>-6.104329920613961E-10</v>
       </c>
       <c r="R4">
-        <v>-2.699615922445765E-11</v>
+        <v>-5.411478600540398</v>
       </c>
       <c r="S4">
-        <v>-7.525001562855207E-10</v>
+        <v>-4.06502042684738</v>
       </c>
       <c r="T4">
-        <v>0.007483615236123935</v>
+        <v>-0.01328528465734604</v>
       </c>
       <c r="U4">
-        <v>-0.007387310139227273</v>
+        <v>0.005092924817439592</v>
       </c>
       <c r="V4">
-        <v>-0.007832798065552281</v>
+        <v>0.001439352653030835</v>
       </c>
       <c r="W4">
-        <v>-4.062081490748389</v>
+        <v>-3.280096416024048E-10</v>
       </c>
       <c r="X4">
-        <v>-6.938634982867346E-10</v>
+        <v>-5.411478601851178</v>
       </c>
       <c r="Y4">
-        <v>2.749977626078639E-10</v>
+        <v>-4.065020428520516</v>
       </c>
       <c r="Z4">
-        <v>-52.30362318491544</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-170.5778459566016</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>57.26767759056567</v>
       </c>
       <c r="AC4">
-        <v>127.6963768053863</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>9.422154036408646</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-122.7323224212782</v>
       </c>
       <c r="AF4">
-        <v>0.8440065675549148</v>
+        <v>0.9653165427949276</v>
       </c>
       <c r="AG4">
-        <v>1.100000023840383</v>
+        <v>0.669786432244013</v>
       </c>
       <c r="AH4">
-        <v>0.9689144874145577</v>
+        <v>0.8518280946068217</v>
       </c>
       <c r="AI4">
-        <v>0.8434715680207194</v>
+        <v>0.9579198071587198</v>
       </c>
       <c r="AJ4">
-        <v>1.100000023840569</v>
+        <v>0.627932206979209</v>
       </c>
       <c r="AK4">
-        <v>0.9656494086163243</v>
+        <v>0.8564846443872474</v>
       </c>
       <c r="AL4">
-        <v>-10.59028714735436</v>
+        <v>-2.700740752990738</v>
       </c>
       <c r="AM4">
-        <v>-125.1315647199126</v>
+        <v>-129.4216267706429</v>
       </c>
       <c r="AN4">
-        <v>121.6238606247693</v>
+        <v>103.8229478846527</v>
       </c>
       <c r="AO4">
-        <v>-7.303623184977599</v>
+        <v>-3.782899000602703</v>
       </c>
       <c r="AP4">
-        <v>-129.0553880005655</v>
+        <v>-125.5778459566467</v>
       </c>
       <c r="AQ4">
-        <v>123.0990884522615</v>
+        <v>102.267677590504</v>
       </c>
     </row>
   </sheetData>
@@ -11383,130 +11383,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.004977970191962938</v>
+        <v>0.004967324081692308</v>
       </c>
       <c r="C2">
-        <v>0.004977970184788614</v>
+        <v>0.004967324910251277</v>
       </c>
       <c r="D2">
-        <v>0.00497797018478876</v>
+        <v>0.004967323260298392</v>
       </c>
       <c r="E2">
-        <v>1.687944410036665</v>
+        <v>0.003973101615381171</v>
       </c>
       <c r="F2">
-        <v>0.004831112334403099</v>
+        <v>2.144370611391086</v>
       </c>
       <c r="G2">
-        <v>0.00483111233440309</v>
+        <v>1.546342800884956</v>
       </c>
       <c r="H2">
-        <v>0.0574806486069547</v>
+        <v>0.05735771791434329</v>
       </c>
       <c r="I2">
-        <v>0.05748064852411275</v>
+        <v>0.05735772748171816</v>
       </c>
       <c r="J2">
-        <v>0.05748064852411443</v>
+        <v>0.05735770842970333</v>
       </c>
       <c r="K2">
-        <v>19.49070319023586</v>
+        <v>0.04587742574316112</v>
       </c>
       <c r="L2">
-        <v>0.05578488013505902</v>
+        <v>24.76105899457932</v>
       </c>
       <c r="M2">
-        <v>0.05578488013505891</v>
+        <v>17.85562864700739</v>
       </c>
       <c r="N2">
-        <v>-7.555640465550951E-14</v>
+        <v>0.0003940949045826987</v>
       </c>
       <c r="O2">
-        <v>0.0499762631613422</v>
+        <v>-1.492955594072121E-13</v>
       </c>
       <c r="P2">
-        <v>-0.04958047717678123</v>
+        <v>1.237508122131988E-13</v>
       </c>
       <c r="Q2">
-        <v>3.837263617914324E-11</v>
+        <v>-4.201187351811122E-05</v>
       </c>
       <c r="R2">
-        <v>-0.04575507447148702</v>
+        <v>-2.54730731471812E-11</v>
       </c>
       <c r="S2">
-        <v>0.0456929579716757</v>
+        <v>-1.013521441795996E-11</v>
       </c>
       <c r="T2">
-        <v>-2.25575121089092E-13</v>
+        <v>-0.05747903762723393</v>
       </c>
       <c r="U2">
-        <v>-0.02849872696657365</v>
+        <v>5.31319679151203E-14</v>
       </c>
       <c r="V2">
-        <v>-0.02922695593664361</v>
+        <v>1.017545698726978E-13</v>
       </c>
       <c r="W2">
-        <v>3.294157968945084E-11</v>
+        <v>0.05522796361253196</v>
       </c>
       <c r="X2">
-        <v>0.02523114745353656</v>
+        <v>-3.291354102038258E-11</v>
       </c>
       <c r="Y2">
-        <v>0.05642595338800612</v>
+        <v>-2.876938231546658E-11</v>
       </c>
       <c r="Z2">
-        <v>-58.67102029364673</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>178.3899539335775</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>38.51595875229155</v>
       </c>
       <c r="AC2">
-        <v>121.2030554086979</v>
+        <v>-97.65541190037995</v>
       </c>
       <c r="AD2">
-        <v>71.164434861202</v>
+        <v>-1.715613723191751</v>
       </c>
       <c r="AE2">
-        <v>71.16443486121739</v>
+        <v>-141.382095582265</v>
       </c>
       <c r="AF2">
-        <v>0.5778549958900403</v>
+        <v>0.5785850458643943</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999962847</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.5780849144276639</v>
+        <v>0.5785850458648649</v>
       </c>
       <c r="AI2">
-        <v>0.5407731743511122</v>
+        <v>0.6950234972340792</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999980868</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.7514492206972073</v>
+        <v>0.6950234972340121</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.01310313133982031</v>
       </c>
       <c r="AM2">
-        <v>-120.1128399339563</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>120.0996242898029</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AP2">
-        <v>-137.7096350527863</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>122.1643601285336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -11514,130 +11514,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.002415556346345361</v>
+        <v>0.001986550828696565</v>
       </c>
       <c r="C3">
-        <v>0.002415556192743605</v>
+        <v>0.001986551164405577</v>
       </c>
       <c r="D3">
-        <v>0.002415556192743473</v>
+        <v>0.001986550619308198</v>
       </c>
       <c r="E3">
-        <v>1.224899235594462</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.791382664817284</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.312244351412914</v>
       </c>
       <c r="H3">
-        <v>0.02789244213610407</v>
+        <v>0.02293871311413673</v>
       </c>
       <c r="I3">
-        <v>0.02789244036246376</v>
+        <v>0.02293871699057049</v>
       </c>
       <c r="J3">
-        <v>0.02789244036246224</v>
+        <v>0.02293871069632812</v>
       </c>
       <c r="K3">
-        <v>14.14391806801259</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>20.68510527507776</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.15249259061623</v>
       </c>
       <c r="N3">
-        <v>8.634313852912011E-16</v>
+        <v>2.100546749356976E-05</v>
       </c>
       <c r="O3">
-        <v>0.02287753726315919</v>
+        <v>-3.276953465211265E-14</v>
       </c>
       <c r="P3">
-        <v>-0.0228464797070914</v>
+        <v>3.495619424249233E-14</v>
       </c>
       <c r="Q3">
-        <v>1.96866633267102E-11</v>
+        <v>-1.427193094982945E-09</v>
       </c>
       <c r="R3">
-        <v>-4.967019357168854E-10</v>
+        <v>-2.613283223998603E-11</v>
       </c>
       <c r="S3">
-        <v>-2.202176393458631E-09</v>
+        <v>-1.261121655894508E-11</v>
       </c>
       <c r="T3">
-        <v>-7.236774152900684E-14</v>
+        <v>-0.02761398209861602</v>
       </c>
       <c r="U3">
-        <v>-0.01261557424913103</v>
+        <v>2.031629906764666E-14</v>
       </c>
       <c r="V3">
-        <v>-0.02821297660388983</v>
+        <v>1.77085074448908E-14</v>
       </c>
       <c r="W3">
-        <v>1.043389234095012E-11</v>
+        <v>-5.206935567981735E-10</v>
       </c>
       <c r="X3">
-        <v>-1.599531615991289E-09</v>
+        <v>-1.139776544245192E-11</v>
       </c>
       <c r="Y3">
-        <v>6.148580230478545E-10</v>
+        <v>-1.720507024952547E-11</v>
       </c>
       <c r="Z3">
-        <v>-45.53349015728301</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-169.8819077454678</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>38.46706774396528</v>
       </c>
       <c r="AC3">
-        <v>134.4665098321094</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>10.11809224675812</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-141.532932269741</v>
       </c>
       <c r="AF3">
-        <v>0.5407731743511122</v>
+        <v>0.6950234972340792</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999980868</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.7514492206972073</v>
+        <v>0.6950234972340121</v>
       </c>
       <c r="AI3">
-        <v>0.5992308608385498</v>
+        <v>0.7474500608991325</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999990241</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8180273553921663</v>
+        <v>0.7474500608986431</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM3">
-        <v>-137.7096350527863</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>122.1643601285336</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-6.297561754845085</v>
       </c>
       <c r="AP3">
-        <v>-144.8539944197721</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>126.7970300908124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -11645,130 +11645,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.002415556346345752</v>
+        <v>0.001986550828695967</v>
       </c>
       <c r="C4">
-        <v>0.002415556192743346</v>
+        <v>0.001986551164407288</v>
       </c>
       <c r="D4">
-        <v>0.002415556192743432</v>
+        <v>0.001986550619308956</v>
       </c>
       <c r="E4">
-        <v>1.224899235594465</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.791382664817285</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.312244351412916</v>
       </c>
       <c r="H4">
-        <v>0.02789244213610858</v>
+        <v>0.02293871311412982</v>
       </c>
       <c r="I4">
-        <v>0.02789244036246076</v>
+        <v>0.02293871699059025</v>
       </c>
       <c r="J4">
-        <v>0.02789244036246177</v>
+        <v>0.02293871069633687</v>
       </c>
       <c r="K4">
-        <v>14.14391806801262</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>20.68510527507777</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.15249259061626</v>
       </c>
       <c r="N4">
-        <v>8.63431385297087E-16</v>
+        <v>2.100546747454216E-05</v>
       </c>
       <c r="O4">
-        <v>0.02287753726315606</v>
+        <v>-3.276953465217663E-14</v>
       </c>
       <c r="P4">
-        <v>-0.02284647970707757</v>
+        <v>3.495619424251028E-14</v>
       </c>
       <c r="Q4">
-        <v>1.969478345106649E-11</v>
+        <v>-1.427177856100207E-09</v>
       </c>
       <c r="R4">
-        <v>-4.966926652003443E-10</v>
+        <v>-2.611531297594028E-11</v>
       </c>
       <c r="S4">
-        <v>-2.202187798083027E-09</v>
+        <v>-1.262198824733055E-11</v>
       </c>
       <c r="T4">
-        <v>-7.236774152901846E-14</v>
+        <v>-0.02761398209860772</v>
       </c>
       <c r="U4">
-        <v>-0.01261557424913089</v>
+        <v>2.031629906760651E-14</v>
       </c>
       <c r="V4">
-        <v>-0.02821297660390025</v>
+        <v>1.770850744488848E-14</v>
       </c>
       <c r="W4">
-        <v>1.043912404498799E-11</v>
+        <v>-5.206952385300933E-10</v>
       </c>
       <c r="X4">
-        <v>-1.599534108418081E-09</v>
+        <v>-1.13845622898358E-11</v>
       </c>
       <c r="Y4">
-        <v>6.14862064527645E-10</v>
+        <v>-1.720510648515593E-11</v>
       </c>
       <c r="Z4">
-        <v>-45.53349015728301</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-169.8819077454678</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>38.46706774396529</v>
       </c>
       <c r="AC4">
-        <v>134.4665098321095</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>10.11809224675813</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-141.5329322697409</v>
       </c>
       <c r="AF4">
-        <v>0.5407731743511122</v>
+        <v>0.6950234972340792</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999980868</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7514492206972073</v>
+        <v>0.6950234972340121</v>
       </c>
       <c r="AI4">
-        <v>0.5992308608385494</v>
+        <v>0.7474500608991327</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999990241</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8180273553921662</v>
+        <v>0.7474500608986436</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM4">
-        <v>-137.7096350527863</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>122.1643601285336</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-6.29756175484508</v>
       </c>
       <c r="AP4">
-        <v>-144.8539944197721</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>126.7970300908124</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12145,130 +12145,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.004977970191962938</v>
+        <v>0.004967324081692308</v>
       </c>
       <c r="C2">
-        <v>0.004977970184788614</v>
+        <v>0.004967324910251277</v>
       </c>
       <c r="D2">
-        <v>0.00497797018478876</v>
+        <v>0.004967323260298392</v>
       </c>
       <c r="E2">
-        <v>1.687944410036665</v>
+        <v>0.003973101615381171</v>
       </c>
       <c r="F2">
-        <v>0.004831112334403099</v>
+        <v>2.144370611391086</v>
       </c>
       <c r="G2">
-        <v>0.00483111233440309</v>
+        <v>1.546342800884956</v>
       </c>
       <c r="H2">
-        <v>0.0574806486069547</v>
+        <v>0.05735771791434329</v>
       </c>
       <c r="I2">
-        <v>0.05748064852411275</v>
+        <v>0.05735772748171816</v>
       </c>
       <c r="J2">
-        <v>0.05748064852411443</v>
+        <v>0.05735770842970333</v>
       </c>
       <c r="K2">
-        <v>19.49070319023586</v>
+        <v>0.04587742574316112</v>
       </c>
       <c r="L2">
-        <v>0.05578488013505902</v>
+        <v>24.76105899457932</v>
       </c>
       <c r="M2">
-        <v>0.05578488013505891</v>
+        <v>17.85562864700739</v>
       </c>
       <c r="N2">
-        <v>-7.555640465550951E-14</v>
+        <v>0.0003940949045826987</v>
       </c>
       <c r="O2">
-        <v>0.0499762631613422</v>
+        <v>-1.492955594072121E-13</v>
       </c>
       <c r="P2">
-        <v>-0.04958047717678123</v>
+        <v>1.237508122131988E-13</v>
       </c>
       <c r="Q2">
-        <v>3.837263617914324E-11</v>
+        <v>-4.201187351811122E-05</v>
       </c>
       <c r="R2">
-        <v>-0.04575507447148702</v>
+        <v>-2.54730731471812E-11</v>
       </c>
       <c r="S2">
-        <v>0.0456929579716757</v>
+        <v>-1.013521441795996E-11</v>
       </c>
       <c r="T2">
-        <v>-2.25575121089092E-13</v>
+        <v>-0.05747903762723393</v>
       </c>
       <c r="U2">
-        <v>-0.02849872696657365</v>
+        <v>5.31319679151203E-14</v>
       </c>
       <c r="V2">
-        <v>-0.02922695593664361</v>
+        <v>1.017545698726978E-13</v>
       </c>
       <c r="W2">
-        <v>3.294157968945084E-11</v>
+        <v>0.05522796361253196</v>
       </c>
       <c r="X2">
-        <v>0.02523114745353656</v>
+        <v>-3.291354102038258E-11</v>
       </c>
       <c r="Y2">
-        <v>0.05642595338800612</v>
+        <v>-2.876938231546658E-11</v>
       </c>
       <c r="Z2">
-        <v>-58.67102029364673</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>178.3899539335775</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>38.51595875229155</v>
       </c>
       <c r="AC2">
-        <v>121.2030554086979</v>
+        <v>-97.65541190037995</v>
       </c>
       <c r="AD2">
-        <v>71.164434861202</v>
+        <v>-1.715613723191751</v>
       </c>
       <c r="AE2">
-        <v>71.16443486121739</v>
+        <v>-141.382095582265</v>
       </c>
       <c r="AF2">
-        <v>0.5778549958900403</v>
+        <v>0.5785850458643943</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999962847</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.5780849144276639</v>
+        <v>0.5785850458648649</v>
       </c>
       <c r="AI2">
-        <v>0.5407731743511122</v>
+        <v>0.6950234972340792</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999980868</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.7514492206972073</v>
+        <v>0.6950234972340121</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>-0.01310313133982031</v>
       </c>
       <c r="AM2">
-        <v>-120.1128399339563</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>120.0996242898029</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AP2">
-        <v>-137.7096350527863</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>122.1643601285336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12276,130 +12276,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.002415556346345361</v>
+        <v>0.001986550828696565</v>
       </c>
       <c r="C3">
-        <v>0.002415556192743605</v>
+        <v>0.001986551164405577</v>
       </c>
       <c r="D3">
-        <v>0.002415556192743473</v>
+        <v>0.001986550619308198</v>
       </c>
       <c r="E3">
-        <v>1.224899235594462</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.791382664817284</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.312244351412914</v>
       </c>
       <c r="H3">
-        <v>0.02789244213610407</v>
+        <v>0.02293871311413673</v>
       </c>
       <c r="I3">
-        <v>0.02789244036246376</v>
+        <v>0.02293871699057049</v>
       </c>
       <c r="J3">
-        <v>0.02789244036246224</v>
+        <v>0.02293871069632812</v>
       </c>
       <c r="K3">
-        <v>14.14391806801259</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>20.68510527507776</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>15.15249259061623</v>
       </c>
       <c r="N3">
-        <v>8.634313852912011E-16</v>
+        <v>2.100546749356976E-05</v>
       </c>
       <c r="O3">
-        <v>0.02287753726315919</v>
+        <v>-3.276953465211265E-14</v>
       </c>
       <c r="P3">
-        <v>-0.0228464797070914</v>
+        <v>3.495619424249233E-14</v>
       </c>
       <c r="Q3">
-        <v>1.96866633267102E-11</v>
+        <v>-1.427193094982945E-09</v>
       </c>
       <c r="R3">
-        <v>-4.967019357168854E-10</v>
+        <v>-2.613283223998603E-11</v>
       </c>
       <c r="S3">
-        <v>-2.202176393458631E-09</v>
+        <v>-1.261121655894508E-11</v>
       </c>
       <c r="T3">
-        <v>-7.236774152900684E-14</v>
+        <v>-0.02761398209861602</v>
       </c>
       <c r="U3">
-        <v>-0.01261557424913103</v>
+        <v>2.031629906764666E-14</v>
       </c>
       <c r="V3">
-        <v>-0.02821297660388983</v>
+        <v>1.77085074448908E-14</v>
       </c>
       <c r="W3">
-        <v>1.043389234095012E-11</v>
+        <v>-5.206935567981735E-10</v>
       </c>
       <c r="X3">
-        <v>-1.599531615991289E-09</v>
+        <v>-1.139776544245192E-11</v>
       </c>
       <c r="Y3">
-        <v>6.148580230478545E-10</v>
+        <v>-1.720507024952547E-11</v>
       </c>
       <c r="Z3">
-        <v>-45.53349015728301</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-169.8819077454678</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>38.46706774396528</v>
       </c>
       <c r="AC3">
-        <v>134.4665098321094</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>10.11809224675812</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-141.532932269741</v>
       </c>
       <c r="AF3">
-        <v>0.5407731743511122</v>
+        <v>0.6950234972340792</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999980868</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.7514492206972073</v>
+        <v>0.6950234972340121</v>
       </c>
       <c r="AI3">
-        <v>0.5992308608385498</v>
+        <v>0.7474500608991325</v>
       </c>
       <c r="AJ3">
-        <v>0.9999999999990241</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.8180273553921663</v>
+        <v>0.7474500608986431</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM3">
-        <v>-137.7096350527863</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>122.1643601285336</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>-6.297561754845085</v>
       </c>
       <c r="AP3">
-        <v>-144.8539944197721</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>126.7970300908124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12407,130 +12407,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.002415556346345752</v>
+        <v>0.001986550828695967</v>
       </c>
       <c r="C4">
-        <v>0.002415556192743346</v>
+        <v>0.001986551164407288</v>
       </c>
       <c r="D4">
-        <v>0.002415556192743432</v>
+        <v>0.001986550619308956</v>
       </c>
       <c r="E4">
-        <v>1.224899235594465</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.791382664817285</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.312244351412916</v>
       </c>
       <c r="H4">
-        <v>0.02789244213610858</v>
+        <v>0.02293871311412982</v>
       </c>
       <c r="I4">
-        <v>0.02789244036246076</v>
+        <v>0.02293871699059025</v>
       </c>
       <c r="J4">
-        <v>0.02789244036246177</v>
+        <v>0.02293871069633687</v>
       </c>
       <c r="K4">
-        <v>14.14391806801262</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>20.68510527507777</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>15.15249259061626</v>
       </c>
       <c r="N4">
-        <v>8.63431385297087E-16</v>
+        <v>2.100546747454216E-05</v>
       </c>
       <c r="O4">
-        <v>0.02287753726315606</v>
+        <v>-3.276953465217663E-14</v>
       </c>
       <c r="P4">
-        <v>-0.02284647970707757</v>
+        <v>3.495619424251028E-14</v>
       </c>
       <c r="Q4">
-        <v>1.969478345106649E-11</v>
+        <v>-1.427177856100207E-09</v>
       </c>
       <c r="R4">
-        <v>-4.966926652003443E-10</v>
+        <v>-2.611531297594028E-11</v>
       </c>
       <c r="S4">
-        <v>-2.202187798083027E-09</v>
+        <v>-1.262198824733055E-11</v>
       </c>
       <c r="T4">
-        <v>-7.236774152901846E-14</v>
+        <v>-0.02761398209860772</v>
       </c>
       <c r="U4">
-        <v>-0.01261557424913089</v>
+        <v>2.031629906760651E-14</v>
       </c>
       <c r="V4">
-        <v>-0.02821297660390025</v>
+        <v>1.770850744488848E-14</v>
       </c>
       <c r="W4">
-        <v>1.043912404498799E-11</v>
+        <v>-5.206952385300933E-10</v>
       </c>
       <c r="X4">
-        <v>-1.599534108418081E-09</v>
+        <v>-1.13845622898358E-11</v>
       </c>
       <c r="Y4">
-        <v>6.14862064527645E-10</v>
+        <v>-1.720510648515593E-11</v>
       </c>
       <c r="Z4">
-        <v>-45.53349015728301</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-169.8819077454678</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>38.46706774396529</v>
       </c>
       <c r="AC4">
-        <v>134.4665098321095</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>10.11809224675813</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-141.5329322697409</v>
       </c>
       <c r="AF4">
-        <v>0.5407731743511122</v>
+        <v>0.6950234972340792</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999980868</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.7514492206972073</v>
+        <v>0.6950234972340121</v>
       </c>
       <c r="AI4">
-        <v>0.5992308608385494</v>
+        <v>0.7474500608991327</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999990241</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.8180273553921662</v>
+        <v>0.7474500608986436</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>-7.611827049154744</v>
       </c>
       <c r="AM4">
-        <v>-137.7096350527863</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>122.1643601285336</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>-6.29756175484508</v>
       </c>
       <c r="AP4">
-        <v>-144.8539944197721</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>126.7970300908124</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12682,130 +12682,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002187988958452077</v>
+        <v>0.002186008186052339</v>
       </c>
       <c r="C2">
-        <v>0.002187988955299735</v>
+        <v>0.002186008549782637</v>
       </c>
       <c r="D2">
-        <v>0.002187988955299794</v>
+        <v>0.002186007825474825</v>
       </c>
       <c r="E2">
-        <v>0.8367283517811521</v>
+        <v>0.002149855079153443</v>
       </c>
       <c r="F2">
-        <v>0.002394823334701176</v>
+        <v>0.9570414563987543</v>
       </c>
       <c r="G2">
-        <v>0.002394823334701831</v>
+        <v>0.8169675519292499</v>
       </c>
       <c r="H2">
-        <v>0.02526472028292472</v>
+        <v>0.02524184829336087</v>
       </c>
       <c r="I2">
-        <v>0.0252647202465246</v>
+        <v>0.02524185249335658</v>
       </c>
       <c r="J2">
-        <v>0.02526472024652528</v>
+        <v>0.02524184412977037</v>
       </c>
       <c r="K2">
-        <v>9.661706782788803</v>
+        <v>0.02482438817335849</v>
       </c>
       <c r="L2">
-        <v>0.02765303793902642</v>
+        <v>11.05096284954905</v>
       </c>
       <c r="M2">
-        <v>0.02765303793903399</v>
+        <v>9.433528720510839</v>
       </c>
       <c r="N2">
-        <v>0.009831532671414586</v>
+        <v>-0.009737418525266241</v>
       </c>
       <c r="O2">
-        <v>0.01530731348535312</v>
+        <v>-0.005665995794831129</v>
       </c>
       <c r="P2">
-        <v>-0.02506238639781851</v>
+        <v>0.01547973338044119</v>
       </c>
       <c r="Q2">
-        <v>-3.48645730265588</v>
+        <v>-0.001038277449138248</v>
       </c>
       <c r="R2">
-        <v>-0.02407837607861344</v>
+        <v>-4.572469766590316</v>
       </c>
       <c r="S2">
-        <v>0.02279000189686241</v>
+        <v>-3.332954257136283</v>
       </c>
       <c r="T2">
-        <v>0.01220304333114967</v>
+        <v>-0.02331282524188677</v>
       </c>
       <c r="U2">
-        <v>-0.02012156184642946</v>
+        <v>0.01459899273701556</v>
       </c>
       <c r="V2">
-        <v>-0.003233530618850714</v>
+        <v>-0.002418032141857882</v>
       </c>
       <c r="W2">
-        <v>-3.50181610998515</v>
+        <v>0.02752170490581161</v>
       </c>
       <c r="X2">
-        <v>0.0121402722799663</v>
+        <v>-4.592299874093126</v>
       </c>
       <c r="Y2">
-        <v>0.02201076708604887</v>
+        <v>-3.325501539323074</v>
       </c>
       <c r="Z2">
-        <v>-51.72817261575595</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-170.9235815556613</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>58.3157265540805</v>
       </c>
       <c r="AC2">
-        <v>128.1459030865887</v>
+        <v>-96.51205885396874</v>
       </c>
       <c r="AD2">
-        <v>78.10728253909214</v>
+        <v>8.952445912679762</v>
       </c>
       <c r="AE2">
-        <v>78.10728253910108</v>
+        <v>-121.6201430962846</v>
       </c>
       <c r="AF2">
-        <v>0.7492067188226383</v>
+        <v>0.8721332518534242</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999987974</v>
+        <v>0.6208257825095037</v>
       </c>
       <c r="AH2">
-        <v>0.8719401990676209</v>
+        <v>0.7490594668689452</v>
       </c>
       <c r="AI2">
-        <v>0.7615594742962095</v>
+        <v>0.8671834304540896</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999991965</v>
+        <v>0.5701359740030982</v>
       </c>
       <c r="AK2">
-        <v>0.877371251159636</v>
+        <v>0.7780446838807024</v>
       </c>
       <c r="AL2">
-        <v>-16.15586420839396</v>
+        <v>0.0158194676764636</v>
       </c>
       <c r="AM2">
-        <v>-120.037002149499</v>
+        <v>-136.1029564689277</v>
       </c>
       <c r="AN2">
-        <v>120.0528789941859</v>
+        <v>103.8071623873661</v>
       </c>
       <c r="AO2">
-        <v>-6.728172615731542</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AP2">
-        <v>-128.6498735956027</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AQ2">
-        <v>122.1108182946456</v>
+        <v>103.3157265540677</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -12813,130 +12813,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001197411756153878</v>
+        <v>0.001074927550943404</v>
       </c>
       <c r="C3">
-        <v>0.001197411680011855</v>
+        <v>0.001074927702694966</v>
       </c>
       <c r="D3">
-        <v>0.00119741168001153</v>
+        <v>0.001074927467544633</v>
       </c>
       <c r="E3">
-        <v>0.6999120445013209</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.8779780940021618</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.7099194196940264</v>
       </c>
       <c r="H3">
-        <v>0.01382651999492528</v>
+        <v>0.01241219421793039</v>
       </c>
       <c r="I3">
-        <v>0.01382651911571293</v>
+        <v>0.0124121959702065</v>
       </c>
       <c r="J3">
-        <v>0.01382651911570918</v>
+        <v>0.01241219325492433</v>
       </c>
       <c r="K3">
-        <v>8.081888146037981</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.13801777829485</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.197443361265782</v>
       </c>
       <c r="N3">
-        <v>-0.0006365558078439346</v>
+        <v>0.0005191384960944979</v>
       </c>
       <c r="O3">
-        <v>0.01203918806340264</v>
+        <v>-0.006340618136742675</v>
       </c>
       <c r="P3">
-        <v>-0.0113950012560248</v>
+        <v>0.00582762833564396</v>
       </c>
       <c r="Q3">
-        <v>-2.44938435017532</v>
+        <v>-8.178971484954886E-10</v>
       </c>
       <c r="R3">
-        <v>-1.13532175503883E-10</v>
+        <v>-3.854227667769854</v>
       </c>
       <c r="S3">
-        <v>-1.082998250156873E-09</v>
+        <v>-2.519927911799696</v>
       </c>
       <c r="T3">
-        <v>0.007042847293700775</v>
+        <v>-0.01376085260724463</v>
       </c>
       <c r="U3">
-        <v>-0.006070136408858913</v>
+        <v>0.003574435067032464</v>
       </c>
       <c r="V3">
-        <v>-0.01100538346565306</v>
+        <v>0.002101268747174773</v>
       </c>
       <c r="W3">
-        <v>-2.449384351084683</v>
+        <v>-3.82601033781415E-10</v>
       </c>
       <c r="X3">
-        <v>-9.144554882181576E-10</v>
+        <v>-3.854227668652761</v>
       </c>
       <c r="Y3">
-        <v>3.547290842871596E-10</v>
+        <v>-2.519927913118709</v>
       </c>
       <c r="Z3">
-        <v>-45.30483532196973</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-164.3656480962364</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>56.69314540313634</v>
       </c>
       <c r="AC3">
-        <v>134.6951646674227</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>15.63435189714452</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-123.306854611875</v>
       </c>
       <c r="AF3">
-        <v>0.7615594742962095</v>
+        <v>0.8671834304540896</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999991965</v>
+        <v>0.5701359740030982</v>
       </c>
       <c r="AH3">
-        <v>0.877371251159636</v>
+        <v>0.7780446838807024</v>
       </c>
       <c r="AI3">
-        <v>0.7700746676618133</v>
+        <v>0.8595183170292721</v>
       </c>
       <c r="AJ3">
-        <v>0.999999999999447</v>
+        <v>0.526165712950652</v>
       </c>
       <c r="AK3">
-        <v>0.8785874061674938</v>
+        <v>0.793440478635774</v>
       </c>
       <c r="AL3">
-        <v>-6.728172615731542</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM3">
-        <v>-128.6498735956027</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN3">
-        <v>122.1108182946456</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO3">
-        <v>-0.3048353219359057</v>
+        <v>-5.054191003316187</v>
       </c>
       <c r="AP3">
-        <v>-134.4515915409578</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ3">
-        <v>124.489614959663</v>
+        <v>101.6931454031112</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -12944,130 +12944,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001197411756154132</v>
+        <v>0.001074927550943799</v>
       </c>
       <c r="C4">
-        <v>0.001197411680011945</v>
+        <v>0.001074927702695217</v>
       </c>
       <c r="D4">
-        <v>0.001197411680011689</v>
+        <v>0.001074927467544633</v>
       </c>
       <c r="E4">
-        <v>0.6999120445013212</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.8779780940021622</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.7099194196940273</v>
       </c>
       <c r="H4">
-        <v>0.01382651999492821</v>
+        <v>0.01241219421793495</v>
       </c>
       <c r="I4">
-        <v>0.01382651911571397</v>
+        <v>0.01241219597020939</v>
       </c>
       <c r="J4">
-        <v>0.01382651911571101</v>
+        <v>0.01241219325492433</v>
       </c>
       <c r="K4">
-        <v>8.081888146037983</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.13801777829486</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.197443361265792</v>
       </c>
       <c r="N4">
-        <v>-0.0006365558078452965</v>
+        <v>0.0005191384960927892</v>
       </c>
       <c r="O4">
-        <v>0.01203918806340318</v>
+        <v>-0.006340618136745429</v>
       </c>
       <c r="P4">
-        <v>-0.01139500125602854</v>
+        <v>0.00582762833564396</v>
       </c>
       <c r="Q4">
-        <v>-2.44938435017532</v>
+        <v>-8.178985457012579E-10</v>
       </c>
       <c r="R4">
-        <v>-1.13533386641515E-10</v>
+        <v>-3.854227667769854</v>
       </c>
       <c r="S4">
-        <v>-1.083003222861708E-09</v>
+        <v>-2.519927911799707</v>
       </c>
       <c r="T4">
-        <v>0.007042847293702157</v>
+        <v>-0.01376085260724977</v>
       </c>
       <c r="U4">
-        <v>-0.006070136408860086</v>
+        <v>0.00357443506703103</v>
       </c>
       <c r="V4">
-        <v>-0.01100538346565221</v>
+        <v>0.002101268747174773</v>
       </c>
       <c r="W4">
-        <v>-2.449384351084683</v>
+        <v>-3.826009102100307E-10</v>
       </c>
       <c r="X4">
-        <v>-9.144601025984314E-10</v>
+        <v>-3.854227668652761</v>
       </c>
       <c r="Y4">
-        <v>3.54736322427788E-10</v>
+        <v>-2.519927913118706</v>
       </c>
       <c r="Z4">
-        <v>-45.30483532196973</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-164.3656480962364</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>56.69314540313635</v>
       </c>
       <c r="AC4">
-        <v>134.6951646674227</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>15.63435189714453</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-123.3068546118748</v>
       </c>
       <c r="AF4">
-        <v>0.7615594742962095</v>
+        <v>0.8671834304540896</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999991965</v>
+        <v>0.5701359740030982</v>
       </c>
       <c r="AH4">
-        <v>0.877371251159636</v>
+        <v>0.7780446838807024</v>
       </c>
       <c r="AI4">
-        <v>0.7700746676618129</v>
+        <v>0.8595183170292721</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999994468</v>
+        <v>0.526165712950652</v>
       </c>
       <c r="AK4">
-        <v>0.8785874061674938</v>
+        <v>0.793440478635774</v>
       </c>
       <c r="AL4">
-        <v>-6.728172615731542</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM4">
-        <v>-128.6498735956027</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN4">
-        <v>122.1108182946456</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO4">
-        <v>-0.3048353219359008</v>
+        <v>-5.054191003316185</v>
       </c>
       <c r="AP4">
-        <v>-134.4515915409578</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ4">
-        <v>124.489614959663</v>
+        <v>101.6931454031111</v>
       </c>
     </row>
   </sheetData>
@@ -13219,130 +13219,130 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.002187988958452077</v>
+        <v>0.002186008186052339</v>
       </c>
       <c r="C2">
-        <v>0.002187988955299735</v>
+        <v>0.002186008549782637</v>
       </c>
       <c r="D2">
-        <v>0.002187988955299794</v>
+        <v>0.002186007825474825</v>
       </c>
       <c r="E2">
-        <v>0.8367283517811521</v>
+        <v>0.002149855079153443</v>
       </c>
       <c r="F2">
-        <v>0.002394823334701176</v>
+        <v>0.9570414563987543</v>
       </c>
       <c r="G2">
-        <v>0.002394823334701831</v>
+        <v>0.8169675519292499</v>
       </c>
       <c r="H2">
-        <v>0.02526472028292472</v>
+        <v>0.02524184829336087</v>
       </c>
       <c r="I2">
-        <v>0.0252647202465246</v>
+        <v>0.02524185249335658</v>
       </c>
       <c r="J2">
-        <v>0.02526472024652528</v>
+        <v>0.02524184412977037</v>
       </c>
       <c r="K2">
-        <v>9.661706782788803</v>
+        <v>0.02482438817335849</v>
       </c>
       <c r="L2">
-        <v>0.02765303793902642</v>
+        <v>11.05096284954905</v>
       </c>
       <c r="M2">
-        <v>0.02765303793903399</v>
+        <v>9.433528720510839</v>
       </c>
       <c r="N2">
-        <v>0.009831532671414586</v>
+        <v>-0.009737418525266241</v>
       </c>
       <c r="O2">
-        <v>0.01530731348535312</v>
+        <v>-0.005665995794831129</v>
       </c>
       <c r="P2">
-        <v>-0.02506238639781851</v>
+        <v>0.01547973338044119</v>
       </c>
       <c r="Q2">
-        <v>-3.48645730265588</v>
+        <v>-0.001038277449138248</v>
       </c>
       <c r="R2">
-        <v>-0.02407837607861344</v>
+        <v>-4.572469766590316</v>
       </c>
       <c r="S2">
-        <v>0.02279000189686241</v>
+        <v>-3.332954257136283</v>
       </c>
       <c r="T2">
-        <v>0.01220304333114967</v>
+        <v>-0.02331282524188677</v>
       </c>
       <c r="U2">
-        <v>-0.02012156184642946</v>
+        <v>0.01459899273701556</v>
       </c>
       <c r="V2">
-        <v>-0.003233530618850714</v>
+        <v>-0.002418032141857882</v>
       </c>
       <c r="W2">
-        <v>-3.50181610998515</v>
+        <v>0.02752170490581161</v>
       </c>
       <c r="X2">
-        <v>0.0121402722799663</v>
+        <v>-4.592299874093126</v>
       </c>
       <c r="Y2">
-        <v>0.02201076708604887</v>
+        <v>-3.325501539323074</v>
       </c>
       <c r="Z2">
-        <v>-51.72817261575595</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>-170.9235815556613</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>58.3157265540805</v>
       </c>
       <c r="AC2">
-        <v>128.1459030865887</v>
+        <v>-96.51205885396874</v>
       </c>
       <c r="AD2">
-        <v>78.10728253909214</v>
+        <v>8.952445912679762</v>
       </c>
       <c r="AE2">
-        <v>78.10728253910108</v>
+        <v>-121.6201430962846</v>
       </c>
       <c r="AF2">
-        <v>0.7492067188226383</v>
+        <v>0.8721332518534242</v>
       </c>
       <c r="AG2">
-        <v>0.9999999999987974</v>
+        <v>0.6208257825095037</v>
       </c>
       <c r="AH2">
-        <v>0.8719401990676209</v>
+        <v>0.7490594668689452</v>
       </c>
       <c r="AI2">
-        <v>0.7615594742962095</v>
+        <v>0.8671834304540896</v>
       </c>
       <c r="AJ2">
-        <v>0.9999999999991965</v>
+        <v>0.5701359740030982</v>
       </c>
       <c r="AK2">
-        <v>0.877371251159636</v>
+        <v>0.7780446838807024</v>
       </c>
       <c r="AL2">
-        <v>-16.15586420839396</v>
+        <v>0.0158194676764636</v>
       </c>
       <c r="AM2">
-        <v>-120.037002149499</v>
+        <v>-136.1029564689277</v>
       </c>
       <c r="AN2">
-        <v>120.0528789941859</v>
+        <v>103.8071623873661</v>
       </c>
       <c r="AO2">
-        <v>-6.728172615731542</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AP2">
-        <v>-128.6498735956027</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AQ2">
-        <v>122.1108182946456</v>
+        <v>103.3157265540677</v>
       </c>
     </row>
     <row r="3" spans="1:43">
@@ -13350,130 +13350,130 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.001197411756153878</v>
+        <v>0.001074927550943404</v>
       </c>
       <c r="C3">
-        <v>0.001197411680011855</v>
+        <v>0.001074927702694966</v>
       </c>
       <c r="D3">
-        <v>0.00119741168001153</v>
+        <v>0.001074927467544633</v>
       </c>
       <c r="E3">
-        <v>0.6999120445013209</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.8779780940021618</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.7099194196940264</v>
       </c>
       <c r="H3">
-        <v>0.01382651999492528</v>
+        <v>0.01241219421793039</v>
       </c>
       <c r="I3">
-        <v>0.01382651911571293</v>
+        <v>0.0124121959702065</v>
       </c>
       <c r="J3">
-        <v>0.01382651911570918</v>
+        <v>0.01241219325492433</v>
       </c>
       <c r="K3">
-        <v>8.081888146037981</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.13801777829485</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>8.197443361265782</v>
       </c>
       <c r="N3">
-        <v>-0.0006365558078439346</v>
+        <v>0.0005191384960944979</v>
       </c>
       <c r="O3">
-        <v>0.01203918806340264</v>
+        <v>-0.006340618136742675</v>
       </c>
       <c r="P3">
-        <v>-0.0113950012560248</v>
+        <v>0.00582762833564396</v>
       </c>
       <c r="Q3">
-        <v>-2.44938435017532</v>
+        <v>-8.178971484954886E-10</v>
       </c>
       <c r="R3">
-        <v>-1.13532175503883E-10</v>
+        <v>-3.854227667769854</v>
       </c>
       <c r="S3">
-        <v>-1.082998250156873E-09</v>
+        <v>-2.519927911799696</v>
       </c>
       <c r="T3">
-        <v>0.007042847293700775</v>
+        <v>-0.01376085260724463</v>
       </c>
       <c r="U3">
-        <v>-0.006070136408858913</v>
+        <v>0.003574435067032464</v>
       </c>
       <c r="V3">
-        <v>-0.01100538346565306</v>
+        <v>0.002101268747174773</v>
       </c>
       <c r="W3">
-        <v>-2.449384351084683</v>
+        <v>-3.82601033781415E-10</v>
       </c>
       <c r="X3">
-        <v>-9.144554882181576E-10</v>
+        <v>-3.854227668652761</v>
       </c>
       <c r="Y3">
-        <v>3.547290842871596E-10</v>
+        <v>-2.519927913118709</v>
       </c>
       <c r="Z3">
-        <v>-45.30483532196973</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-164.3656480962364</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>56.69314540313634</v>
       </c>
       <c r="AC3">
-        <v>134.6951646674227</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>15.63435189714452</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>-123.306854611875</v>
       </c>
       <c r="AF3">
-        <v>0.7615594742962095</v>
+        <v>0.8671834304540896</v>
       </c>
       <c r="AG3">
-        <v>0.9999999999991965</v>
+        <v>0.5701359740030982</v>
       </c>
       <c r="AH3">
-        <v>0.877371251159636</v>
+        <v>0.7780446838807024</v>
       </c>
       <c r="AI3">
-        <v>0.7700746676618133</v>
+        <v>0.8595183170292721</v>
       </c>
       <c r="AJ3">
-        <v>0.999999999999447</v>
+        <v>0.526165712950652</v>
       </c>
       <c r="AK3">
-        <v>0.8785874061674938</v>
+        <v>0.793440478635774</v>
       </c>
       <c r="AL3">
-        <v>-6.728172615731542</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM3">
-        <v>-128.6498735956027</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN3">
-        <v>122.1108182946456</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO3">
-        <v>-0.3048353219359057</v>
+        <v>-5.054191003316187</v>
       </c>
       <c r="AP3">
-        <v>-134.4515915409578</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ3">
-        <v>124.489614959663</v>
+        <v>101.6931454031112</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -13481,130 +13481,130 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.001197411756154132</v>
+        <v>0.001074927550943799</v>
       </c>
       <c r="C4">
-        <v>0.001197411680011945</v>
+        <v>0.001074927702695217</v>
       </c>
       <c r="D4">
-        <v>0.001197411680011689</v>
+        <v>0.001074927467544633</v>
       </c>
       <c r="E4">
-        <v>0.6999120445013212</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.8779780940021622</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.7099194196940273</v>
       </c>
       <c r="H4">
-        <v>0.01382651999492821</v>
+        <v>0.01241219421793495</v>
       </c>
       <c r="I4">
-        <v>0.01382651911571397</v>
+        <v>0.01241219597020939</v>
       </c>
       <c r="J4">
-        <v>0.01382651911571101</v>
+        <v>0.01241219325492433</v>
       </c>
       <c r="K4">
-        <v>8.081888146037983</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.13801777829486</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.197443361265792</v>
       </c>
       <c r="N4">
-        <v>-0.0006365558078452965</v>
+        <v>0.0005191384960927892</v>
       </c>
       <c r="O4">
-        <v>0.01203918806340318</v>
+        <v>-0.006340618136745429</v>
       </c>
       <c r="P4">
-        <v>-0.01139500125602854</v>
+        <v>0.00582762833564396</v>
       </c>
       <c r="Q4">
-        <v>-2.44938435017532</v>
+        <v>-8.178985457012579E-10</v>
       </c>
       <c r="R4">
-        <v>-1.13533386641515E-10</v>
+        <v>-3.854227667769854</v>
       </c>
       <c r="S4">
-        <v>-1.083003222861708E-09</v>
+        <v>-2.519927911799707</v>
       </c>
       <c r="T4">
-        <v>0.007042847293702157</v>
+        <v>-0.01376085260724977</v>
       </c>
       <c r="U4">
-        <v>-0.006070136408860086</v>
+        <v>0.00357443506703103</v>
       </c>
       <c r="V4">
-        <v>-0.01100538346565221</v>
+        <v>0.002101268747174773</v>
       </c>
       <c r="W4">
-        <v>-2.449384351084683</v>
+        <v>-3.826009102100307E-10</v>
       </c>
       <c r="X4">
-        <v>-9.144601025984314E-10</v>
+        <v>-3.854227668652761</v>
       </c>
       <c r="Y4">
-        <v>3.54736322427788E-10</v>
+        <v>-2.519927913118706</v>
       </c>
       <c r="Z4">
-        <v>-45.30483532196973</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-164.3656480962364</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>56.69314540313635</v>
       </c>
       <c r="AC4">
-        <v>134.6951646674227</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>15.63435189714453</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>-123.3068546118748</v>
       </c>
       <c r="AF4">
-        <v>0.7615594742962095</v>
+        <v>0.8671834304540896</v>
       </c>
       <c r="AG4">
-        <v>0.9999999999991965</v>
+        <v>0.5701359740030982</v>
       </c>
       <c r="AH4">
-        <v>0.877371251159636</v>
+        <v>0.7780446838807024</v>
       </c>
       <c r="AI4">
-        <v>0.7700746676618129</v>
+        <v>0.8595183170292721</v>
       </c>
       <c r="AJ4">
-        <v>0.9999999999994468</v>
+        <v>0.526165712950652</v>
       </c>
       <c r="AK4">
-        <v>0.8785874061674938</v>
+        <v>0.793440478635774</v>
       </c>
       <c r="AL4">
-        <v>-6.728172615731542</v>
+        <v>-4.351556157237489</v>
       </c>
       <c r="AM4">
-        <v>-128.6498735956027</v>
+        <v>-125.9235815556908</v>
       </c>
       <c r="AN4">
-        <v>122.1108182946456</v>
+        <v>103.3157265540677</v>
       </c>
       <c r="AO4">
-        <v>-0.3048353219359008</v>
+        <v>-5.054191003316185</v>
       </c>
       <c r="AP4">
-        <v>-134.4515915409578</v>
+        <v>-119.3656480962875</v>
       </c>
       <c r="AQ4">
-        <v>124.489614959663</v>
+        <v>101.6931454031111</v>
       </c>
     </row>
   </sheetData>
